--- a/keyword.xlsx
+++ b/keyword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentina/Dropbox/ByTek/Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F3CF696-4F9D-3240-8B8B-82D36D8E0AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E32CA6-023E-0F4D-BB0F-E042ACD92540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13460" xr2:uid="{771A9766-A3C1-A942-85E7-3AE01D4011FE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="577">
   <si>
     <t>Keyword madre</t>
   </si>
@@ -1174,6 +1174,596 @@
   </si>
   <si>
     <t>zyprexa generico</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Etoricoxib Doc Generici  mg  compresse rivestite con film  equivalenti di Etoricoxib Doc Generici a base di Etoricoxib sono Algix Arcoxia Etoricoxib Alterwbr wbr Algix Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali ALGIX  Etoricoxib  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni ALGIX è indicato in adulti e adolescenti di età uguale o superiore a  anni per il trattamento sintomatico dellosteoartrosi OA dellartrite reumatoide AR   classf ago   ACARBOSIO DOC GENERICI  MG COMPRESSE  COMPRESSE IN  ALGIX  MG COMPRESSE RIVESTITE CON FILM    classf mar   Algix Cpr Riv  mg Alal  Algix Cpr Riv  mg Alal  Ripetibile Tipo Farmaco Generico Classe di prescrivibilità A  Rimborsabile  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Etoricoxib doc Generici leggi il foglietto illustrativo ufficiale completo di indicazioni terapeutiche posologia controindicazioni ed effetti indesiderati Etoricoxib Etoricoxib MMiselli Daniela Zanfi Algix Gentili Arcoxia Merck Sharp amp Dohme Tauxib Sigmatau  compresse  mg  compresse  mg Prima di comprare un nuovo farmaco dal nome attraente controlla nel tuo armadietto dei medicinali se lo possiedi già Preferisci i farmaci generici o equivalenti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf gen   Secondo lOrganizzazione Mondiale della Sanità per disfunzione erettile  con successo anche con i farmaci equivalenti a quelli originali che  Quali sono i vantaggi dei farmaci per limpotenza Come agiscono Il dosaggio la modalità di somministrazione le avvertenze alluso e le controindicazioni dei   classf ott   Come cambiano gli scenari per i pazienti affetti da disfunzione erettile  classf mag   Con i farmaci generici i costi si sono notevolmente ridotti  È per questo motivo che nella cura della disfunzione erettile i generici hanno  I farmaci equivalenti al Viagra e come agiscono  Ancora al giorno doggi la pillola blu rimane tra i più popolari mezzi per  Lassunzione di farmaci a base del principio attivo Sildenafil è raccomandata in caso di disfunzione erettile la quale   classf ott   Anche il Cialis medicina nota tra chi soffre di disfunzione erettile  dati da gennio a giugno del  gli equivalenti hanno rappresentanto il   del valore del mercato dei farmaci generici per un totale di  miliardi Ancora un anno di crescita per il mercato dei farmaci equivalenti che nel  ha  Disfunzione erettile nel Regno Unito il Viagra diventa farmaco da banco  classf nov   La disfunzione erettile può insorgere a tutte letà in Italia si stima che ne  o ad altri disturbi della sfera sessuale come per espio delleiaculazione  La terapia farmacologica orale si avvale oggi di diversi farmaci in grado  La maggioranza dei farmaci di questo genere sono in vendita nella Farmacia Mazzini Roma Tadalafil Sandoz  compressa rivestita TadalafilDisfunzione erettile a cosa serve  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Tadalafil  mg e  mg è indicato per essere usato prima di una prevista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf ago   Elenco per Nome Commerciale Farmaco Confezione Differenza  ALGIX wbr MG COMPRESSE RIVESTITE CON FILM  COMPRESSE wbr  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Algix è un farmaco a base del principio attivo Etoricoxib appartenente alla  Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più  ALGIX  Etoricoxib  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni ALGIX è indicato in adulti e adolescenti di età uguale o superiore a  anni per il trattamento sintomatico dellosteoartrosi OA dellartrite reumatoide AR   classf feb   Algix  Etoricoxib  ALGIX è indicato in adulti e adolescenti di età  ed informazioni particolari Farmaci equivalenti stesso principio attivo   classf set   In accordo con lAgenzia Italiana del Farmaco AIFA le aziende titolari dei medicinali ARCOXIAALGIXTAUXIBEXINEF Etoricoxib  Tipo prodottoFarmaco etico FormaCompresse rivestite ContenitoreBlister opaco Iva Tp ConservazioneConservare nella confezione originale Algix Gentili  La dose di farmaco raccomandata è di  mg in monosomministrazione giornaliera nel trattamento dellartrosi di  mg nellwbrartrite reumatoide e wbr  classf lug   Confezione di riferimento  UNITA  MG  USO ORALE Farmaco  ALGIX wbr MG COMPRESSE RIVESTITE CON FILM  COMPRESSE wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf nov   La disfunzione erettile può insorgere a tutte letà in Italia si stima che ne  La terapia farmacologica orale si avvale oggi di diversi farmaci in  Tadalafil Mylan  tadalafil  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni  Quali sono i vantaggi dei farmaci per limpotenza Come agiscono Il dosaggio la modalità di somministrazione le avvertenze alluso e le controindicazioni dei   classf dic   Efficace contro la disfunzione erettile come i farmaci di prima generazione ma con meno effetti collaterali Avanafil il principio attivo delle   classf mag   Con i farmaci generici i costi si sono notevolmente ridotti  È per questo motivo che nella cura della disfunzione erettile i generici hanno   classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  Il noto farmaco contro la disfunzione erettile è solo uno dei  che in   classf ott   Come cambiano gli scenari per i pazienti affetti da disfunzione erettile  classf ott   Il brevetto del Cialis scade via libera allequivalente del farmaco di  che promettono medicinali per la disfunzione erettile a pochi soldi ma  Viagra Cialis Levitra Spedra qual è il migliore farmaco per la disfunzione erettile Ci sono quattro farmaci orali per il trattamento della disfunzione erettile il   classf ott   Sarà dunque possibile trovare in farmacia farmaci generici molto più  Il noto farmaco contro la disfunzione erettile è solo uno dei  che in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mag   Con i farmaci generici i costi si sono notevolmente ridotti  È per questo motivo che nella cura della disfunzione erettile i generici hanno   classf dic   Efficace contro la disfunzione erettile come i farmaci di prima generazione ma con meno effetti collaterali Avanafil il principio attivo delle  Quali sono i vantaggi dei farmaci per limpotenza Come agiscono Il dosaggio la modalità di somministrazione le avvertenze alluso e le controindicazioni dei  Tadalafil Mylan  tadalafil  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf nov   La disfunzione erettile può insorgere a tutte letà in Italia si stima che ne  un farmaco direttamente in uno dei corpi cavernosi del pene con un   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini  Da pochi giorni la disfunzione erettile può esser affrontata con successo anche con i farmaci equivalenti a quelli originali che a parità di efficacia e  Viagra Cialis Levitra Spedra qual è il migliore farmaco per la disfunzione erettile Ci sono quattro farmaci orali per il trattamento della disfunzione erettile il   classf ott   Come cambiano gli scenari per i pazienti affetti da disfunzione erettile Presso la nostra farmacia online sono raccolti i migliori farmaci per curare la disfunzione erettile Sono farmaci originali e i loro efficaci e nuovi generici   classf ott   A novbre dovrebbe arrivare in farmacia lequivalente del tadalafil  per la disfunzione erettile a pochi soldi ma con dubbia sicurezza e </t>
+  </si>
+  <si>
+    <t>Tadalafil Mylan  tadalafil  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf nov   La disfunzione erettile può insorgere a tutte letà in Italia si stima che ne  La terapia farmacologica orale si avvale oggi di diversi farmaci in   classf dic   Efficace contro la disfunzione erettile come i farmaci di prima generazione ma con meno effetti collaterali Avanafil il principio attivo delle   classf mag   Con i farmaci generici i costi si sono notevolmente ridotti  È per questo motivo che nella cura della disfunzione erettile i generici hanno   classf ott   Come cambiano gli scenari per i pazienti affetti da disfunzione erettile  classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  Il noto farmaco contro la disfunzione erettile è solo uno dei  che in  Presso la nostra farmacia online sono raccolti i migliori farmaci per curare la disfunzione erettile Sono farmaci originali e i loro efficaci e nuovi generici   classf ott   Il brevetto del Cialis scade via libera allequivalente del farmaco di  che promettono medicinali per la disfunzione erettile a pochi soldi ma   classf ott   Sarà dunque possibile trovare in farmacia farmaci generici molto più  Il noto farmaco contro la disfunzione erettile è solo uno dei  che in   classf set   Farmaco Generico Equivalente Cialis Lowest prices for Generic and  Cialis  Tadalafil  Trattamento della disfunzione erettile negli uomini </t>
+  </si>
+  <si>
+    <t>Cortisonici quali sono le loro funzioni Quali sono gli effetti positivi Il dosaggio la modalità di somministrazione e le avvertenze alluso dei cortisonici Gli effetti   classf set   Cortisone naturale esistono alternative naturali al cortisone numerose e valide vediamone alcune insie molto interessanti  classf mag   I farmaci al cortisone sono molto usati per curare patologie di vario genere in particolare allergie infiammazioni probli articolari Il cortisone   classf set   ALTERNATIVE NATURALI AL CORTISONE  I farmaci al cortisone vengono non di rado utilizzati per curare diversi tipi di patologie   classf nov   Le gme di Ribes nigrum agiscono sulla corteccia surrenale è proprio questo che le rende simili al cortisone inibiscono i processi  Per questo motivo laddove possibile lassunzione va fatta in dose unica al mattino  i composti ad ivita breve idrocortisone cortisone che andranno assunti in  dosi di mgdie di prednisone o equivalenti protratte per più di  giorni   classf nov   equivalente a  mgmdie vs precedente mgmdie   legato alla  Al contrario l βHSD converte il cortisone in Cortisolo I cortisonici sono sostanze farmacologiche simili al cortisolo e utilizzate in moltissime patologie per  principio attivo dosaggio equivalente ivita nel sangue  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  dwbrattacco nelladulto di peso medio corrisponde a mg  al giorno  il tipico profilo dello steroide glucocorticoide si differenzia dal cortisone da cui deriva per wbr Ribes nigrum lalternativa naturale al cortisone Depurativo e antinfammatorio il Ribes Nigrum è il cortisone naturale che aiuta il sista immunitario contro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf dic   NB in questo articolo si farà particolare riferimento ai cortisonici di sintesi somministrabili per os  DOSI EQUIVALENTI DI CORTICOSTEROIDI Principio attivo Durata azione Potenza antinfiam matoria Potenza sodio retentiva Dose equivalente Terapia gg alterni idrocortisone lth    No cortisone Cortisonici quali sono le loro funzioni Quali sono gli effetti positivi Il dosaggio la modalità di somministrazione e le avvertenze alluso dei cortisonici Gli effetti   classf nov   Prima descrizione nel  quando Thomas Addison annotava  stato di generale languore e debilitazione flebile azione del cuore irritabilità  Iniziava così lera dei cortisonici farmaci tra i più importanti in campo medico Nel  per i  Equivalenza delle dosi dei singoli corticosteroidi Molecola  Fisiologicamente i corticosteroidi sono ormoni prodotti dalla corteccia delle ghiandole surrenali Questi ormoni intervengono in numerosi meccanismi fisiologici  Ciò in genere si ottiene riducendo la dose di prednisone o equivalenti di   si somministra una dose equipotente di cortisone acetato o di idrocortisone   Cortisone ed idrocortisone possiedono proprietà sia gluco che  I due epimeri sono equivalenti mentre il betametasone è più attivo rispetto al prednisolone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf dic   Fin dalla loro scoperta negli anni  i corticosteroidi sono diventati uno tra i farmaci più usati ed  DOSI EQUIVALENTI DI CORTICOSTEROIDI  classf nov    novbre  Terapia sostitutiva con corticosteroidi  Ipopituitarismo wbrinsufficienza surrenalica secondaria a tumori ipofisari chirurgia wbr corticosteroidi Principio attivo Durata azione Potenza antinfiam matoria Potenza sodio retentiva Dose equivalente Terapia gg alterni idrocortisone lth   Conversione degli steroidi Idrocortisone Flebocortid               Prednisone Deltacortene    Cortisonici quali sono le loro funzioni Quali sono gli effetti positivi Il dosaggio la modalità di somministrazione e le avvertenze alluso dei cortisonici Gli effetti  Fisiologicamente i corticosteroidi sono ormoni prodotti dalla corteccia delle ghiandole surrenali Questi ormoni intervengono in numerosi meccanismi fisiologici  dei corticosteroidi per via sia sistica sia topica sono molteplici e investono un po  Tabella  Equivalenza delle dosi dei singoli corticosteroidi Molecola I corticosteroidi sono farmaci largamente utilizzati con indicazioni che nel tpo si  dosi di mgdie di prednisone o equivalenti protratte per più di  giorni  Inserisci la tua email e riceverai tutte le novità Siti Partner Commenti Inserite i vostri commenti ed aiutateci a migliore questo sito Conversione degli Steroidi  MEMO SU STEROIDI DOSI EQUIVALENTI DEGLI STEROIDI PREDNISONE wbrDELTACORTENE CP E  MG  TRIAMCINOLONE KENACORT CP E  wbr</t>
+  </si>
+  <si>
+    <t>Cortone Acetato  compressa Cortisone AcetatoCorticosteroidi a cosa serve come  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  classf nov   Terapia cardine Idrocortisone Cortisone Acetato Fludrocortisone  wbrequivalente a  mgmdie vs precedente mgmdie wbr Cortone acetato Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Ciò in genere si ottiene riducendo la dose di prednisone o equivalenti di   del prednisone si somministra una dose equipotente di cortisone acetato o di  Prodotti farmaceutici a base di CORTISONE ACETATO con foglietti illustrativi e schede tecniche di tutti i medicinali Affezioni di interesse reumatologico come terapia aggiuntiva per la somministrazione a breve termine per far superare al paziente un episodio acuto o una  Dettagli NomeCortone Acetato  cpr mg Codice Ministeriale Principio attivoCortisone Acetato Codice ATCHAB FasciaA Prezzo Terapia per la deficienza di glucocorticoidi Cortisone acetato  mg die wbrBIDTID Idrocortisone  mg die BIDTID Steroide Dose equivalente mgwbrwbrwbr  classf mar   Terapia sostitutiva di cortisone per iposurrenalismo un aggiornamento  mio caso la terapia di cortone acetato equivalente a idrocortisone  Terapia per la deficienza di glucocorticoidi Cortisone acetato  mg die wbrBIDTID Idrocortisone  mg die BIDTID Steroide Dose equivalente mgwbrwbrwbr</t>
+  </si>
+  <si>
+    <t>Deltacortene  compressa PrednisoneCorticosteroidi a cosa serve come e quando  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  compressa PrednisoneCorticosteroidi a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  classf apr   DELTACORTENE  MG COMPRESSE  COMPRESSE BRUNO FARMACEUTICI SPA  AIC PA Prednisone     Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Deltacortene Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf feb   Deltacortene  Prednisone  Trattamento a breve termine come  ed informazioni particolari Farmaci equivalenti stesso principio attivo  DELTACORTENE CPR MG Trattamento a breve termine come terapia aggiuntiva in episodi acuti o riacutizzazioni di affezioni di interesse reumatologico  Lepatite autoimmune richiede nella sua fase di attività una terapia cortisonica Il deltacortene è uno dei farmaci cortisonici che viene Dettaglio spedizione in Italia  Deltacortene Prednisone  Mostra teratogenicità prednisone in molte specie animali trattati in dosi dose equivalente per   classf dic   chiunque abbia ricevuto più di mg di prednisone al giorno o dose equivalentewbr per più di  settimane tutti i pazienti con segni clinici di wbr</t>
+  </si>
+  <si>
+    <t>farmaco generico traduzione nel dizionario italiano  inglese a Glosbe dizionario online gratuitamente Sfoglia parole milioni e frasi in tutte le lingue Moltissimi espi di frasi con farmaco  Dizionario ingleseitaliano e  commercio per farmaco generico e rilasciare tale autorizzazione negli ultimi due anni   classf mag   Il farmaco equivalente o generico è un medicinale il cui principio attivo cioè la sostanza che svolge azione curativa non è più coperto da   classf mag   farmaci genericifarmaci equivalenti  Tra le ragioni per la mancata adozione dei generici cè anche linfelice traduzione dallinglese generic  classf ago   Scopri come comprare farmaci e medicine nelle farmacie inglesi e  puoi comprare il tuo farmaco generico nel supermercato più vicino a  Scopri la traduzione in inglese del termine generico nel Dizionario di Inglese di   Farm farmaco generico generic drug generically equivalent medicine  classf mar   Si definisce farmaco generico la copia di uno specifico farmaco già  in Italia corrisponde alla traduzione diretta dellinglese generic drug  espio farmaci contenenti saccarosio devono essere somministrati con attenzione  traduzione italiana dellinglese generic name termine con cui i popoli di   classf giu   Ma si dice farmaco generico o farmaco equivalente  La parola generico è la traduzione italiana dellinglese generic name termine con cui  Nomi dei farmaci generici e commerciali  Informazioni su cause sintomi diagnosi e trattamento disponibili su Manuali MSD versione per i pazienti</t>
+  </si>
+  <si>
+    <t>Ciprofloxacina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf mag   È uno degli antibiotici più frequentente prescritti nei bambini È anche disponibile come preparato generico per espio Augmentin e   classf ago    specialità medicinali e farmaci generici necessità di controllare il  Acido clavulanico antibiotico associato ad un coadiuvante questo è il  AMOXICILLINA E ACIDO CLAVULANICO DOC Generici è un antibiotico che funziona uccidendo i batteri che causano infezioni Contiene due diversi medicinali   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini  Amoxicillina è un antibiotico duso comune e abbastanza ben  Clavulin è un farmaco antibiotico in grado di debellare tutti i batteri che sono la principale causa delle infezioni Allinterno son presenti due sostanze  Nomi dei farmaci generici e commerciali  Informazioni su cause sintomi diagnosi e trattamento disponibili su Manuali MSD versione per i pazienti Amoxicillina DOC Generici  compressa Amoxicillina TriidratoAntibatterici penicillinici a cosa serve come e quando assumerlo interazioni effetti collaterali e </t>
+  </si>
+  <si>
+    <t>Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio  comprensivi della riduzione   classf mar   Il prontuario dei farmaci equivalenti o generici Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le farmacie convenzionate Download Elenco farmaci equivalenti  ottobre   Facebook  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata di Ripetta    classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza  ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr e selezionare lo specifico dosaggio del farmaco indicato dal medico o consigliato dal farmacista Lesito della tua ricerca sarà la lista completa dei farmaci in   classf giu   Elenco confezioni per Principio Attivo  Farmaco Confezione Differenza Prezzo riferimento SSN  ALENDRONATO DOC GENERICI Per medicinale generico o equivalente si intende un medicinale avente la  Lwbrelenco contiene quei medicinali che hanno composizione in principi attivi formawbr wbrwbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAgenzia Italiana del Farmaco AIFA ha realizzato la guida Medicinali Equivalenti  Qualità sicurezza ed efficacia con lintento di fornire a medici farmacisti   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse indicazioni del farmaco di riferimento Sono dunque dal punto di  Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome  Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze   classf dic   A scriverlo è il direttore generale dellAgenzia italiana del farmaco Aifa Luca Pani nella prefazione alla guida Medicinali Equivalenti  Liste di trasparenza AIFA Download Elenco farmaci equivalenti  ottobre   Facebook Twitter LinkedIn Note Questo sito Web è destinato a persone  rispondere a standard definiti a livello europeo Le ispezioni sono condotte dallwbrAgenzia Italiana del Farmaco AIFA se per lautorizzazione del medicinalewbr La sicurezza dei medicinali equivalenti prove precliniche   La presente Guida nasce dallesigenza da parte degli uffici dellAIFA di fornire una serie di  classf dic   Guida AIFA per fornire informazioni corrette a pazienti e medici sui farmaci generici o equivalenti Il produttore del farmaco equivalente deve presentare allAgenzia Italiana del Farmaco AIFA  lAutorità regolatoria nazionale che garantisce il processo di </t>
+  </si>
+  <si>
+    <t>Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome  PDF Elenco per principio attivo   Mb gt  dei medicinali equivalenti a base di pregabalin per il trattamento del dolore neuropatico wbr wbr  classf giu   Elenco confezioni per Principio Attivo Principio attivo Acarbosio   UNITA  MG  USO ORALE Farmaco Confezione Differenza lAgenzia Italiana del farmaco AIFA organizza i farmaci a brevetto scaduto equivalenti  farmacista ha nella propria farmacia a disposizione per essere consultata  nome commerciale o dal principio attivo del farmaco lunità posologica es  non esistono equivalenti in verde i farmaci per i quali il brevetto è scaduto Tra questi troverai i farmaci equivalenti con il nome del principio attivo e i farmaci   classf mar    lo stesso principio attivo e dunque hanno la stessa efficacia del farmaco di marca  Per favorire lutilizzo dei farmaci equivalenti la Regione  Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le farmacie   classf gen    medicinali inseriti nellelenco dei farmaci equivalenti Legge  con i relativi  Elenco dei medicinali per principio attivo   classf mar    inseriti nellelenco dei farmaci equivalenti Legge  del   Elenco dei medicinali per principio attivo Rettificato Le liste sono state redatte dallAIFA per consentire al farmacista di informare il cittadino della eventuale esistenza di medicinali equivalenti meno costosi  I farmaci sono in ordine alfabetico di principio attivo o di associazione di principi attivi Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono  Cè una nuova buona ragione per evitare di mangiare troppo sale  ioequivalgo Cerca il farmaco per nome principio attivo o codice a barre e </t>
+  </si>
+  <si>
+    <t>Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio  comprensivi della riduzione   classf giu   Elenco confezioni per Principio Attivo Principio attivo  Farmaco Confezione Differenza Prezzo riferimento SSN Prezzo Pubblico   classf mar   Il consumo di farmaci equivalenti sul totale dei farmaci erogati dalle  Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le  Download Elenco farmaci equivalenti  ottobre   Facebook  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata di Ripetta    classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza Prezzo riferimento SSN Prezzo Pubblico  luglio  ABBA  MG   Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Canale News e media  Tag Farmaci generici in  pagine Pagine da Notizie Farmaci equivalenti parere dellUfficio Legislativo su richiesta di FederAnziani</t>
+  </si>
+  <si>
+    <t>Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio  comprensivi della riduzione   classf mar   Il consumo di farmaci equivalenti sul totale dei farmaci erogati dalle  Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le   classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza  ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO  Download Elenco farmaci equivalenti  ottobre   Facebook  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata di Ripetta   Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf giu   Elenco confezioni per Principio Attivo  Farmaco Confezione Differenza Prezzo riferimento SSN  ALENDRONATO DOC GENERICI Per medicinale generico o equivalente si intende un medicinale avente la  Lwbrelenco contiene quei medicinali che hanno composizione in principi attivi formawbr wbrwbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d</t>
+  </si>
+  <si>
+    <t>Lesito della tua ricerca sarà la lista completa dei farmaci in commercio organizzati  Tra questi troverai i farmaci equivalenti con il nome del principio attivo e i  I medicinali equivalenti devono rispettare gli stessi standard e controlli di  ricerca e sviluppo  un medicinale equivalente può essere commercializzato con un  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli  Parole chiave di ricerca Cerca un farmaco  wwwfederfarmait   Per effettuare la ricerca è necessario compilare anche parzialmente almeno uno dei seguenti   Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome  Ufficio Sperimentazione Clinica  Ufficio Ricerca Indipendente   Medicinali equivalenti  per principio attivo   Medicinali equivalenti  Elenco farmaci equivalenti per Principio Attivo  banca dati farmaci  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo  Cerca per farmaco o per principio attivo Farmaci Equivalenti sono identici agli altri farmaci per qualità sicurezza ed efficacia  Lesito della tua ricerca sarà la lista completa dei farmaci in commercio  I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori  I farmaci equivalenti sono identificabili dal nome del principio attivo che contengono seguito dal nome  Cerca il farmaco equivalente  classf mar   Ricerca avanzata  Sono quei farmaci il cui brevetto è scaduto e possono dunque essere commercializzati a minor  Il consumo di farmaci equivalenti sul totale dei farmaci erogati dalle farmacie convenzionate è passato </t>
+  </si>
+  <si>
+    <t>Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio  comprensivi della riduzione   classf mar   Il consumo di farmaci equivalenti sul totale dei farmaci erogati dalle  Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le   classf giu   Elenco confezioni per Principio Attivo Principio attivo  Farmaco Confezione Differenza Prezzo riferimento SSN Prezzo Pubblico   classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza Prezzo riferimento SSN Prezzo Pubblico  luglio  ABBA  MG   Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Download Elenco farmaci equivalenti  ottobre   Facebook  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata di Ripetta   Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio  comprensivi della riduzione  Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   classf mar   Il prontuario dei farmaci equivalenti o generici Lelenco regionale dei farmaci con i prezzi massimi di rimborso per le farmacie convenzionate  classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza  ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se  Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Download Elenco farmaci equivalenti  ottobre   Facebook  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata di Ripetta    classf giu   Elenco confezioni per Principio Attivo  Farmaco Confezione Differenza Prezzo riferimento SSN  ALENDRONATO DOC GENERICI Per medicinale generico o equivalente si intende un medicinale avente la  Lwbrelenco contiene quei medicinali che hanno composizione in principi attivi formawbr wbrwbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf lug   Elenco per Nome Commerciale Farmaco Confezione Differenza Prezzo  ACICLOVIR MYLAN GENERIC  MG COMPRESSE    classf giu   Elenco confezioni per Principio Attivo  Farmaco Confezione Differenza Prezzo riferimento SSN  ALENDRONATO DOC GENERICI Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei  Elenco dei medicinali  Allegato B Determina   formato wbrpdf wbr  lAgenzia Italiana del Farmaco pubblica lelenco dei medicinali e i relativi prezzi di riferimento aggiornati al  luglio   applicationpdf icon Elenco  Infatti un farmaco equivalente o generico non può essere messo in commercio  Lelenco seguente riassume sinteticamente i requisiti che un farmaco deve  Farmaci generici è online  ROMA  Lelenco dei farmaci generici con i prezzi aggiornati è online  Clicca qui sotto per scaricare in formato Pdf lelenco Il testo della Nota pdf KB Nota AIFA nr  del  Ottobre  Ritiro lotti del medicinali Omeprazolo Sandoz BV  mg polvere per soluzione   classf mag   Dispositivi medici  Farmaci equivalenti o generici  Farmacie nei luoghi ad alto transito  Farmacovigilanza  Informatori scientifici del farmaco sia da parte dei medici sia dei pazienti nei confronti dei farmaci equivalenti o generici Non utilizzare i farmaci equivalenti è un comportamento fortente a   classf lug   Elenco farmaci equivalenti  luglio  Principio attivo Confezione di riferimento ATC AIC Farmaco Confezione Ditta Prezzo riferimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf apr   Ciclosporina LAD Confezione di riferimento  Farmaco Confezione Differenza Prezzo riferimento  aprile  Prezzo Pubblico  Prodotti farmaceutici a base di CICLOSPORINA con foglietti illustrativi e schede tecniche di tutti i medicinali  molle CiclosporinaImmunosoppressivi a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti AIFA dispone rimborso a carico SSN di tutti i farmaci a base di ciclosporina   la raccomandazione alluso del farmaco equivalente nei pazienti non ancora in   classf apr   Con lentrata in commercio nel Maggio  del medicinale equivalente i trapiantati che assumevano il farmaco branded avrebbero dovuto   classf apr   Mostra menu Cerca farmaco o farmacia  Ciclosporina anche Federfarma si mobilita in aiuto dei trapiantati  Per evitare la compartecipazione i pazienti potrebbero ripiegare sulla versione equivalente ma lAifa ha   classf apr   Il principio attivo la ciclosporina è lo stesso in entrambi i prodotti  che la stessa dose del farmaco equivalente sia altrettanto efficace E che il   classf mag   Con lentrata in commercio del medicinale equivalente i trapiantati che utilizzavano il farmaco branded avrebbero dovuto pagare la  Sandimmun Neoral Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Farmaci equivalenti un vantaggio per tutti anno   AIFA modalità di rimborso e prescrizione per i medicinali a base di ciclosporina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buscopan è un farmaco a base del principio attivo Scopolamina  I farmaci equivalenti di Buscopan a base di Scopolamina Butilbromuro sono Addofix  Spasmolitici su Mypersonaltrainerit Tutti gli Articoli i Video e gli Approfondimenti sul ta Spasmolitici Leggi i consigli dei nostri esperti Farmaci Antispastici A Cosa Servono Quali Sono e Come Agiscono Quando si usano Classificazione ed Effetti Collaterali BUSCOPAN CPR RIV MG Trattamento sintomatico delle manifestazioni spasticodolorose del tratto gastroenterico e genitourinario PREZZO INDICATIVO   classf apr   Farmaco Confezione Differenza Prezzo riferimento  aprile  Prezzo Pubblico  aprile  BUSCOPAN  MGML SOLUZIONE   classf gen   Home  Farmaci integratori e altre terapie  disponibile in Italia come Buscopanwbr ed equivalenti è un farmaco usato per il trattamento diwbr La scopolamina butilbromuro Nbutilbromuro di joscina per via intramuscolare a pazienti che assumono farmaci anticoagulanti non è raccomandata per il   classf set   Ranitidina ritirati anche Buscopan Zantac e Ranidil  farmaci nella black   di Ulcex e molti equivalenti come Ranitidina Mylan Generics Prezzo e informazioni farmaceutiche sul farmaco generico BUSCOPAN prodotto da BOEHRINGER INGELHEIM ITALIA SPA ed eventuali sue alternative  classf set   LAgenzia Italiana del Farmaco AIFA ha disposto il ritiro dalle farmacie e dalla catena distributiva di tutti i lotti di medicinali contenenti il </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trattamento del rigetto cellulare di trapianto in pazienti che hanno ricevuto precedentente altre  PREZZO INDICATIVO   NOVARTIS FARMA SpA   classf apr   Ciclosporina LAD Confezione di riferimento  Prezzo riferimento  aprile  Prezzo Pubblico  aprile  Nota SANDIMMUN  classf apr   Ciclosporina anche Federfarma si mobilita in aiuto dei trapiantati  ciclosporine il branded si trova accanto un generico dal prezzo inferiore  classf apr   Il principio attivo la ciclosporina è lo stesso in entrambi i prodotti  differenza di prezzo a carico del paziente fra farmaco di marca e generico Ciqorin  capsula molle CiclosporinaImmunosoppressivi a cosa serve come e  Generici Gentamicina  Betametasone EG Gentamicina  Betametasone   classf apr   Ciclosporina di marca senza sovrapprezzo per i pazienti trapiantati con  avrebbero dovuto pagare la differenza di prezzo rispetto al generico   classf mar   Ciclosporina tutti i farmaci in commercio che contengono questo principio attivo con prezzo indicazioni prescrittive Note AIFA ecc  Ricetta Non Ripetibile Tipo Farmaco Generico Classe di prescrivibilità A  Rimborsabile   classf mag   Ciclosporina di marca  la normativa  la differenza di prezzo fra il prodotto wbrgenerico e quello di marca che sono abituati ad assumerewbr  classf apr   Sulla rimborsabilità della ciclosporina di marca è arrivato in  che in commercio fosse presente un farmaco generico con un prezzo di   classf lug   Farmacie italiane che preparano ciclosporina capsule per uso umano o veterinario cane gatto in tutta italia Preparazione galenica </t>
+  </si>
+  <si>
+    <t>Efracea Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Si tratta in particolare del farmaco Efracea sia in confezione da  capsule  mg AIC  lotto n S scad  che in  Risposta di Giuseppe Cuomo Gentile Utente la dose giornaliera di Efracea  dei risultati va fatta  settimane dopo lassunzione del farmaco ed in assenza di   farmaci con DOXICICLINA ICLATO Risultati  Efracea è indicato per la riduzione delle lesioni papulopustolose nei pazienti adulti con rosacea facciale  classf feb   Se necessario il farmaco vasocostrittore può essere anche associato a una terapia fisica con il laser o luce pulsata In presenza di papule che  Salve a tutti volevo lasciarvi la mia recensione ed esperienza con il farmaco Efracea che sto utilizzando quaisi da due mesi e chiedervi qualche consiglio a voi  Posso solo dire una cosa mi hanno prescritto questo farmaco per una borreliosi  Il dermatologo mi ha prescritto efracea  compressa al giorno per tre mesi perwbr wbr  classf dic   EFRACEA  cps  mg rilascio modificato doxiciclina monoidrato GALDERMA AIC  CRR in commercio dal Trova prezzi di efracea  capsule mg rilascio modificato confronta offerte di efracea cps mg rm compra online sicuro e affidabile Specialità  Quali sono le specialità medicinali che contengono Doxiciclina Doxiciclina è prescrivibile nelle specialità commerciali Bassado Efracea Ligosan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Olpress è un farmaco a base del principio attivo Olmesartan Medoxomil  Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più   farmaci con OLMESARTAN MEDOXOMIL Risultati MENARINI INTERNAT OLSA  OLPRESS CPR RIV MG Trattamento dellipertensione arteriosa  Olpress Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf apr   Confezione di riferimento  UNITA  MG  USO ORALE Farmaco Confezione Differenza Prezzo riferimento  aprile   classf feb   Olpress  Olmesartan Medoxomil  Quali sono gli effetti collaterali  ed informazioni particolari Farmaci equivalenti stesso principio attivo  Olpress Menarini  La maggior parte del farmaco viene eliminata immodificata con le urine  e le feci  con una ivita variabile dalle  alle  ore  classf mar   Il farmaco è ora disponibile anche in Italia Dal  ottobre è presente in tutte le farmacie dove viene venduto su prescrizione del medico LattosioContiene lattosio ProduttoreMenarini Internat OLSA SSNwbrConcedibile esente RicettaRR  ricetta ripetibile art DL  Tipo prodottowbrFarmaco wbrwbr Alcune linee guida considerano equivalenti le  classi di farmaci antipertensivi  Idroclorotiazide Olmetac Olpress Olprezide Plaunac Plaunazide Sevikar </t>
+  </si>
+  <si>
+    <t>Biochetasi  granulato Sodio Citrato  Potassio Citrato  Acido Citrico Anidro   interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui br  classf ott   Biochetasi Granulato Effervescente è un farmaco antiacido a base di Sodio Citrato Potassio Citrato Tiamina difosfato estere libero Riboflavina   classf set   Prezzo Pubblico  settbre  Nota ATORVASTATINA DOC G  MG COMPRESSE RIVESTITE CON FILM  COMPRESSE IN  La pubblicità ci mostra farmaci e rimedi per il reflusso acido come rapidi efficaci e risolutivi ma è davvero così BIOCHETASI   Sodio citrato e potassio citrato  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali   classf dic   Con oltre  farmaci inseriti cè Trova la mia Medicina per la ricerca del vostro farmaco equivalente durante il viaggio Siamo allestero  Le liste sono state redatte dallAIFA per consentire al farmacista di informare il cittadino della eventuale esistenza di medicinali equivalenti meno costosi</t>
+  </si>
+  <si>
+    <t>Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr LE AREE TERAPEUTICHE E I PRODOTTI Scopri lampia gamma dei prodotti DOC Generici nelle diverse aree terapeutiche Schede tecniche e listini prezzi per  I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui br I fermenti lattici detti comunente probiotici ormai si trovano ovunque dalla farmacia al supermercato ma cè differenza tra Actimel e Activia Enterogermina e  per pagina Lista Griglia  Enterogermina Fermenti Lattici  Miliardi di Spore Attive  Capsule  Loperamide Doc Generici  mg Diarrea  Compresse  classf apr   Mi viene consegnata una scatola di Enterogermina con  flaconi da  economicamente parlando acquistare un farmaco generico come la  ENTEROGERMINA OS FL MLD  ML Cura e profilassi del dismicrobismo intestinale e conseguenti disvitaminosi endogene Terapia coadiuvante il  Prenditi cura di stomaco e intestino qui puoi acquistare rimedi contro la nausea e i gas intestinali lassativi e antispasmodici per il tuo benessere Enterolactis o Enterogermina Leggi tutte le informazioni sul blog salute e benessere di Bosciaclub farmacia online Tutti i farmaci da banco scontati Enterogermina  Miliardi di Spore Attive Fermenti Lattici  Flaconcini ml  Loperamide Doc Generici  Compresse  mg contro Diarrea Equivalente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Ranitidina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Biochetasi  granulato Sodio Citrato  Potassio Citrato  Acido Citrico  wbrAldactone Eplerenone Doc Generici Eplerenone Accord Eplerenone Krkawbr wbrwbr I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui br  classf ott   Biochetasi Granulato Effervescente è un farmaco antiacido a base di Sodio Citrato Potassio Citrato Tiamina difosfato estere libero Riboflavina  La pubblicità ci mostra farmaci e rimedi per il reflusso acido come rapidi efficaci e risolutivi ma è davvero così  classf set   DOC GENERICI SRL  AIC       ACICLOVIR  MG COMPRESSE  COMPRESSE SANDOZ SPA Prenditi cura di stomaco e intestino qui puoi acquistare rimedi contro la nausea e i gas intestinali lassativi e antispasmodici per il tuo benessere Le migliori offerte per Biochetasi in Prodotti Salute sul primo comparatore italianowbr  Tutte le informazioni che cerchi in un unico sito di fiducia Chi cerca wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZIENDE ASSOCIATE  Aurobindo Pharma Italia Srl Sito Web B Braun Milano  DOC Generici Srl  Lisapharma Spa  Laboratorio Italiano Biochimico e Farmaceutico  Associazione Nazionale Industrie Farmaci Generici e Biosimilari  classf mag   Il  e stato un anno turbolento anche per i produttori di farmaci generici e non solo per le aziende che puntano ai farmaci di marca  classf ott   Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di Renaissance e Meda azienda leader mondiale nei farmaci  Azienda farmaceutica  Tecnigen in Italia  de nuovi prodotti sia generici che nuovi farmaci che investe ogni anno circa il  del suo fatturato totale DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla diffusione del farmaco equivalente in Italia Limpegno di DOC Generici è   classf mag   Farmaci generici risparmi e top aziende Mail Stampa  In Italia fonte Osmed  era la molecola a più alta spesa prò capite  euro  classf ott   Il mercato dei farmaci generici sta spre più crescendo  sotto al  Germania e Austria  la Francia e  lItalia e degli Stati Uniti   Le aziende giapponesi dovranno ristrutturarsi e migliorare la propria  Garantire ai professionisti della salute e ai pazienti laccesso ai nostri farmaci offrendo loro prodotti sicuri ed efficaci in grado di soddisfare le loro esigenze Nel  entra nel nascente mercato dei farmaci equivalenti  ha vinto il prio Global Generics amp Biosimilars  nella categoria Azienda dellanno EMEA Banco Farmaceutico celebra i  anni con una settimana di farmaci in dono  Ottobre   Una settimana di raccolta invece di una sola giornata per </t>
+  </si>
+  <si>
+    <t>DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla diffusione  Scopri DocPod App CON GOOGLE CARDBOARD  nelluso di un medicinale da noi commercializzato consulti la sezione Farmacovigilanza Scopri i dettagli delle offerte di lavoro presso DOC GENERICI  Con un fatturato exfactory nel  pari circa  milioni di euro DOC Generici si colloca al   classf ott   Essere dipendenti Mylan è molto più di un lavoro Scopri cosa  Lavora con noi per raggiungere le vite di  miliardi di persone Lavora con noi  Vuoi lavorare con noi  settoriale o focalizzati su specifiche problatiche legate al settore del farmaco generico biosimilare galenico e perfusionale A ciò si  Lavora con noi entrando a far dellazienda EG una tra le prime nella realtà italiana dei farmaci generico equivalenti LAVORA CON NOI  Curriculum Vitae pdfdocrtfodtdocx   Il Titolare del trattamento è LABORATORI GUIDOTTI Spa con sede in Via Livornese  loc  classf lug   Per Doc Generici la svolta è già in atto laccelerazione cè stata a marzo  noi lo presidiamo con particolare attenzione rispetto ad espio a  Dallesperienza ventennale di Doc nasce Doc Ofta una nuova realtà specializzata  Abbiamo scelto di mettere al centro del nostro progetto la partnership con  DOC GENERICI SRL  DOC Generici per scelta  Commercializzazione prodotti farmaceuticigenerici Dr Andrea CAPOCCHI QP Dr  Lavora con noi Commercializzazione prodotti farmaceuticigenerici  CEO Tel mobile    DOC Generici è unazienda italiana che nasce nel  Lavora con noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mag   Il  e stato un anno turbolento anche per i produttori di farmaci generici e non solo per le aziende che puntano ai farmaci di marca STATUTO E CODICE DEONTOLOGICO  AZIENDE ASSOCIATE  COME ASSOCIARSI   Novbre   La campagna di informazione nazionale sui farmaci equivalenti  Banco Farmaceutico celebra i  anni con una settimana di farmaci in dono  Associazione Nazionale Industrie Farmaci Generici e Biosimilari DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla  sociale fondata sullimportante ruolo svolto dal farmaco generico  classf mag   Tra il  e il  andranno in scadenza brevetti di farmaci che generano una spesa di oltre  miliardi di euro lanno ha segnalato il  I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Lwbrazienda che scopre un nuovo principio attivo lo brevetta dando vita a una wbr  classf ott   Il mercato dei farmaci generici sta spre più crescendo  da CpHI rivela che il  degli executive di aziende farmaceutiche domestiche   classf ott   Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di Renaissance e Meda azienda leader mondiale nei farmaci  Nel  entra nel nascente mercato dei farmaci equivalenti  ha vinto il prio Global Generics amp Biosimilars  nella categoria Azienda dellanno EMEA  classf mag   Usa sotto accusa venti aziende farmaceutiche Hanno gonfiato i prezzi dei farmaci generici Le procure di  Stati Usa hanno fatto causa alle  Tra le prime  aziende farmaceutiche di equivalenti in Europa Dopo lwbracquisizione delle attività commerciali di Actavis in Europa avvenuta nellaprile  wbr</t>
+  </si>
+  <si>
+    <t>Il dato erge dal Report sui trend del mercato italiano dei farmaci generici del primo  In particolare a guidare la classifica dei consumi di equivalenti è la   classf mag    di farmaci generici e non solo per le aziende che puntano ai farmaci di  a punto la classifica dei  maggiori produttori mondiali di generici  classf giu   In farmacia i farmaci equivalenti valgono il  del mercato a volumi e il wbr a valori  Aziende Farmaci equivalenti consumi in crescita nel primo trimestre   di confezioni di farmaci equivalenti vendute in Italia un aumento  In particolare a guidare la classifica dei consumi di equivalenti è la wbr  classf ott   Per  anni Mylan si è imposta in Italia come una delle aziende  Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di   classf lug   Farmaci generici prezzi in picchiata e imprese a rischio  dal rapporto dellwbrOsservatorio sul Sista dei farmaci generici in Italia realizzato wbr  classf mag   Anche per lanno  ProClinical ha stilato la classifica delle  migliori aziende farmaceutiche nel mondo sulla base del loro valore di   classf mag   Farmaci generici risparmi e top aziende Mail Stampa  In Italia fonte Osmed  era la molecola a più alta spesa prò capite  euro Teva è la prima azienda al mondo nel settore dei farmaci equivalenti  costante attenzione a ricerca scientifica innovazione delle tecnologie farmaceutiche totale dei farmaci di classe A Per quanto riguarda la spesa i generici hanno rappresentato il   dente al  dei principi attivi in lista di trasparenza ha un prezzo al pub blico inferiore ai  generici e con marchio in Italia rappresentano l della spesa e il   Ricerca svolta esternamente alle imprese La scalata   classf ott   In Italia la possibilità di sostituire dei medicinali generici con i loro originatori è stata  lista di trasparenza da parte dellAgenzia Italiana del Farmaco AIFA  allaffidabilità delle aziende produttrici di equivalenti categorie di </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf lug   Cè da dire che il mercato dei farmaci equivalenti o generici è in crescita Ma con unItalia letteralmente spaccata in due Mentre i cittadini   classf lug   Diffidenti e poco informati gli italiani sono gli ultimi in Europa per utilizzo di farmaci equivalenti e preferiscono quelli di marca I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o  della Salute in Italia può commercializzare il farmaco equivalente  classf lug   Gli italiani conoscono molto bene il sista dei medicinali equivalenti cosa  Farmaci generici gli italiani ne sanno molto ma li usano poco logo Connessione al device in corso  INIZIA Italiano START English Una campagna promossa da logo Con il patrocinio di logo In collaborazione con logo  Novbre   La campagna di informazione nazionale sui farmaci equivalenti approda  Pronta la versione italiana delle linee guida NICE per lasswbrwbr Nel primo sestre  i farmaci generici equivalenti hanno rappresentato il wbr del totale del mercato farmaceutico a volumi nel canale delle farmacie wbr Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati  In Italia  milioni di persone con sensibilità a gluti DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla  sociale fondata sullimportante ruolo svolto dal farmaco generico</t>
+  </si>
+  <si>
+    <t>Il mercato italiano dei farmaci generici dati   Nel canale farmacia tutte le classi la segmentazione del mercato dei soli prodotti off patent vede ancora  Il dato erge dal Report sui trend del mercato italiano dei farmaci generici del  In particolare si registra una flessione dei consumi unità relativa ai prodotti   classf lug   Il motivo è solo culturale e mostra unItalia spaccata in due con il Nord che ne  conoscenza e nella diffusione sul mercato di questi prodotti grazie al supporto di  Leggi anche Il paradosso tutto italiano dei farmaci generici DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla diffusione del farmaco equivalente in Italia Limpegno di DOC Generici è   classf ott   In Italia la possibilità di sostituire dei medicinali generici con i loro  generici prodotti negli stessi stabilimenti dei corrispondenti farmaci  I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o  della Salute in Italia può commercializzare il farmaco equivalente  classf ott   Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di Renaissance e  Il  delle farmacie italiane tratta prodotti Mylan  classf mag   I picchi di crescita registrati tra il  e il  con le grandi scadenze brevettuali sono lontani ma lavanzata dei farmaci equivalenti continua  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  in Italia questa funzione è svolta dallAgenzia Italiana del Farmaco AIFA che  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un  ta dei prodotti generici è aumentata dal  al  La segmentazione del  Inoltre la spesa procapite di farmaci biosimilari in Italia è superiore del  allawbr wbr</t>
+  </si>
+  <si>
+    <t>AZIENDE ASSOCIATE  DOC Generici Srl Sito Web Dr Reddys Srl  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata diwbr wbr STATUTO E CODICE DEONTOLOGICO  AZIENDE ASSOCIATE  COME ASSOCIARSI   Novbre   La campagna di informazione nazionale sui farmaci equivalenti  Banco Farmaceutico celebra i  anni con una settimana di farmaci in dono  Associazione Nazionale Industrie Farmaci Generici e Biosimilari DOC Generici è unazienda italiana che nasce nel  e cresce parallelamente alla  sociale fondata sullimportante ruolo svolto dal farmaco generico  classf mag   Il  e stato un anno turbolento anche per i produttori di farmaci generici e non solo per le aziende che puntano ai farmaci di marca I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Lwbrazienda che scopre un nuovo principio attivo lo brevetta dando vita a una wbr  classf mag   Tra il  e il  andranno in scadenza brevetti di farmaci che generano una spesa di oltre  miliardi di euro lanno ha segnalato il   classf lug   Insomma le aziende dei generici non riescono a recuperare il gap  è il primo Rapporto dellOsservatorio sul Sista dei farmaci generici in   classf ott   Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di Renaissance e Meda azienda leader mondiale nei farmaci  Nel  entra nel nascente mercato dei farmaci equivalenti  ha vinto il prio Global Generics amp Biosimilars  nella categoria Azienda dellanno EMEA  classf lug   Presentato al Senato il primo rapporto dellOsservatorio sul sista dei farmaci generici in Italia Uno studio realizzato da Nomisma per </t>
+  </si>
+  <si>
+    <t>Banco Farmaceutico celebra i  anni con una settimana di farmaci in dono  Ottobre  Associazione Nazionale Industrie Farmaci Generici e Biosimilari  classf feb    lassociazione dei produttori di farmaci equivalenti e biosimilari che ha tenuto  Tesoriere è stato confermato Gualtiero Pasquarelli DOC Generici  lavorato incessantente affinché Assogenerici divenisse quello che oggi è da  fornitura con conseguenti extracosti per il Servizio sanitario nazionale Fornisce supporto in ogni ambito di azione dellassociazione al fine di tutelare gli  il costante monitoraggio e lanalisi della legislazione nazionale ed europea  legate al settore del farmaco generico biosimilare galenico e perfusionale  di studi e rapporti sulle tatiche di maggior interesse per lindustria generica  Banco Farmaceutico celebra i  anni con una settimana di farmaci in dono  Ottobre  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Scopri i dettagli delle offerte di lavoro presso Assogenerici  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Iscriviti subito a LinkedIn È gratis ASSOGENERICI  Associazione Nazionale Industrie Farmaci Generici e Biosimilari  From march  I joined Assogenerici the Italian Generics Medicines  LAssociazione nazionale industrie farmaci generici e biosimilari rappresenta oltre  aziende produttrici di farmaci generici e biosimilari in Italia  classf lug   Il rapporto  spiega Assogenerici lassociazione nazionale delle industrie dei farmaci generici e biosimilari  presenta limmagine di un   classf dic   Farmaci equivalenti cresce la produzione ma esplodono costi e concorrenza extraUe  Assogenerici Associazione nazionale industrie farmaci generici e  dellindustria dei farmaci generici equivalenti e biosimilari in Italia  classf gen   Codice Privacy Assogenerici Associazione Nazionale Industria Farmaci Generici e Biosimilari organizzazione di categoria e di settore di </t>
+  </si>
+  <si>
+    <t>AZIENDE ASSOCIATE  DOC Generici Srl Sito Web Dr Reddys Srl  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Passeggiata diwbr wbr  Novbre   La campagna di informazione nazionale sui farmaci equivalenti approda nella Regione Marche a renderlo noto un comunicato in cui si   classf mag   Il  e stato un anno turbolento anche per i produttori di farmaci generici e non solo per le aziende che puntano ai farmaci di marca Mission Realizzare con aziende farmaceutiche operanti nel settore della  farmaci generici a prescrizione medica con proprio nome commerciale brandedwbrwbr  classf mag   Tra il  e il  andranno in scadenza brevetti di farmaci che generano una spesa di oltre  miliardi di euro lanno ha segnalato il  Elenco dei farmaci equivalenti e generici presenti nel sito consultabile  Il motivo per cui tali farmaci costano di meno rispetto a quelli di marca è che le aziende   classf ott   Il mercato dei farmaci generici sta spre più crescendo  da CpHI rivela che il  degli executive di aziende farmaceutiche domestiche  Teva è la prima azienda al mondo nel settore dei farmaci equivalenti Il suo primato nasce dalla costante attenzione a ricerca scientifica innovazione delle   classf mag   Usa sotto accusa venti aziende farmaceutiche Hanno gonfiato i prezzi dei farmaci generici Le procure di  Stati Usa hanno fatto causa alle   classf ott   Nellagosto  Mylan acquisisce lattività di farmaci generici e topici di Renaissance e Meda azienda leader mondiale nei farmaci </t>
+  </si>
+  <si>
+    <t>Milano  Dicbre   Dai risultati preliminari del primo studio osservazionale retrospettivo di confronto tra farmaco brand e farmaco generico realizzato   classf nov   I consumatori italiani hanno la possibilità di scegliere se acquistareil farmaco brand prescritto dalmedico o il farmaco equivalente generico   classf nov   Fra i farmaci brand e quelli generici ci sono delle differenze In modo particolare queste ultime riguardano la bioequivalenza e la composizione   classf ott   Partiamo dalla definizione di farmaco di brand e farmaco generico Quello di marca è il farmaco di riferimento che una volta registrato ha una   classf dic   Dai risultati preliminari del primo studio osservazionale retrospettivo di confronto tra farmaco brand e farmaco generico realizzato con il   classf ott   Utilizza in maniera interscambiabile i termini farmaco di marca e farmaco brand Non utilizza i termini farmaco di riferimento e farmaco  Riassunto Il risparmio che si ottiene con luso di farmaci generici in sostituzione di farmaci branded è necessario per ragioni econo miche e reso sicuro dalla  Il farmaco generico può essere messo in commercio alla scadenza del brevetto delloriginatore  In caso di passaggio dal farmaco brand al generico le stesse indicazioni terapeutiche Fino a poco tpo fa la prescrizione medi ca di un farmaco generico piuttosto che un farmaco brand costituiva solo unopzione unimitazione del medicinale originatore tendo che il farmaco generico non  spiega quindi come mai un farmaco è presente con un unico brand quando è </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr  classf dic    di un farmaco come la Cardioaspirina che costa meno acquistarlo che  Poi mi hanno spiegato che la differenza di prezzo tra un generico e   classf feb   Cardioaspirina quando prendere aspirina per fluidificare il sangue   scatole in  mesi a prezzo pieno   poco meno il generico Nomi dei farmaci generici e commerciali  Informazioni su cause sintomi diagnosi e trattamento disponibili su Manuali MSD versione per i pazienti  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  E un po come farsi un rapido checkup ogni giorno senza dover uscire di continua  Novbre  Troppo sale può aumentare il declino cognitivo Cèwbr wbr  classf set   DOC GENERICI SRL  AIC       ACICLOVIR  MG COMPRESSE  COMPRESSE SANDOZ SPA  classf feb   Secondo voi cè differenza fra Aspirina Aspirinetta e Cardioaspirina La risposta è Sì ma non nel principio attivo che è spre lAcido  LE AREE TERAPEUTICHE E I PRODOTTI Scopri lampia gamma dei prodotti DOC Generici nelle diverse aree terapeutiche Schede tecniche e listini prezzi per  Banca dati ultimo aggiornamento  novbre  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infatti una volta attestata la bioequivalenza tra il farmaco generico e il farmaco  Come influiscono gli eccipienti sullefficacia di un medicinale generico Corre voce che i farmaci equivalenti non siano efficaci quanto i corrispondenti di marca perché è diversa la composizione degli eccipienti cioè delle altre   classf mag   Ciononostante un certo numero di eccipienti possono avere rilevanza per la sicurezza di un  Farmaci generici cinque cose da sapere   classf gen   Ad espio nel numero monografico sul farmaco generico del BIF  dire che indipendentente dagli eccipienti presenti nei due preparati  Altri eccipienti come i parabeni possono determinare reazioni allergiche ed è noto che i farmaci contenenti lattosio non sono indicati in soggetti intolleranti a  classf nov   Dice ancora Uda Gli eccipienti usati per i generici sono comunque gli stessi presenti nei farmaci di marca E sono censiti in unapposita lista  Cosa sono gli Eccipienti nei farmaci  gli eccipienti non siano del tutto innocui occorre prendere in considerazione i medicinali generici e i farmaci brevettati In Italia il consumo di farmaci equivalenti già noti come farmaci generici  negli eccipienti nei confezionamenti o nellaspetto dei farmaci equivalenti non   classf giu   Nei casi in cui sono presenti in commercio più farmaci equivalenti  prescritto e quello del generico corrispondente sarà a suo carico  classf feb   Dunque senza eccipienti niente farmaci ma ricordiamo unatra  espio a causa delle allergie che alcuni soggetti sviluppano nei confronti di </t>
+  </si>
+  <si>
+    <t>Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  Il farmaco generico o meglio equivalente Legge  è un  per un certo periodo di tpo in modo da poter recuperare i costi di ricerca e sviluppo  classf mar   Sono quei farmaci il cui brevetto è scaduto e possono dunque essere commercializzati a minor costo una diminuzione di almeno il  del  Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr AIFA Agenzia Italiana del Farmaco logo  Convegno AIFA Farmaci  Modalità prescrittive e di dispensazione dei medicinali generici a base di pregabalin  Cerca un farmaco  wwwfederfarmait   Per effettuare la ricerca è necessario compilare anche parzialmente almeno uno dei seguenti   Per medicinale generico o equivalente si intende un medicinale avente la  di rientrare nei costi degli investimenti fatti in ricerca e sviluppo  un medicinale  Questo è reso possibile grazie ai minori costi che lazienda farmaceutica deve sostenere per lo sviluppo e la ricerca del farmaco Infatti una volta attestata la   classf mag   Prezzi dei farmaci generici gonfiati del  per cento quaranta Stati Usa  cospirato per aumentare il costo di più di  medicine generiche </t>
+  </si>
+  <si>
+    <t>Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto   classf mar   Sono quei farmaci il cui brevetto è scaduto e possono dunque essere commercializzati a minor costo una diminuzione di almeno il  del  Il farmaco generico o meglio equivalente Legge  è un  per un certo periodo di tpo in modo da poter recuperare i costi di ricerca e sviluppo Cerca un farmaco  wwwfederfarmait   Per effettuare la ricerca è necessario compilare anche parzialmente almeno uno dei seguenti   AIFA Agenzia Italiana del Farmaco logo  Convegno AIFA Farmaci  Modalità prescrittive e di dispensazione dei medicinali generici a base di pregabalin  Per medicinale generico o equivalente si intende un medicinale avente la  di rientrare nei costi degli investimenti fatti in ricerca e sviluppo  un medicinale   classf lug   Il fatturato è di  miliardi di euro ma è messo alle strette dallaumento dei costi di produzione che tra il  e il  sono cresciuti del   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Questo è reso possibile grazie ai minori costi che lazienda farmaceutica deve sostenere per lo sviluppo e la ricerca del farmaco Infatti una volta attestata la </t>
+  </si>
+  <si>
+    <t>Attraverso studi di bioequivalenza si verifica lassenza di differenze clinicamente rilevanti tra loriginator e lequivalente Le Autorità regolatorie indicano una  Il farmaco biosimilare non è e non può essere considerato il  complessi rispetto a quelli richiesti per lapprovazione dei genericiequivalenti per garantire che  LAIFA ha realizzato la guida Medicinali Equivalenti  Qualità sicurezza ed  Come spiegato nel secondo Position Paper di AIFA sui farmaci biosimilari  il   classf giu   I dati dellultimo Rapporto sullUso dei Farmaci in Italia mostrano che il mercato dei farmaci a brevetto scaduto nel nostro paese è in crescita EQUIVALENTI E BIOSIMILARI Prof Paola Minghetti UNIVERSITA DEGLI STUDI DI MILANO FACOLTÀ DI SCIENZE DEL FARMACO  Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test  di bioequivalenza al fine di dimostrare che un farmaco generico è equivalente e quindi  Associazione Nazionale Industrie Farmaci Generici e Biosimilari  classf nov   Perché non sono la stessa cosa Farmaci di sintesi biologici equivalenti generici biosimilari Spre più spesso se ne parla Ma a che cosa  Farmaci equivalenti e biosimilari Parte  Generic and biosimilar drugs Part  A De Micheli RIASSUNTO Lutilizzo dei farmaci generici e biosimilari   classf mar   Prima ancora di ripensare le politiche credo sia fondamentale puntare sulla promozione di una vera e propria cultura del farmaco equivalente  Farmaci biotecnologici e biosimilari La rivoluzione dei biotech  nator si ritiene sufficiente la dimostrazione della bioequivalenza per permettere al </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf ott   Bioequivalenza è un requisito imposto dalla FDA e dalla EMA per i saggi in  Cmax e AUC è compreso tra  e  di quello del farmaco  Un farmaco equivalente definito anche generico è un prodotto che  Cmax media e AUC media di due farmaci dichiarati bioequivalenti non possono differire  logica bioequivalenza del medicinale generico con il corrispondente  e AUC relativi al generico ed al suo prodotto di riferimento espressi in scala siloga  classf nov   Bioequivalenzama siamo sicuri Biodisponibilità  AUC probabilità Inferenza  Limiti fiduciali Cmax compreso tra  e   nonché una bioequivalenza con il medicinale di  Definizione di Bioequivalenza  Composto di riferimento Tpo Con ce n tra zio n e Cmax Tmax AUC  MISURA DELLA BIODISPONIBILITA DEI FARMACI AUC area under the curve è usata come misura della biodisponibilità es curva concentrazione tpo  I parametri farmacocinetici che è obbligatorio valutare in uno studio di bioequivalenza sono Cmax Tmax e AUC dove i primi due sono indici della velocità del   classf gen   Il criterio di bioequivalenza tra generico e generatore infatti salta a piè  dei rapporti individuali di AUC e Cmax è compreso tra  e    classf mar   Per stabilire la bioequivalenza vengono valutati alcuni parametri farmacocinetici area under the concentration time curve AUC e maximum   classf feb   nonché una bioequivalenza con il medicinale di riferimento dimostrata da studi  rispetto al farmaco di riferimento AUC Cmax e T max</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gli studi di bioequivalenza sono in sostanza degli studi di farmacocinetica dal greco kinesis  Due medicinali sono bioequivalenti quando con la stessa dose i loro profili di  Associazione Nazionale Industrie Farmaci Generici e Biosimilari Attraverso studi di bioequivalenza si verifica lassenza di differenze clinicamente rilevanti tra loriginator e lequivalente Le Autorità regolatorie indicano una   classf ott   Farmaci equivalenti dalla bioequivalenza allequivalenza clinica Prof Alberto Corsini Università degli Studi di Milano Domus De Maria CA Un medicinale è equivalente al medicinale di riferimento se mediante studi di bioequivalenza si dimostra che con la stessa dose i profili di concentrazione nelwbr wbr I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza Due farmaci per i quali è dimostrata lequivalenza farmaceutica quantità di  e via di somministrazione identiche sono definiti bioequivalenti quando la loro  Due medicinali sono bioequivalenti si legge nella Guida AIFA quando con la stessa dose i loro profili di concentrazione nel sangue rispetto al tpo sono  Bioequivalenza e intercambiabilità dei farmaci generici  Esplora Manuali MSD  versione per i pazienti  classf ott   I farmaci bioequivalenti o generici sono medicinali che contengono un principio attivo a brevetto è scaduto terapeuticamente equivalenti ai  Due prodotti sono infatti considerati bioequivalenti se le loro biodisponibilità ovvero la quantità di farmaco che passa nella circolazione generale dopo la </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gli studi di bioequivalenza sono in sostanza degli studi di farmacocinetica dal greco kinesis movimento e pharmacon medicinale la cui finalità è quella di   classf ott   Farmaci equivalenti dalla bioequivalenza allequivalenza clinica Prof Alberto Corsini Università degli Studi di Milano Domus De Maria CA Bioequivalenza e intercambiabilità dei farmaci generici  Esplora Manuali MSD  versione per i pazienti Due farmaci per i quali è dimostrata lequivalenza farmaceutica quantità di principio attivo forma farmaceutica e via di somministrazione identiche sono definiti  Se due medicinali sono bioequivalenti i loro effetti in termini di efficacia e sicurezza sono gli stessi in altre parole i medicinali bioequivalenti sono anche  Se invece gli eccipienti nel farmaco equivalente sono differenti da quelli del farmaco di marca si deve dimostrare la bioequivalenza con il prodotto di  I FARMACI GENERICI  Bioequivalenza e biodisponibilità Registrazione del Tribunale di Milano n  del  LE GUIDE DI DICA  I FARMACI   classf nov   Equivalenza  Bioequivalenza  Affari regolatori  Sviluppo del farmaco equivalente  Farmacovigilanza Torino  Novbre   Introduzione I generici come noto costituiscono da tpo unimportante realtà di mercato in nu merosi Paesi europei e negli Stati Uniti dove si sono già  Attraverso studi di bioequivalenza si verifica lassenza di differenze clinicamente rilevanti tra loriginator e lequivalente Le Autorità regolatorie indicano una </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attraverso studi di bioequivalenza si verifica lassenza di differenze clinicamente rilevanti tra loriginator e lequivalente Le Autorità regolatorie indicano una  LAIFA ha realizzato la guida Medicinali Equivalenti  Qualità sicurezza ed  Come spiegato nel secondo Position Paper di AIFA sui farmaci biosimilari  il  Il farmaco biosimilare non è e non può essere considerato il  complessi rispetto a quelli richiesti per lapprovazione dei genericiequivalenti per garantire che   classf giu   I dati dellultimo Rapporto sullUso dei Farmaci in Italia mostrano che il mercato dei farmaci a brevetto scaduto nel nostro paese è in crescita Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test  di bioequivalenza al fine di dimostrare che un farmaco generico è equivalente e quindi  Associazione Nazionale Industrie Farmaci Generici e Biosimilari EQUIVALENTI E BIOSIMILARI Prof Paola Minghetti UNIVERSITA DEGLI STUDI DI MILANO FACOLTÀ DI SCIENZE DEL FARMACO   classf nov   Perché non sono la stessa cosa Farmaci di sintesi biologici equivalenti generici biosimilari Spre più spesso se ne parla Ma a che cosa   classf mar   Prima ancora di ripensare le politiche credo sia fondamentale puntare sulla promozione di una vera e propria cultura del farmaco equivalente  Farmaci equivalenti e biosimilari Parte  Generic and biosimilar drugs Part  A De Micheli RIASSUNTO Lutilizzo dei farmaci generici e biosimilari  Tenuto conto che lautorizzazione allimmissione in commercio di equivalenti e biosimilari è conseguente allutilizzo di lungo periodo dei farmaci originator </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mar   Farmaco generico si o no Si sa  La biodisponibilità tra due farmaci è la disponibilità del principio attivo nel sangue dopo il suo assorbimento I FARMACI GENERICI  Bioequivalenza e biodisponibilità Registrazione del Tribunale di Milano n  del  LE GUIDE DI DICA  I FARMACI   classf ott   biodisponibilità viene definito equivalente art  comma   nella produzione di farmaci generici motivo per il quale in caso di allergia o  La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di  Quando si compara la biodisponibilità di un farmaco equivalente con il corrispettivo farmaco di marca si fa riferimento ad un range entro il quale devono essere  Per medicinale generico o equivalente si intende un medicinale avente la  è quella di confrontare la biodisponibilità di due medicinali ovvero la quantità di   movimento e pharmacon medicinale la cui finalità è quella di confrontare la biodisponibilità di due prodotti ove per biodisponibilità si intende la quantità di medicinale che  Associazione Nazionale Industrie Farmaci Generici e Biosimilari  classf mag   Bioequivalenza e biodisponibilità Sono i parametri per stabilire se un equivalente può essere considerato tale  dimostrata da studi appropriati di biodisponibilità con un altro medicinale di  Il termine medicinale generico è la traduzione italiana della definizione  Due prodotti sono infatti considerati bioequivalenti se le loro biodisponibilità ovvero la quantità di farmaco che passa nella circolazione generale dopo la </t>
+  </si>
+  <si>
+    <t>Ciprofloxacina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Cilodex Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr CILODEX OTO GTT ML MGMG  ML CILODEX è indicato per il trattamento delle seguenti infezioni negli adulti e nei bambini vedere paragrafo  CILODEX è indicato per il trattamento delle seguenti infezioni negli adulti e nei bambini vedere paragrafo  Vedere paragrafo  per le specie  Cilodex  gocce Ciprofloxacina  DesametasoneOtorinolaringologici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati   classf ott   Farmaci per otite senza ricetta medica  Otalgan Anauran Tobradex e altri farmaci e gocce auricolari e antibiotiche quali non necessitano di  Le migliori offerte per Gocce Per Orecchio in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Ciprofloxacina Doc Generici  cpr riv  mg   ARR  cpr  mg    CRR Ciprofloxacina Cloridrato  Desametasone Cilodex Novartis Farma Trova prezzi di cilodex oto gocce ml mgmgml confronta offerte di cilodex oto gtt ml mgmgml compra online sicuro e affidabile</t>
+  </si>
+  <si>
+    <t>CEXIDAL OTO GTT FL ML ITALCHIMICI SpA Principio attivo CIPROFLOXACINA FLUOCINOLONE ACETONIDE   prezzo indicativo Farmacia online   classf gen   Cexidal Oto Gtt Fl ml  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Italchimici Spa Costo e a cosa  Cexidal Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Trova prezzi di cexidal oto gocce fl ml confronta offerte di cexidal oto gtt fl ml compra online sicuro e affidabile Cexidal  gocce Ciprofloxacina  Fluocinolone AcetonideCorticosteroidi  antibatterici a cosa serve come e quando assumerlo interazioni effetti collaterali e  NomeCexidal  Oto Gtt Fl ml Codice Ministeriale Principio attivowbrCiprofloxacinaFluocinolone Acetonide Codice ATCSCA FasciaC Prezzo wbr  classf feb   Cexidal  Ciprofloxacinafluocinolone Acetonide  Trattamento locale di otite esterna acuta diffusa di origine batterica in assenza di  Gocce Per Orecchio il miglior prezzo in Prodotti Salute è di   Prodotti più rilevanti Otosan Gocce Auricolari Da   Filtra  prezzi trovati Vista Cexidal è un farmaco a base di ciprofloxacina  fluocinolone acetonide  CLASSE C RICETTA medicinale soggetto a prescrizione medica PREZZO    classf set   Gentile Paziente trattandosi di probla allorecchio é evidente che lei debba farsi visitare da uno specialista ORL Tuttavia credo che quello </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cetirizina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf giu   Fexofenadina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed  Combatti i fastidiosi sintomi delle allergie con i prodotti giusti scopri la nostra selezione di farmaci da banco antistaminici colliri spray e compresse Farmaè  vendita online di parafarmaci prodotti per linfanzia generi di largo consumo e cosmesi La tua farmacia online Le migliori offerte per Antistaminico Compresse in Farmaci da Banco sul primo comparatore  Cetirizina Eg farmaco generico antistaminico mg  Compresse Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini  Ebastina è un farmaco antistaminico indicato per trattare i sintomi  Abbiamo riservato per te numerose offerte per antistaminici in compresse e cre Scopri come ricevere i tuoi prodotti con spedizione in  h Rupatadina DOC Generici  compressa Rupatadina FumaratoAntiallergici antistaminici a cosa serve come e quando assumerlo interazioni effetti collaterali </t>
+  </si>
+  <si>
+    <t>CILODEX è indicato per il trattamento delle seguenti infezioni negli adulti e nei bambini vedere  CILODEX OTO GTT ML MGMGML  prezzo indicativo PREZZO INDICATIVO    CILODEX OTO GTT ML MGMG  ML CILODEX è indicato per il trattamento delle seguenti infezioni negli adulti e nei  Cilodex Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Cilodex  gocce Ciprofloxacina  DesametasoneOtorinolaringologici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati  Gocce Per Orecchio il miglior prezzo in Prodotti Salute è di   Prodotti più rilevanti Otosan Gocce Auricolari Da   Filtra  prezzi trovati Vista Trova prezzi di cilodex oto gocce ml mgmgml confronta offerte di cilodex oto gtt ml mgmgml compra online sicuro e affidabile  classf ott   Farmaci per otite senza ricetta medica  Otalgan Anauran Tobradex e altri farmaci e gocce auricolari e antibiotiche quali non necessitano di  Prezzi dei farmaci C la lista di trasparenza dellAifa Dal gennaio  lAIFA Agenzia Italiana del Farmaco rende disponibili sul proprio sito le liste di  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa </t>
+  </si>
+  <si>
+    <t>Limpegno di DOC Generici è orientato alla responsabilità sociale fondata sullwbrimportante ruolo svolto dal farmaco generico Per il paziente utilizzare un wbr La nostra mission Lo sviluppo dellattività attraverso la soddisfazione dei bisogni dei pazienti costituisce lobiettivo primario di DOC Generici Perseguiamo   classf lug   Nuovi prodotti nuovi mercati nuove persone nuove strategie di comunicazione e nuova proprietà Per Doc Generici la svolta è già in atto   classf mar   MILANO  Passa da un fondo di private equity allaltro Doc Generici uno dei leader nella distribuzione dei farmaci generici in Italia con un   classf dic   Doc Generici la low cost dei farmaci ora si prepara allo shopping estero  Milano D oc Generici è una mosca bianca non solo è lunica   classf ott   Lesperienza personale vale più di qualunque dichiarazione ufficiale o lavoro clinico O quanto meno dovrebbe servire come è successo a me   classf nov   DOC Generici Srl DOC Generici società italiana che produce medicinali generici aveva pubblicato sul proprio sito web e su alcune riviste  Clopidogrel  Farmaco generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Calcitriolo DOC Generici  capsula molle CalcitrioloVitamine D a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati confezioniwbr wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diclofenac  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Diclofenac Gel  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   È disponibile ad oggi anche come farmaco generico in varie formulazioni  Gel  e Voltaren Emulgel Dicloreum Diclofenac Fastum  Se anche voi utilizzate dietro avvertimento del medico farmaci quali Voltaren o Voltaren ulgel per eliminare dolori articolari e muscolari è bene sapere che  Prezzo e informazioni farmaceutiche sul farmaco generico VOLTAREN prodotto da NOVARTIS FARMA SPA ed eventuali sue alternative  classf gen   E lecito infatti chiedersi perché il farmacista mi propone il generico  Ad espio Voltaren è il nome commerciale brand che lazienda  VOLTAREN CPR GASTROR MG Affezioni reumatiche infiammatorie e degenerative  artrite reumatoide spondilite anchilosante  artrosi  reumatismowbr wbr Diclofenac DOC Generici  mg  compresse a rilascio prolungato  equivalenti di Diclofenac DOC Generici a base di Diclofenac Sodico sono Voltaren  Voltaren Generico Russia furono delle un della la e mortale per parole ha del attraverso Osya di con tentativo nella requisiti il è hanno accusati nei cittadino Le migliori offerte per Diclofenac Gel  in Farmaci da Banco sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  Bisoprololo è un farmaco che blocca in maniera altamente selettiva i  BISOPROLOLO DOC Generics Confezioni disponibili  cpr  mg  cpr  mg  cpr  mg  cpr  mg  cpr  mg   classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri betawbrbloccanti Questo medicinale viene impiegato per il trattamentowbr Bisoprololo Sandoz  mg compresse rivestite con film Bisoprololo Sandoz  mg compresse rivestite con film Bisoprololo Sandoz  mg compresse   classf feb   Bisoprololo Doc generici  Bisoprololo  Quali sono gli effetti collaterali A cosa serve Per quali malattie si usa  Ipertensione  Angina  DOC GENERICI Srl Principio attivo BISOPROLOLO FUMARATO    Bisoprololo fumarato  mg una compressa contiene  mg di bisoprololo fumarato E commercializzato in Italia dallazienda DOC Generici Srl Bisoprololo Doc Generics può essere prescritto con Ricetta RR  medicinali soggetti a prescrizione  Bisoprololo Sandoz  compressa rivestita Bisoprololo FumaratoBetabloccanti selettivi a cosa serve come e quando assumerlo interazioni effetti collaterali e   classf nov   Bisoprololo Doc cpr mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Doc Generici Srl Costo e a cosa </t>
+  </si>
+  <si>
+    <t>Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali CONCOR   Bisoprololo  Scheda informativa indicazioni efficacia modo dusowbr avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Bisoprololo Sandoz  compressa rivestita Bisoprololo FumaratoBetabloccanti selettivi a cosa serve come e quando assumerlo interazioni effetti collaterali e   classf gen   Bisoprololo è un farmaco che blocca in maniera altamente selettiva i recettori beta del sista adrenergico presenti nel cuore In funzione di  Prodotti farmaceutici a base di BISOPROLOLO FUMARATO con foglietti illustrativi e schede tecniche di tutti i medicinali  classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri betawbrbloccanti Questo medicinale viene impiegato per il trattamentowbr Cardicor è un farmaco a base di bisoprololo un principio attivo che appartiene alla nutrita categoria dei betabloccanti così detti perché bloccano i recettori di   classf mar   BISOPROLOLO E IDOCLORO  MG MG COMPRESSE RIVESTITE CON FILM  COMPRESSE IN BLISTER OPAALPVCAL Bisoprololo   esperienze e le reazioni avverse Uomo  sono iperteso e con soli  mg di bisoprololo ho ridotto la pressione mattutina da  a Il principio attivo di Bisoprololo Zentiva Italia compresse è il bisoprololo Bisoprololo Zentiva Italia appartiene ad un gruppo di farmaci chiamati betawbrbloccantiwbr</t>
+  </si>
+  <si>
+    <t>Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Cardicor Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  Prezzo e informazioni farmaceutiche sul farmaco generico CARDICOR prodotto da BAYER SPA ed eventuali sue alternative  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr  classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri betawbrbloccanti Questo medicinale viene impiegato per il trattamentowbr Cardicor è un farmaco a base di bisoprololo un principio attivo che appartiene alla nutrita categoria dei betabloccanti così detti perché bloccano i recettori di  CARDICOR CPR RIV MG Trattamento dellinsufficienza cardiaca cronica stabile con ridotta funzione ventricolare sistolica sinistra in aggiunta ad ACE   classf lug   DOC GENERICI SRL  AIC      AIC       CARDICOR  AIC       CARDICOR  classf apr   ACARBOSIO DOC GENERICI  MG COMPRESSE  COMPRESSE IN BLISTER PVCPEPVDC  DOC GENERICI SRL  CARDICOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali CONCOR   Bisoprololo  Scheda informativa indicazioni efficacia modo dusowbr avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Bisoprololo Sandoz è un farmaco a base del principio attivo Bisoprololo Fumarato appartenente alla categoria degli Betabloccanti selettivi e nello specifico   classf gen   Bisoprololo è un farmaco che blocca in maniera altamente selettiva i recettori beta del sista adrenergico presenti nel cuore In funzione di  Cardicor è un farmaco a base di bisoprololo un principio attivo che appartiene alla nutrita categoria dei betabloccanti così detti perché bloccano i recettori di  Prodotti farmaceutici a base di BISOPROLOLO FUMARATO con foglietti illustrativi e schede tecniche di tutti i medicinali  classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri betawbrbloccanti Questo medicinale viene impiegato per il trattamentowbr Bisoprololo   esperienze e le reazioni avverse Uomo  sono iperteso e con soli  mg di bisoprololo ho ridotto la pressione mattutina da  a  classf mar   Farmaco Confezione Differenza Prezzo riferimento  aprile   BISOPROLOLO E IDOCLORO  MG MG COMPRESSE   classf feb   atenololo bisoprololo carvedilolo metoprololo nebivololo  La maggior parte delle persone che prendono farmaci betabloccanti non ha </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Cardicor Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr Prezzo e informazioni farmaceutiche sul farmaco generico CARDICOR prodotto da BAYER SPA ed eventuali sue alternative  classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri betawbrbloccanti Questo medicinale viene impiegato per il trattamentowbr  classf set   Cardicor è un farmaco betabloccante il cui principio attivo è il  In commercio esiste anche il medicinale generico che come spre riporta il   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  CARDICOR CPR RIV MG Trattamento dellinsufficienza cardiaca cronica stabile con ridotta funzione ventricolare sistolica sinistra in aggiunta ad ACE  Cardicor è un farmaco a base di bisoprololo un principio attivo che appartiene alla nutrita categoria dei betabloccanti così detti perché bloccano i recettori di   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano </t>
+  </si>
+  <si>
+    <t>Bisoprololo  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Congescor Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini  Il trattamento con bisoprololo non deve essere interrotto in modo  Le compresse di Cardicor bisoprololo devono essere prese al mattino anche con del cibo Le compresse devono essere ingerite con del liquido e non devonowbr wbr Questo Sito utilizza cookie tecnici che non identificano lUtente  ATENOLOLO CLORTALIDONE DOC Generici Confezioni disponibili  BISOPROLOLO DOC Generics Confezioni  CANDESARTAN E IDROCLOROTIAZIDE DOC Generici  classf ott   Il Bisoprololo è un farmaco generico equivalente a Cardicor e ad altri  e non superare mai i dosaggi massimi indicati nel foglietto illustrativo Bisoprololo Sandoz  mg  compresse rivestite  Il trattamento con bisoprololo non deve essere interrotto in modo improvviso poichè le condizioni del  Prodotti farmaceutici a base di BISOPROLOLO FUMARATO con foglietti illustrativi e schede tecniche di tutti i medicinali  classf feb   Bisoprololo Doc generici  Bisoprololo  Quali sono gli effetti collaterali  Non esistono dati sperimentali sulluso del medicinale nei bambini  Il trattamento con bisoprololo non deve essere interrotto in modo improvviso poiché le condizioni del paziente potrebbero aggravarsi tporaneamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAtenololo è un farmaco bloccante selettivo dei recettori βadrenergici definito anche bloccante betaadrenergico o più splicente betabloccante  ATENOL   Atenololo  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf gen   Atenololo è un farmaco betabloccante efficace e complessivamente ben tollerato I principali effetti indesiderati che possono insorgere durante  Atenololo Atenol Atermin Seles Beta Tenormin  Cosa è e a  Conservare il farmaco nella confezione originale assie al foglietto illustrativo Next Page  Atenololo EG è un farmaco a base del principio attivo Atenololo appartenente alla categoria degli Betabloccanti selettivi e nello specifico Betabloccanti selettivi Atenololo LAtenololo è un farmaco bloccante selettivo dei recettori βwbradrenergici definito anche bloccante betaadrenergico o più splicente wbr Prodotti farmaceutici a base di ATENOLOLO con foglietti illustrativi e schede tecniche di tutti i medicinali ATENOLOLO EG  mg compresse  Questo medicinale contiene il principio attivo atenololo appartenente ad un  Se i due farmaci vengono  Conservare nella confezione originale per proteggere il medicinale dalla luce e dallumidità Atenololo AHCL contiene un principio attivo chiamato atenololo appartenente ad  anche con farmaci chiamati alfabloccanti in aggiunta ad Atenololo AHCL Foglietto illustrativo del farmaco ATENOLOLO ZENTIVA  mg compresse  Conservare nella confezione originale per tenerlo al riparo da luce e umidità</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gentamicina Cra  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr  classf nov   Lista in ordine di prezzo dei farmaci classificabili come Gentalyn Beta generico a base di gentamicina per risparmiare con lo stesso principio  GENTALYN BETA CR G  Gentalyn Beta    e Gentalyn Beta    sono indicati nel trattamento topico  DOC GENERICI Srl   classf gen   Gentamicina teva cra per acne foruncoli e giradito Leggi tutte le informazioni e il prezzo del generico del gentalyn  classf mar   GENTALYN BETA CR G  Principio attivo GENTAMICINA  Prezzo indicativo EUR  DOC GENERICI Srl  Farmacia on line  Farmacia Madonna della Neve prodotti Parafarmaceutici Cosmetici e Integratori alimentari  Consegna in  h Spesso non si conosce davvero la differenza tra queste due preparazioni medicinali che presentano importanti caratteristiche e differenze Vediamole insie  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  I farmaci equivalenti di Gentamicina  Betametasone DOC Generici a base di Betametasone  Gentamicina sono Betacream Egerian Fidagenbeta Gentalynwbr wbr I farmaci di marca contenenti Gentamicina Gentalyn cra Gentacream  da  a  euro per confezioni da  gr mentre il costo del generico venduto con </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Fucicort è un farmaco a base del principio attivo Acido Fusidico   Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più   farmaci con ACIDO FUSIDICO  BETAMETASONE VALERATO  FUCICORT  mgg   mgg Cra è indicato nel trattamento delle dermatiti eczatose  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto  Fucicort  Cra g  Farmaci equivalenti trovati Fucicort  Cra g  Leo Pharma AS  Fucimixbeta  Cra g mgG  classf feb   Fucicort  Acido Fusidicobetametasone Valerato  FUCICORT  mgg  informazioni particolari Farmaci equivalenti stesso principio attivo  Cerca un farmaco generico cerca un marchio o un principio attivo trova il farmaco generico confronta il prezzo e scopri quanto puoi risparmiare  classf giu   Stai cercando una variante economica della pomata antibiotica Gentalyn Beta Ti segnaliamo lalternativa generica e una lista di farmaci  FUCICORT  Betametasone  Acido Fusidico  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali   classf gen   Fucicort Cra g   Prezzo bugiardino e foglio  si consiglia lwbraccesso al sito web dellAIFA Agenzia Italiana del Farmacowbr</t>
+  </si>
+  <si>
+    <t>Il miglior prezzo online per Sandoz Diosmina è di    il quantitativo di pasticche giornaliere ingerite è un generico che consente di risparmiare   Diosmina Sandoz Compresse Rivestite Diosmina Sandoz è un integratore alimentare per le orroidi utile anche nel trattamento delle varici e in caso di  DAFLON CPR RIV MG Sintomi attribuibili a insufficienza venosa stati di fragilità capillare PREZZO INDICATIVO   SERVIER ITALIA SpA  Prezzo   Spedizione GRATUITA per ordini superiori a     Dallwbruso topico a quello generico utilizzando principi attivi come la Diosmina e wbr SANDOZ DIOSMINA  Integratore Alimentare di Bioflavonoidi  CPR COME  Prezzo   Spedizione GRATUITA per ordini superiori a     oltre alla consegna velocissima questo prodotto è la versione generica del daflon ed è  Diosmina  Compresse acquista su LloydsFarmacia i prodotti SANDOZ Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa   classf ago   Il principio attivo di Daflon ed Arvenum è la diosmina appartenente alla famiglia dei flavonoidi cioè sostanze prodotte nel corso dei processi  Diosmina Sandoz è un integratore di bioflavonoidi a base di Diosmina ed Esperidina titolati e standardizzati Diosmina Sandoz può essere utile nei casi diwbr wbr Diosmina EG mg Compresse Composizione Ogni compressa contiene principio attivo  Ti piacerebbe essere informato se il prezzo dovesse diminuirewbrwbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Econazolo Sandoz  antimicotico cra g  Lomexin Cra Derm Antimicotico g   Antimicotico Same Cra per Infezioni da Lieviti e Batteri g  Gli antimicotici sono dispositivi medici specifici per eliminare le micosi delle unghie che ti permettono di risolvere il probla con rapidità prevenire il  Clotrimazolo DOC Generici  cra ClotrimazoloAntimicotici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati confezioniwbr wbr  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che  In rari casi questo antimicotico può causare danni al fegato Canesten  Clotrimazolo Antimicotico Polvere Cutanea  gr  Clotrimazolo Doc Generici  cra è specialmente indicata per il trattamento delle zone  Le micosi cutanee delle unghie o del cuoio capelluto si curano con specifici farmaci antimicotici Acquistali qui senza ricetta e ricevili a casa I Farmaci Antimicotici attualmente in uso per il trattamento delle Micosi da Dermatofita agiscono  Specialità medicinali Diflucan Elazor Fluconazolo generico Vi presentiamo i prodotti del gruppo dermatologici antimicotici  In Farmacia  Portale  Tipologia Farmaci Preconfezionati Prodotti Industrialmente  Generici  Scopri cre polveri e smalti antimicotici per il trattamento di infezione fungine sulle unghie onicomicosi e sulla pelle dermatomicosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf set   Luso di Voltaren o di farmaci con diclofenac potrebbe causare infarti ed ictus studio dimostra lassociazione di antidolorifici con malattie   classf dic   Antinfiammatori perché possono fare male al cuore  Insomma non cè da scherzare con questi farmaci pericolosi soprattutto per chi soffre di  Luso di farmaci contro il dolore tra i più comuni a base di diclofenac può aumentare il rischio di infarto o ictus Da evitare le dosi elevate e lassunzione per   classf ago   Allarme Aifa Questi due famosi farmaci uccidono il cuore Rischio infarto  Farmaci pericolosi Casi di epatotossicità per il farmaco RoActra  classf set   Luso di Voltaren o di farmaci con diclofenac potrebbe causare infarti ed ictus Uno studio dimostra lassociazione di antidolorifici con malattie   classf set   I farmaci antidolorifici a base di diclofenac  come il celebre Voltaren  di applicazione analoghi del diclofenac non sono stati considerati pericolosi poiché il  possano davvero rappresentare un rischio per il nostro cuore  classf dic   Due farmaci molto prescritti per il diabete di tipo   sulfaniluree e insulina basale  potrebbero aumentare considerevolmente il rischio di eventi   classf lug   Sono tra i farmaci più venduti nel mondo  oltre  milioni le prescrizioni allwbranno  e rappresentano una delle principali voci di entrata per le wbr  classf mar   Molto spesso i farmaci che assumiamo hanno più rischi per la nostra salute che  I FARMACI NON STEROIDEI FANNO MALE AL CUORE   classf apr   Ma la disinvoltura con cui consumiamo e prescriviamo farmaci antidolorifici e antinfiammatori FANS ha un alto prezzo sia in termini </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf lug   Secondo il rapporto sulluso dei farmaci redatto annualmente dallAgenzia Italiana del Farmaco Aifa gli inibitori di pompa protonica antiacidi   classf gen   I medici prescrivono con troppa facilità i farmaci antireflusso È quanto sostiene il portale dei consumatori francesi Que Choisir sulla base di   classf nov   Inibitori di pompa protonica Se presi a lungo possono essere pericolosi  Sono tra i farmaci più prescritti in assoluto Ma gli inibitori di pompa  La pubblicità ci mostra farmaci e rimedi per il reflusso acido come rapidi efficaci e  bisogna fare attenzione perché non tutti i prodotti antireflusso sono uguali  classf nov   Farmaci anti reflusso Prendere questi medicinali di cui i più famosi sono gli inibitori di pompa protonica per lunghi periodi è rischioso per la   classf nov   Uno studio mette in relazione gli inibitori della pompa protonica con un aumento del rischio di sviluppare cancro dello stomaco Più a lungo si   classf nov   Gli inibitori di pompa protonica una categoria di farmaci molto diffusa per il trattamento di acidità di stomaco e reflusso gastroesofageo   classf apr   Molti dei farmaci utilizzati per lattenuazione dei sintomi della gastrite nausea  Farmaci pericolosi attenzione a Moment Buscofen e Voltaren  classf nov   Luso a lungo termine di inibitori della pompa protonica PPI classe di farmaci comunente usati per trattare il reflusso acido è legato ad un  PEPTAZOL   Pantoprazolo  Scheda informativa indicazioni efficacia modo dwbruso avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf nov   COLCHICINA LIRCA  Colchicina  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti  Colchicina lirca Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Colchicina Lirca è un farmaco a base del principio attivo Colchicina  Accord wbrClaritromicina Almus Claritromicina Alter Claritromicina DOC Generici wbr  classf lug   La colchicina di origine vegetale è un farmaco che si utilizza per il trattamento della gotta per alcune forme di artrite e per la pericardite Già il uso  anni fa nellantica Grecia la colchicina è disponibile come generico negli USA dal  secolo Si tratta di un farmaco raccomandato da molte  Non sono note incompatibilità allassunzione del farmaco con i comuni  i test di laboratorio La somministrazione contporanea di colchicina e inibitori del   classf apr   Luso dellalcaloide colchicina per il trattamento dei reumatismi  e il farmaco va assunto spre sotto stretto controllo e prescrizione medica Nomi dei farmaci generici e commerciali  Informazioni su cause sintomi diagnosi e trattamento disponibili su Manuali MSD versione per i  Colchicina Genetiche in cui colchicine ville vendita farmaco e distribuito negli stati  Esistono ciao colchicine generico pochi farmacisti vedere un fdarichiesta  classf feb   La Colchicina può interagire con altri farmaci comunente prescritti  Allopurinolo doc  Cpr  mg Doc Generici Allopurinolo RR A</t>
+  </si>
+  <si>
+    <t>Acido Folico DOC Generici  compressa Acido FolicoAntianici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati  ACIDO FOLICO DOC Generici  mg compresse  COMPOSIZIONE QUALITATIVA E QUANTITATIVA Ogni compressa contiene acido folico equivalente a  mg  ACIDO FOLICO DOC CPR MG DOC GENERICI Srl Principio attivo ACIDO FOLICO   prezzo indicativo Farmacia online italianaoltre  prodotti  Acido Folico doc Generici leggi il foglietto illustrativo ufficiale completo di indicazioni terapeutiche posologia controindicazioni ed effetti indesiderati DENOMINAZIONE ACIDO FOLICO DOC GENERICI  MG COMPRESSE CATEGORIA FARMACOTERAPEUTICA Vitamina B e acido folico PRINCIPI  Codice Ministeriale Principio attivoAcido Folico Codice ATCwbrBBB FasciaA Prezzo Rimborso ProduttoreDoc Generici Srlwbr  classf mar   Acido Folico Doc cpr mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Doc Generici Srl Costo e a  A cosa serve Acido Folico DOC Generici acido folico Perchè si usa Per il trattamento dellania megaloblastica da carenza di folati dovuta a malnutrizione   classf set   Autorizzazione allimmissione in commercio del medicinale per uso umano wbrAcido Folico Doc Generici A GU Serie Generale wbr Acido folico doc cpr mcg  DOC GENERICI SRL  Ogni compressa contiene acido folico equivalente a  microgrammi acido folico anidro Eccipiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Folico DOC Generici  compressa Acido FolicoAntianici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati  DOC GENERICI Srl  ACIDO FOLICO DOC CPR MG  Per il trattamento dellwbrania megaloblastica da carenza di folati dovuta a malnutrizione a sindromi wbr ACIDO FOLICO DOC CPR MG DOC GENERICI Srl Principio attivo ACIDO FOLICO   prezzo indicativo Farmacia online italianaoltre  prodotti  ACIDO FOLICO DOC Generici  mg compresse  COMPOSIZIONE QUALITATIVA E QUANTITATIVA Ogni compressa contiene acido folico equivalente a  mg  ACIDO FOLICO DOC Generici Confezioni disponibili  cpr  mcg  cpr  mg  cpr  mg  cpr  mcg  cpr  mg  cpr  mg   classf lug   Lacido folico e i folati sono vitamine del gruppo B sono infatti indicati come vitamina B Anche se frequentente sono usati come sinonimi  A cosa serve Acido Folico DOC Generici acido folico Perchè si usa Per il trattamento dellania megaloblastica da carenza di folati dovuta a malnutrizione  Codice Ministeriale Principio attivoAcido Folico Codice ATCwbrBBB FasciaA Prezzo Rimborso ProduttoreDoc Generici Srlwbr DENOMINAZIONE ACIDO FOLICO DOC GENERICI  MG COMPRESSE CATEGORIA FARMACOTERAPEUTICA Vitamina B e acido folico PRINCIPI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atenololo DOC Generici  compressa AtenololoBetabloccanti selettivi a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  Atenololo è un farmaco betabloccante efficace e complessivamente ben  Foglio illustrativo informazioni per il paziente ATENOLOLO DOC Generici  mg compresse Medicinale Equivalente Legga attentamente questo foglio primawbr wbr  classf feb   Atenololo Doc  Atenololo  A cosa serve Ipertensione arteriosa  del medicinale Indice ATENOLOLO DOC Generici  mg Compresse  Un medicinale equivalente o generico è in parole  I medicinali generici e quelli equivalenti sono la  Anche la sostanza attiva latenololo è stata scelta a ATENOL   Atenololo  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni  Particolare cautela richiede la somministrazione di ATENOLOLO DOC Generici a pazienti in trattamento con farmaci antiaritmici appartenenti alla I es la  AMLODIPINA DOC Generici Confezioni  ATENOLOLO CLORTALIDONE DOC Generici Confezioni  CANDESARTAN E IDROCLOROTIAZIDE DOC Generici Comprare Tenormin Generico  Accettiamo Visa  MasterCard  Amex  Consegna Garantita  Servizio Clienti   Grandi Sconti LattosioContiene lattosio ProduttoreDoc Generici Srl SSNConcedibile esente RicettaRR  ricetta ripetibile art DL  Tipo prodottoFarmaco generico</t>
+  </si>
+  <si>
+    <t>Acido Folico DOC Generici  compressa Acido FolicoAntianici a cosa serve  Assumere Acido Folico DOC Generici durante la gravidanza e lallattamento Acido folico in gravidanza perché è così importante Gli alimenti che ne contengono di più Quanto acido folico assumere e per quanto tpo Gravidanza Nel caso di comprovato deficit accertato di folati  mg al giorno fino al termine della gravidanza Bambini ACIDO FOLICO DOC Generici non deve  Gravidanza Nel caso di comprovato deficit accertato di folati  mg al giorno fino al  Popolazione pediatrica ACIDO FOLICO DOC Generici non deve essere  Prodotti farmaceutici a base di ACIDO FOLICO con foglietti illustrativi e schede tecniche di tutti i  Prevenzione primaria dei difetti del tubo neurale del nascituro in donne fertili che stanno pianificando la gravidanza  DOC GENERICI Srl   classf lug   Lacido folico e i folati sono vitamine del gruppo B sono infatti indicati  una donna in età fertile che preveda o non escluda una gravidanza   classfPassa a a classfl hrefhttpswwwbugiardinonetAcidoFolicodocGenericihtmlgravidanzaallattamento pingurlsatampsourcewebamprctjampurlhttpswwwbugiardinonetAcidoFolicodocGenericihtmlgravidanzaallattamentoampvedahUKEwirOEiLlAhVYoKHRGAPQygQwDnoECAkQBgbGravidanzab e allattamentoa  Gravidanza Non vi sono rischi noti legati alluso di acido folico durante la gravidanza integratori di acido folico hanno   classfPassa a a classfl hrefhttpswwwdicaitprontuariofarmacifogliettoillustrativoacidofolicodocgenericiaspgravidanza pingurlsatampsourcewebamprctjampurlhttpswwwdicaitprontuariofarmacifogliettoillustrativoacidofolicodocgenericiaspgravidanzaampvedahUKEwirOEiLlAhVYoKHRGAPQygQwDoECAgQBwbGRAVIDANZAb E ALLATTAMENTOa  E possibile prendere Acido Folico DOC Generici acido folico durante la gravidanza e lallattamento ACIDO FOLICO DOC GENERICI  MG COMPRESSE  raccomandate dosi inferiori ma e indicato nelle donne in stato di gravidanza con carenza di acido folico   classf apr   Tra i primi importanti consigli che una donna incinta o in cerca di una gravidanza riceve si trova lassunzione di acido folico La raccomanda il </t>
+  </si>
+  <si>
+    <t>DOC GENERICI Srl Principio attivo ACIDO FOLICO   prezzo indicativo  Antiepilettici  qualora vengano somministrati integratori di acido folico per il  Acido Folico DOC Generici  compressa Acido FolicoAntianici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati   classf mar   Acido Folico Doc cpr mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Doc Generici Srl Costo e a  Acido Folico DOC Generici è un farmaco a base di acido folico appartenente al  CLASSE A RICETTA medicinale soggetto a prescrizione medica PREZZO Codice Ministeriale Principio attivoAcido Folico Codice ATCwbrBBB FasciaA Prezzo Rimborso ProduttoreDoc Generici Srlwbr ACIDO FOLICO DOC Generici  mg compresse  COMPOSIZIONE QUALITATIVA E QUANTITATIVA Ogni compressa contiene acido folico equivalente a  mg  ACIDO FOLICO DOC Generici Confezioni disponibili  cpr  mcg  cpr  mg  cpr  mg  cpr  mcg  cpr  mg  cpr  mg  Farmaco ACIDO FOLICO DOC  COMPRESSE MG minsan  presente su  Prezzo   ACIDO FOLICO DOC GENERICI  MG COMPRESSE  Trova prezzi di acido folico doc  compresse mg confronta offerte di acido folico doc cpr mg compra online sicuro e affidabile  classf ago    del  luglio  Medicinale ACIDO FOLICO DOC  Classe di rimborsabilita A Prezzo ex factory IVA esclusa   Prezzo al </t>
+  </si>
+  <si>
+    <t>Acido Folico DOC Generici  compressa Acido FolicoAntianici a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati  DOC GENERICI Srl  ACIDO FOLICO DOC CPR MG  Per il trattamento dellwbrania megaloblastica da carenza di folati dovuta a malnutrizione a sindromi wbr ACIDO FOLICO DOC CPR MG DOC GENERICI Srl Principio attivo ACIDO FOLICO   prezzo indicativo Farmacia online italianaoltre  prodotti  ACIDO FOLICO DOC Generici  mg compresse  COMPOSIZIONE QUALITATIVA E QUANTITATIVA Ogni compressa contiene acido folico equivalente a  mg   classf lug   Lacido folico e i folati sono vitamine del gruppo B sono infatti indicati come vitamina B Anche se frequentente sono usati come sinonimi  A cosa serve Acido Folico DOC Generici acido folico Perchè si usa Per il trattamento dellania megaloblastica da carenza di folati dovuta a malnutrizione  FOLINA   Acido folico  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni  Codice Ministeriale Principio attivoAcido Folico Codice ATCwbrBBB FasciaA Prezzo Rimborso ProduttoreDoc Generici Srlwbr DENOMINAZIONE ACIDO FOLICO DOC GENERICI  MG COMPRESSE CATEGORIA FARMACOTERAPEUTICA Vitamina B e acido folico PRINCIPI   classf mar   Acido Folico Doc cpr mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Doc Generici Srl Costo e a </t>
+  </si>
+  <si>
+    <t>LE AREE TERAPEUTICHE E I PRODOTTI Scopri lampia gamma dei prodotti DOC Generici nelle diverse aree terapeutiche Schede tecniche e listini prezzi per  SILDENAFIL DOC Confezioni disponibili  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv con  DOC Generici è unazienda italiana che nasce nel  e cresce  Per il paziente utilizzare un generico significa avvalersi di farmaci di pari efficacia e   classf giu   Il primo colpo lha piazzato Doc nessun dubbio Riducendo del  il prezzo del sildenafil equivalente nella formulazione più venduta  mg   classf giu   Sildenafil Doc cpr Riv mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Doc Generici Srl Costo e a  Tutte le offerte online per DOC Generici Tegradoc compresse in una sola pagina Confronta recensioni e opinioni utenti  Caratteristiche e schede tecniche  SILDENAFIL DOC Generics è indicato negli uomini adulti con disfunzione erettilewbr ovvero con incapacità a  DOC GENERICI Srl Principio  prezzo indicativowbr  classf giu   Unazienda italiana Doc Generici ha pesantente tagliato il prezzo del sildenafil del  per la confezione da quattro compresse da  mg  Tadalafil Doc Generici  compressa rivestita TadalafilDisfunzione erettile a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati   classf giu   Titolare AIC DOC Generici Srl via Turati n   in base  classe di rimborsabilita A prezzo ex factory IVA esclusa   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Folico DOC Generici è un farmaco a base del principio attivo Acido Folico appartenente alla categoria degli Antianici e nello specifico Acido folico e  DOC GENERICI Srl  ACIDO FOLICO DOC CPR MG  Per il trattamento dellwbrania megaloblastica da carenza di folati dovuta a malnutrizione a sindromi wbr DOC GENERICI Srl  Per la profilassi del deficit di folati indotto da farmaci causato per espio dalla somministrazione di fenitoina  Antiepilettici  qualora vengano somministrati integratori di acido folico per il trattamento della carenza di  ACIDO FOLICO DOC Generici  mg compresse   Per la profilassi del deficit di folati indotto da farmaci causato per es dalla somministrazione di fenitoina  Elenco dei farmaci che iniziano per A  Acido Folico DOC Generici è un farmaco a base di acido folico appartenente al gruppo terapeutico Antianici Principio attivoAcido Folico  ACIDO FOLICO DOC GENERICI  MG COMPRESSE  In caso di deficit di folato indotto da farmaci  mg al giorno per  mesi  ACIDO FOLICO DOC GENERICI  MG COMPRESSE  Per la profilassi del deficit di folati indotto da farmaci causato per espio dalla somministrazione diwbr wbr  classf mar   In caso di deficit di folato indotto da farmaci  mg al giorno per  mesi  Bambini ACIDO FOLICO DOC Generici non deve essere utilizzato in   classf ago    del  luglio  Medicinale ACIDO FOLICO DOC GENERICI  Tutela brevettuale Il titolare dellAIC del farmaco generico e  FOLINA   Acido folico  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf giu   Ambroxol  Farmaco generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti  Fluibron è indicato nel trattamento delle turbe della secrezione nelle affezioni broncopolmonari acute e croniche PREZZO INDICATIVO   Fluibron Aerosol  Flaconcini mg ml Fluibron Aerosol   Prezzo al pubblico   Prezzo Farmaè  Fluibron Sciroppo ml mgml Prezzo al  Lenirit Cra Dermatologica  Idrocortisone acetato  g Prezzo listino wbr  Risparmio    Prezzo    Aggiungi al carrello wbr  classf nov   generico ma è altrettanto evidente  doci dei dati IMS relativi ai prezzi  ratiopharm euro  costo unitario per fiala di Fluibron euro   Fluibron  Mg Ml Soluzione  il miglior prezzo in Farmaci da Banco è di   CHIESI FARMACEUTICI SpA Fluibron Aerosol  Flaconcini ml mg  ml Prezzo crescente IBN Savio Srl Secretil  Mg Ml Sciroppo Flacone Da  Ml Farmaco senza prescrizione  Tosse  Ambroxolo Spre farmacia Spre  FLUIBRON Flaconcini per Aerosol si usa in caso di secrezioni bronchiali Composizione Principio attivo Ambroxol cloridrato  mg Eccipienti Acido citricowbr wbr  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr</t>
+  </si>
+  <si>
+    <t>Le migliori offerte per Ibuprofene Generico in Farmaci da Banco sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia DOC GENERICI Srl  Ibuprofene come altri FANS non deve essere usato in associazione con   acido acetilsalicilico la somministrazione concomitante di  Ibuprofene  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Ibuprofene Sandoz si usa nel trattamento di dolori di varia origine e natura Ibuprofene DOC Generici è un farmaco a base di ibuprofene appartenente al  riduzione della qualità di vita in soggetti spesso giovani e costi economici Banca dati ultimo aggiornamento  novbre  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  Ibuprofene è uno dei farmaci antinfiammatori non steroidei FANS  Ibuprofene Mylan  Compresse mg Prezzo al pubblico   Prezzo Farmaè   Disponibilità Disponibile Qtà   Aggiungi al carrello OR È indicato nel trattamento di altre forme di reumatismo abarticolare IBUPROFENE DOC Generici è indicato nelle patologie periarticolari come la wbrspalla wbr oppure in  rate da   senza interessi con Vedi info gt Ti piacerebbe essere informato se il prezzo dovesse diminuire Inserisci il tuo indirizzo ail per </t>
+  </si>
+  <si>
+    <t>Abiostil Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Abiostil Ung Rinologico g  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Deca Laboratorio Chimico Srl ABIOSTIL UNG RINOLOGICO G  prezzo indicativo  ABIOSTIL non deve essere usato in concomitanza con altri prodotti medicinali o cosmetici contenenti  Le migliori offerte per Unguento Nasale in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Chi cerca  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  ABIOSTIL UNGUENTO NASALE TUBO  G Prezzo indicativo   Produttore DECA LABORATORIO CHIMICO Srl Codice AIC  Condizione  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Trova prezzi di abiostil unguento rinologico g confronta offerte di abiostil ung rinologico g compra online sicuro e affidabile Abiostil pomata  g neomicina  eucaliptolo  pino silvestre essenza  canfora   CLASSE C RICETTA medicinale soggetto a prescrizione medica PREZZO  classf ago   Per applicazione topica Modo di somministrazione Per adulti e bambini di età superiore ai  mesi Applicare il prodotto nella quantità </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prezzo Speciale su Clarityn  Compresse mg  Marco Viti  Cra g  Prezzo Speciale su Mistick Antistaminico Marco Viti  Cra g  Cetirizina  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Antistaminico Compresse il miglior prezzo in Farmaci da Banco è di   Risultati in altre  Cetirizina Eg farmaco generico antistaminico mg  Compresse Combatti i fastidiosi sintomi delle allergie con i prodotti giusti scopri la nostra selezione di farmaci da banco antistaminici colliri spray e compresse Abbiamo riservato per te numerose offerte per antistaminici in compresse e cre Scopri come ricevere i tuoi prodotti con spedizione in  h Trattamento sintomatico delle riniti e delle congiuntiviti stagionali della rinite cronica allergica e dellorticaria di origine allergica PREZZO INDICATIVO  wbrwbr PREZZO INDICATIVO    PREZZO INDICATIVO    DESLORATADINA DOC Generici è indicato per il sollievo dai sintomi associati a  rinite  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Prezzo di listino   Prezzo Amico   Aggiungi Zirtec Antistaminico Rinite Allergica Stagionale  Mg  Compresse Rivestite Con Film  </t>
+  </si>
+  <si>
+    <t>Ibuprofene  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  Prezzo e informazioni farmaceutiche sul farmaco generico BRUFEN prodotto da ABBOTT SRL ed eventuali sue alternative Le migliori offerte per Ibuprofene Generico in Farmaci da Banco sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Ibuprofene DOC Generici  mg  bustine granulato effervescente  equivalenti di Ibuprofene DOC Generici a base di Ibuprofene sono Algopirindol Brufen  DOC GENERICI Srl Principio attivo IBUPROFENE   prezzo indicativo Farmacia online italianaoltre  prodotti dei migliori marchi Extra Sconto IBUPROFENE DOC Generici granulato è anche indicato come analgesico nel dolore di grado da lieve a moderato come dismenorrea mal di denti cefalea   classf feb   Citiamone alcuni Brufen Ibuprofene alter  Ibuprofene act Brufen Spidifen e Sinifev Vanno tutti usati dopo aver consultato un medico   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  Prima di comprare un nuovo farmaco dal nome attraente controlla nel tuo armadietto dei medicinali se lo possiedi già Preferisci i farmaci generici o equivalenti </t>
+  </si>
+  <si>
+    <t>AVAMYS SPRAY NAS D MCG Avamys è indicato negli adulti adolescenti e bambini  anni e oltre Avamys è indicato  PREZZO INDICATIVO   Avamys è indicato negli adulti adolescenti e bambini  anni e oltre Avamys è indicato per il trattamento dei sintomi della rinite allergica   prezzo indicativo Farmacia  SPRAY NASALE SOSPENSIONE Presenza Lattosio No lattosio  Trova prezzi di avamys spray nasale d mcg confronta offerte di avamys spray nas d mcg compra online sicuro e affidabile Avamys Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Le migliori offerte per Spray Nasali in Prodotti Salute sul primo comparatore italiano  Tutte le  Spray Nasali il miglior prezzo in Prodotti Salute è di   Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  Lapparizione nella farmacia di Avamys è stata una buona notizia per gli italiani che soffrono di rinite allergica I prezzi generici degli spray nasali Avamis  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Sezione dedicata alla vendita degli spray nasali antistaminici per le allergie Entra e scopri quali offerte abbiamo riservato per te Pagamenti sicuri AVVERTENZE Effetti sistici dei corticosteroidi gli effetti sistici di un corticosteroide somministrato per via nasale possono verificarsi part</t>
+  </si>
+  <si>
+    <t>BENZAC GEL G  Disinfezione della cute Svolge attività antisettica anche nei confronti del P acnes PREZZO INDICATIVO   GALDERMA ITALIA  Le migliori offerte per Benzac Gel  in Farmaci da Banco sul primo comparatore italiano  Benzac Gel  il miglior prezzo in Farmaci da Banco è di   Generico Benzac noto anche come il perossido di benzoile è un gel utilizzato per il trattamento di acne  Confezione Prezzo Per pillola Risparmio Risparmio   classf ott   Foglietto Illustrativo Benzac Gel Cosè A cosa Serve Funziona Fa Male Uso Benefici ed Efficacia Ingredienti Opinioni Prezzo e Offerte Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa   classf ott   Quali sono le differenze tra la Benzac cra e la Benzac Gel Scopriamo insie a cosa servono il prezzo e cosa dicono le opinioni Info su Farmacia Onlain Risultati Da  Motori di Ricerca  benzac generico prezzo benzac  serve la prescrizione Simple Eating for Great Health  OMTimeswbr wbr Isotretinoina Cra  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Esiste una versione  leggera BENZAC ac   in gel  In ogni caso il prezzo dei due farmaci considerati mi sbra pressappoco lo stesso  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr</t>
+  </si>
+  <si>
+    <t>FUCIDIN CREMA G MG  G Trattamento delle infezioni cutanee causate da batteri sensibili allacido fusidico PREZZO INDICATIVO   prezzo indicativo  minime in quanto lassorbimento sistico di Fucidin topico è trascurabile   g di cra contiene principio attivo acido fusidico mg  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa   classf gen   Fucidin Cra g mgg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Leo Pharma As Costo e a cosa  FUCIDIN  Acido Fusidico  Scheda informativa indicazioni efficacia modo dwbruso avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Trova prezzi di fucidin cra g mgg confronta offerte di fucidin cra g mgg compra online sicuro e affidabile Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare  Giorno per giorno il prezzo della diffidenza  classf feb   Lunica differenza con i prodotti originali è il prezzo più vantaggioso Farmaci generici equivalenti a quelli di marca ma a minor prezzo Fucidin H  cra Acido Fusidico  IdrocortisoneCorticosteroidi a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati   classf lug   Fucidin cra è un farmaco a base del principio attivo di acido fusidico appartenente  Prezzo Fucidin  gm in una farmacia online  farmaco quando il fucidin generico in italia Ufficio cosa acquistare fucidin online italia</t>
+  </si>
+  <si>
+    <t>Acetilcisteina  Mg il miglior prezzo in Farmaci da Banco è di   Risultati in altre  ZAMBON ITALIA Srl Fluimucil Mucolitico Sciroppo mgml  classf feb   Quali sono i farmaci equivalenti al fluimucil  Il prezzo di vendita consigliato per tutti i rivenditori farmaceutici autorizzati è   mentre i   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  FLUIMUCIL MUCOL CPR OROMG Trattamento delle affezioni respiratorie caratterizzate da ipersecrezione densa e vischiosa PREZZO INDICATIVO    classf gen   Fluimucil cpr Eff mg  Prezzo bugiardino e foglio illustrativo indicazioni e controindicazioni prodotto di Zambon Italia Srl Costo e a cosa  Fluimucil Mucolitico  Buste mg Fluimucil Mucolitico  Prezzo al pubblico   Prezzo Farmaè  Fluimucil Mucolitico  Buste Orali mg Prezzo al   classf nov   Fluimucil Mucolitico Acetilcisteina Bustine e Sciroppo Scopri il Prezzo e Leggi Posologia e Controindicazioni del Farmaco Fluimucil mucolitico  cpr orod  mg pl COTC Fluimucil  Fluimucil mucolitico scir  mg ml pl COTC Fluimucil  Acetilcisteina Doc Generici Fluimucil Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Acetilcisteina DOC Generici  mg polvere per soluzione orale  bustine  AwbrS Acetilcisteina Hexal AG Acetilcisteina ratiopharm Fluimucil Frobucil wbr</t>
+  </si>
+  <si>
+    <t>Ibuprofene  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Le migliori offerte per Ibuprofene Generico in Farmaci da Banco sul primo  DOC Generici Ibuprofene  compresse rivestite mg  Prezzo crescente DOC GENERICI Srl Principio attivo IBUPROFENE   prezzo indicativo Farmacia online italianaoltre  prodotti dei migliori marchi Extra Sconto Ibuprofene DOC Generici è un farmaco a base di ibuprofene appartenente al  CLASSE A RICETTA medicinale soggetto a prescrizione medica PREZZO  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  È indicato nel trattamento di altre forme di reumatismo abarticolare IBUPROFENE DOC Generici è indicato nelle patologie periarticolari come la wbrspalla wbr Ibuprofene Sandoz  mg Antidolorifico  Compresse Rivestite Prezzo listino   Risparmio    Prezzo    Aggiungi al carrello  Brufen  mg Ibuprofene Compresse e Granulato Effervescente Posologia Indicazioni Effetti Collaterali e Prezzo  Leggi il Bugiardino del Farmaco Prezzo e informazioni farmaceutiche sul farmaco generico BRUFEN prodotto da ABBOTT SRL ed eventuali sue alternative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluibron Aerosol  Flaconcini mg ml Fluibron Aerosol   Prezzo Farmaè   Disponibilità  Fluibron Sciroppo ml mgml Prezzo al pubblico  FLUIBRON Flaconcini per Aerosol si usa in caso di secrezioni bronchiali Composizione Principio attivo Ambroxol cloridrato  mg Eccipienti Acido citricowbr wbr Prezzo listino    Prezzo listino    Durante linalazione respiri normalmente poiché la respirazione profonda di aerosol può provocare tosse Fluibron  Mg Ml Soluzione  il miglior prezzo in Farmaci da Banco è di   CHIESI FARMACEUTICI SpA Fluibron Aerosol  Flaconcini ml mg  ml Le migliori offerte per Fluibron Aerosol in Farmaci da Banco sul primo comparatore italiano  Fluibron Aerosol il miglior prezzo in Farmaci da Banco è di    classf nov   generico ma è altrettanto evidente  mgml  fiale aerosol  Prezzo Pubblico Suggerito Farmaci referenti di mercato Farmaci Equivalenti ratiopharm  ratiopharm euro  costo unitario per fiala di Fluibron euro    classf giu   Ambroxol  Farmaco generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti  Miglior Prezzo Trovato   Negozi sicuri e verificati Fluibron aerosol  flaconi mg ml Confronta  offerte Trova prezzi di fluibron aerosol  flaconi  Fluibron è indicato nel trattamento delle turbe della secrezione nelle affezioni broncopolmonari acute e croniche PREZZO INDICATIVO   FLUIBRON contiene ambroxolo un principio attivo appartenente alla classe dei mucolitici che agisce rendendo il muco più fluido e quindi più facilmente </t>
+  </si>
+  <si>
+    <t>FLIXONASE SPRAY NAS D MCG  PREZZO INDICATIVO    Nasofan  mcg spray nasale sospensione è indicato per la profilassi e il  prezzo indicativo  SPRAY NASALE SOSPENSIONE Presenza Lattosio No lattosio  Polipi nasali FLIXONASE è indicato per il trattamento sintomatico delle forme lievi e moderate di poliposi nasale associata a sintomi di ostruzione nasalewbrwbr Trova prezzi di flixonase spray nasale d mcg confronta offerte di flixonase spray nas d mcg compra online sicuro e affidabile  classf gen   Flixonase Spray Nas d mcg  Prezzo bugiardino e foglio illustrativo  FLIXONASE va somministrato esclusivamente per via nasale Flixonase Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Le migliori offerte per Spray Nasali in Prodotti Salute sul primo comparatore italiano  Tutte le  Spray Nasali il miglior prezzo in Prodotti Salute è di   Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  Stai cercando FLIXONASE SPRAY NASD MCG  Entra adesso in Pazientiwbrit e trova il foglietto illustrativo bugiardino del farmaco FLIXONASE SPRAY wbr</t>
+  </si>
+  <si>
+    <t>FLUIFORT SCIR ML MISURIN Mucolitico fluidificante nelle affezioni dellapparato respiratorio acute e croniche PREZZO INDICATIVO   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr FLUIFORT   Carbocisteina  Scheda informativa indicazioni efficacia modo dwbruso avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Mucolitici su Mypersonaltrainerit Tutti gli Articoli i Video e gli Approfondimenti sul ta Mucolitici Leggi i consigli dei nostri esperti Banca dati ultimo aggiornamento  novbre  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un  Fluifort bustine granulato è indicato come fluidificante nelle affezioni dellwbrapparato respiratorio acute e croniche Vasto assortimento di farmaci da banco su wbr Fluifort e Fluimucil sono due farmaci di automedicazione appartenenti alla categoria mucolitici per la tosse grassa Scopriamo quali sono le loro differenze Le indicazioni di Fluifort e Bisolvon a base di carbocisteina ed Ambroxolo sono  equivalente come la carbocisteina essendoci molti generici in commercio I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui br  classf apr    con marchi affermati sul mercato per i quali è scaduta la tutela del brevetto wbrcosì detti farmaci generici  Fluifort  Carbocisteina Coopwbr</t>
+  </si>
+  <si>
+    <t>I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Leventuale prescrizione di uno specifico medicinale tra quelli  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che devono   classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli  Ci sono differenze tra farmaci generici e di marca  classf giu   Dal punto di vista farmacologico non esiste alcuna differenza tra un farmaco di marca e un farmaco equivalente la cui pari efficacia viene   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf giu   E se i farmaci generici siano meno efficaci di quelli di marca  dei farmacistiQuali sono le differenze tra un farmaco generico e un equivalente   classf mar   Detto ciò però cè da precisare che il farmaco generico non è   di principio attivo che compone un medicinale di una marca che non è più coperta  Le differenze possono riguardare sia la composizione che la tecnologia  La differenza del   per definire la bioequivalenza tra farmaco di marca e generico è stata scelta sulla base di dati oggettivi Vero Lintervallo del     classf giu   Per appurare la stretta somiglianza tra farmaco equivalente e  Non è pertanto dalla differenza di qualità che si sviluppa il risparmio di prezzo  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  dal medico se tra i due prodotti esiste una differenza di prezzo dovrà pagarla di </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene  generici hanno lo stesso effetto di quelli originali da cui provengono  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf giu   Se la biodisponibilità del farmaco equivalente ha gli stessi valori delloriginale allora si può affermare che i due farmaci sono bioequivalenti  classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o  Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere  classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  Equivalente e farmaco originale spesso contengono eccipienti differenti Questowbr wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  I farmaci equivalenti sono farmaci a tutti gli effetti e possono essere messi in  degli equivalenti è ritardata rispetto agli altri Paesi in cui la copertura brevettuale ha   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli  per il cui trattamento sono disponibili più medicinali equivalenti  La preoccupazione dei pazienti comunque è una sola i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  Guida agli esami   classf dic   Che domande certo che sono diversi cambia il nome cambia lazienda  Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o   classf giu   Sono uguali agli originali No I medicinali equivalenti non sono identici agli originali possono avere per espio una differente  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo  Ovviamente agli stessi dosaggi e con le precauzioni previste per la   classf giu   La verità sui farmaci generici  risposte alle più comuni domande  i medicinali equivalenti non sono identici agli originator perché  Per determinare la stretta somiglianza tra farmaco equivalente e originale viene preso in   classf mar   Il farmaco generico o equivalente è un medicinale che ha al  Per decidere se un farmaco generico può sostituire loriginale viene  attivi sono gli stessi così come sono uguali le controindicazioni e gli effetti collaterali  classf giu   Spieghiamoci meglioFarmaco originale o genericoI farmaci sono composti da principi attivi ed eccipientiPrincipi attivisono sostanze capaci di   classf nov   I farmaci equivalenti eo generici  sono quei medicinali capaci cioè di  attivo del tutto simile a quello del prodotto originale il cui brevetto è scaduto  Si tratta infatti di farmaci che devono rispondere agli stessi criteri di </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Il principio attivo è lo stesso del prodotto di marca dal quale proviene e le  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che  potrebbe dare una scarsa efficacia dei risultati inattesi o addirittura avversi  classf dic   Può anche indicare a fianco del principio attivo il nome di un farmaco specifico wbrdi marca o con nome generico Per un paziente già in terapia wbr  classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o   classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma   classf giu   Farmaci generici meno efficaciSpesso serpeggia lidea che il farmaco generico sia meno efficace di quello di marca o addirittura pericoloso  classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio  di principio attivo che compone un medicinale di una marca che non è  Il farmaco generico o meglio equivalente Legge  è un farmaco a base  Il farmaco equivalente o generico è sicuro come il farmaco di marca Se si effettuano verifiche di biodisponibilità su lotti diversi dello stesso farmaco wbrdi marca o genericotra diversi soggetti trattati col medesimo farmaco o nello wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf mag   La differenza linguistica alla base della diffidenza  La definizione lascia poco spazio alle interpretazioni un farmaco equivalente è un medicinale che ha la  Negri di Milano Tra le ragioni per la mancata adozione dei generici cè  Benewbr la mia risposta è sì e lo dimostra il complesso e rigoroso iter che wbr  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  I farmaci equivalenti contengono lo stesso principio attivo e anche nella stessa quantità  degli organi competenti è effettuata da esperti tra cui medici farmacisti e ricercatori  Qual è la differenza fra farmaci equivalenti e farmaci generici  classf mar   Ci sono differenze tra farmaci generici e di marca Chi sostiene che  I farmaci generici in realtà si chiamano farmaci equivalenti Questo   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf giu   Per appurare la stretta somiglianza tra farmaco equivalente e originator vengono realizzati  dal farmacista in tal caso la differenza fra il prezzo del medicinale prescritto e quello del generico corrispondente sarà a suo carico La differenza del   per definire la bioequivalenza tra farmaco di marca e  prove che generici e specialità siano equivalenti dal punto di vista clinico Ci sono differenze tra i farmaci generici e i farmaci di riferimento i cosiddetti wbrfarmaci di marca  Qual è la differenza tra farmaci generici e farmaci equivalentiwbrwbrwbr  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio interno la  Le differenze possono riguardare sia la composizione che la tecnologia  nel medicinale si diffonde nel corpo e quindi inizia la sua efficacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  Dal punto di vista farmacologico non esiste alcuna differenza tra un farmaco di marca e   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli  Lwbreventuale prescrizione di uno specifico medicinale tra quelli wbr  classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  del prodotto non vi è nessuna differenza e le regole si applicano a tutti   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco  Il farmaco generico altro non è che una copia di quello di marca più   classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli  Ci sono differenze tra farmaci generici e di marca  classf giu   Per appurare la stretta somiglianza tra farmaco equivalente e  Non è pertanto dalla differenza di qualità che si sviluppa il risparmio di prezzo   classf giu   Dal punto di vista farmacologico non esiste alcuna differenza tra un farmaco di marca e un farmaco equivalente la cui pari efficacia viene   classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr La differenza del   per definire la bioequivalenza tra farmaco di marca e  E possibile sostituire il farmaco di marca col generico anche se non hanno le   classf mar   La biodisponibilità tra due farmaci è la disponibilità del principio attivo  non solo con le differenze individuali ma anche con le differenze di </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mag   Il  e stato un anno turbolento anche per i produttori di farmaci generici e non solo per le aziende che puntano ai farmaci di marca  classf giu   I farmaci equivalenti eo generici sono quei medicinali capaci cioè di determinare nellindividuo una concentrazione e un comportamento del  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr  classf dic   A determinare la corrispondenza tra i farmaci generici e quelli  per valutare lwbreffettiva equivalenza tra i vari generici di diverse marchewbr  classf apr   Il dato di Assogenerici per il  Da noi usa gli equivalenti solo il  delle popolazione la media europea supera il  E in India sono  Su Farmaci Generici it troverete la più completa lista di siti pagine e risorse utili del mondo dei farmaci generici per essere spre informati e aggiornati con le  Farmaci originali e farmaci equivalenti quali scegliere  I farmaci generici infatti possono   Novbre   La campagna di informazione nazionale sui farmaci equivalenti approda nella Regione Marche a renderlo noto un comunicato in cui si </t>
+  </si>
+  <si>
+    <t>I farmaci equivalenti sono farmaci a tutti gli effetti e possono essere messi in commercio quando la specialità medicinale di marca non è più coperta da brevetto  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr  classf dic   Che domande certo che sono diversi cambia il nome cambia lazienda produttrice cambia la confezione talvolta è diverso anche laspetto  classf giu   Dal punto di vista farmacologico non esiste alcuna differenza tra un farmaco di marca e un farmaco equivalente la cui pari efficacia viene   classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli rispetto a quelli griffati Gli esperti ci spiegano perché La differenza del   per definire la bioequivalenza tra farmaco di marca e  E possibile sostituire il farmaco di marca col generico anche se non hanno le  Soluzioni per la definizione LOEUNFARMACONONDIMARCA  Cruciverba e parole crociate  Sinonimo  classf giu   Il farmaco generico altro non è che una copia di quello di marca più conosciutoIl farmaco griffato è presente sul mercato da molti anni e il   classf giu   È un medicinale che contiene lo stesso principio attivo e nella stessa concentrazione di un farmaco di marca non più coperto da brevetto   classf gen   Non è vero che gli eccipienti ne riducano la funzionalità terapeutica Il farmaco generico è uguale a quello di marca e il suo comportamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qual è allora la differenza tra farmaco di marca e farmaco equivalente  generici o equivalenti quando rispetto alla specialità medicinale o farmaco di marca   classf mag   La differenza linguistica alla base della diffidenza  poco spazio alle interpretazioni un farmaco equivalente è un medicinale che ha la stessa   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  Qual è la differenza fra farmaci equivalenti e farmaci generici I medicinali generici e quelli equivalenti sono esattamente la stessa cosa Il termine wbrmedicinale wbr  classf mar   Ci sono differenze tra farmaci generici e di marca Chi sostiene che  I farmaci generici in realtà si chiamano farmaci equivalenti Questo   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  Qualsiasi differenza nelluso di eccipienti utilizzati è però comunque   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le  Non è pertanto dalla differenza di qualità che si sviluppa il risparmio di  del medicinale prescritto e quello del generico corrispondente sarà a suo carico  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio interno la stessa quantità di principio attivo che compone un medicinale  La differenza del   per definire la bioequivalenza tra farmaco di marca e  prove che generici e specialità siano equivalenti dal punto di vista clinico  classf mar   La differenza di prezzo può essere verificata per i farmaci rimborsati dal  Il farmaco equivalente è un medicinale che contiene la stessa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr  generici hanno lo stesso effetto di quelli originali da cui provengono  dare una scarsa efficacia dei risultati inattesi o addirittura avversiwbr  classf dic   Possiamo liberamente scegliere luno o laltro senza nessuna  Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf giu   I medicinali equivalenti non sono identici agli originali possono avere per espio una differente composizione in eccipienti o non essere   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un  dei farmaci secondo le procedure previste dalla normativa Ue  o allEMA un   classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio  dose degli originali e non causano effetti collaterali diversi o più gravi  classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un  la stretta somiglianza tra farmaco equivalente e originale viene preso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli  per il cui trattamento sono disponibili più medicinali equivalenti   classf giu   Molte sono le domande e i dubbi dei pazienti circa lutilizzo dei farmaci equivalenti Saranno sicuri Qual è la differenza con il farmaco  I farmaci equivalenti sono unalternativa terapeutica equivalente ai farmaci  gli operatori sanitari e i pazienti possono essere sicuri che qualsiasi farmaco   classf gen   Sono in vendita dal  costano meno e hanno lo stesso effetto dei loro fratelliwbr più famosi Eppure i farmaci equivalenti quelli che una volta wbr  classf giu   Dai medici di base unindicazione più che mai chiara anche per le vacanze  classf feb   Farmaci generici di che cosa si tratta Quali differenze hanno rispetto ai farmaci tradizionali Quando un farmaco può diventare generico I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo inferiore di almeno il  rispetto ai medicinali di riferimento come diretta   classf nov   IOEQUIVALGO I farmaci equivalenti sono identici agli altri farmaci per qualità  sono stati quindi già in precedenza valutati sicuri e autorizzati  Vi state chiedendo come funzionano esattamente e se sono affidabili e sicuri  I farmaci si definiscono generici o equivalenti rispetto ad un farmaco di   classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr  per il cui trattamento sono disponibili più medicinali equivalenti  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che wbr  classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma   classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli rispetto a quelli griffati  Ci sono differenze tra farmaci generici e di marca  Salute I farmaci biosimilari sono uguali a quelli biologici  classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono   classf giu   Sono uguali agli originali No I medicinali equivalenti non sono identici agli originali possono avere per espio una differente   classf nov   Da qualche anno in Italia è possibile acquistare i farmaci equivalenti o generici I farmaci equivalenti eo generici  sono quei medicinali  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo inferiore di almeno il  rispetto ai medicinali di riferimento come diretta  Che differenza cè tra un prodotto generico e uno griffato scopri le varie differenze tra i farmaci griffati con quelli generici  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio  attivi sono gli stessi così come sono uguali le controindicazioni e gli </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  equivalenti è ritardata rispetto agli altri Paesi in cui la copertura brevettuale ha   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli  La preoccupazione dei pazienti comunque è una sola i medicinali generici hanno lo stesso effetto di quelli originali da cui  Guida agli esami   classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono   classf giu   Sono uguali agli originali No I medicinali equivalenti non sono identici agli originali possono avere  Se la biodisponibilità del farmaco equivalente ha gli stessi valori delloriginale allora si può affermare che i due farmaci   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo  Ovviamente agli stessi dosaggi e con le precauzioni previste per la   classf giu   La verità sui farmaci generici  risposte alle più comuni domande  i medicinali equivalenti non sono identici agli originator perché  Per determinare la stretta somiglianza tra farmaco equivalente e originale viene preso in   classf mar   Per decidere se un farmaco generico può sostituire loriginale viene preso  così come sono uguali le controindicazioni e gli effetti collaterali  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf nov   I farmaci equivalenti eo generici  sono quei medicinali capaci cioè di  attivo del tutto simile a quello del prodotto originale il cui brevetto è scaduto  Si tratta infatti di farmaci che devono rispondere agli stessi criteri di </t>
+  </si>
+  <si>
+    <t>I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Leventuale prescrizione di uno specifico medicinale tra quelli equivalenti deve  generici hanno lo stesso effetto di quelli originali da cui provengono  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf mar   Ci sono differenze tra farmaci generici e di marca  chimicamente equivalente alloriginale potrebbe non funzionare allo stesso modo Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf giu   I medicinali equivalenti non sono identici agli originali possono avere per espio  Per appurare la stretta somiglianza tra farmaco equivalente e originator vengono  dal farmacista in tal caso la differenza fra il prezzo del medicinale prescritto e quello del generico corrispondente sarà a suo carico  classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr La differenza del   per definire la bioequivalenza tra farmaco di marca e generico è stata scelta sulla base di dati oggettivi Vero Lintervallo del     classf dic   Allora non vi sorge il dubbio che praticamente lunica differenza tra i farmaci originali e quelli generici è solo ed esclusivamente il nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Unaltra specialità farmaceutica contenente il principio attivo brevettato non può   classf mar   Farmaco generico si o no Si sa cè chi preferisce le griffe anche nel farmaco Ma parlando di efficacia quanto ne sappiamo realmente  classf dic   Una cosa deve interessarci che lefficacia non cambia perché leffetto di un farmaco equivalente  preferiamo questo aggettivo  sui disturbi o   classf mag   I farmaci generici non funzionano Caro Beppe sono un medico di base che non ti legge ma sa tutto di Italians tramite mio marito Joe Slomp   classf gen   La fatidica domanda di cui sopra vuole il generico NON sorge spontanea Il farmacista è OBBLIGATO per legge a proporre al paziente il   classf mar   Le indicazioni sono le stesse così come la forma farmaceutica Detto ciò però cwbrè da precisare che il farmaco generico non è uguale identico wbr  classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli rispetto a quelli griffati Gli esperti ci spiegano perché  classf apr   equivalente o no basta la parolaovvero è simile e sono equivalenti quei farmaci a cui è scaduto il brevetto originale a diventare generici   classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr  i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  Il farmaco generico infatti è sottoposto a studi di farmacocinetica  dare una scarsa efficacia dei risultati inattesi o addirittura avversiwbr  classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  attivo il nome di un farmaco specifico di marca o con nome generico  classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf giu   I medicinali equivalenti non sono identici agli originali possono avere per espio una differente composizione in eccipienti o non essere   classf mar   Il farmaco generico o equivalente è un medicinale che ha al  cè da precisare che il farmaco generico non è uguale identico alloriginale  classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere I farmaci equivalenti sono molto più economici dei prodotti originali hanno un  dei farmaci secondo le procedure previste dalla normativa Ue  o allEMA un   classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un  la stretta somiglianza tra farmaco equivalente e originale viene preso </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Un nuovo endamento alla spending review allesame del  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che devono   classf feb   È vero che i generici possono avere fino al  di principio attivo in meno rispetto ai farmaci originali I generici devono avere la stessa  Dove sei Homepage gt Correlate gt Domande e risposte sui farmaci equivalenti  Risposte a cura del dottor Fiorenzo Corti medico di famiglia  classf dic   Che domande certo che sono diversi cambia il nome cambia lazienda produttrice cambia la confezione talvolta è diverso anche laspetto  classf gen   Il farmaco generico una breve riflessione Vi sarà certamente capitato entrando in farmacia di sentirvi rivolgere dal farmacista la fatidica   classf ago   Opinioni considerazioni e idee che volete condividere con gli altri  Fatto salvo il desiderio del paziente di usare il farmaco generico per il  Qual è la differenza fra farmaci equivalenti e farmaci generici  Si è constatato che il generico veniva frequentente percepito dallopinione pubblica come   classf giu   Che cosè un farmaco equivalente  È un medicinale che contiene lo stesso principio attivo e nella stessa concentrazione di un farmaco di   classf giu   Dallanalisi sui trend del mercato italiano nel primo trimestre del  erge che i farmaci generici equivalenti si aggiudicano il  per </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   La preoccupazione dei pazienti comunque è una sola i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf mar   Ci sono differenze tra farmaci generici e di marca  chimicamente equivalente alloriginale potrebbe non funzionare allo stesso modo  classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  Qualsiasi differenza nelluso di eccipienti utilizzati è però comunque   classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere  classf giu   I farmaci equivalenti sono molto più economici dei prodotti originali fino al   effettuata dal farmacista in tal caso la differenza fra il prezzo del medicinale prescritto e quello del generico corrispondente sarà a suo carico  classf giu   Il farmaco generico è uguale alloriginale Ni  farmacologico non esiste alcuna differenza tra un farmaco di marca e un farmaco equivalente </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr  i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  Il farmaco generico infatti è sottoposto a studi di farmacocinetica  dare una scarsa efficacia dei risultati inattesi o addirittura avversiwbr  classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  attivo il nome di un farmaco specifico di marca o con nome generico  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o   classf mar   Il farmaco generico o equivalente è un medicinale che ha al  cè da precisare che il farmaco generico non è uguale identico alloriginale  classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere  classf giu   I farmaci equivalenti sono molto più economici dei prodotti originali fino al   il cancro o lAids e per aumentare  se possibile  lofferta di farmaci  prescritto e quello del generico corrispondente sarà a suo carico Equivalente e farmaco originale spesso contengono eccipienti differenti  di registrazione dei farmaci secondo le procedure previste dalla normativa Ue  o allEMA un dossier che  Lequivalente può essere sostituito con un altro generico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui  per forma e colore della compressa o della capsula per forma e colore della </t>
+  </si>
+  <si>
+    <t>I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Risponde Silvio Garattini farmacologo e direttore dellIstituto di ricerche farmacologiche Mario Negri di Milano  classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono   classf giu   I farmaci equivalenti sono molto più economici dei prodotti originali fino al  Ciò costituisce unimportante risorsa per i cittadini e il Servizio   classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè motivo di snobbarli rispetto a quelli griffati Gli esperti ci spiegano perché  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di   classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma   classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr  classf nov   Uno dei punti critici è che la concentrazione e terapeuticamente utile del generico nel sangue può avere fluttuazioni anche importanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf giu   Molte sono le domande e i dubbi dei pazienti circa lutilizzo dei farmaci equivalenti Saranno sicuri Qual è la differenza con il farmaco   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr  per il cui trattamento sono disponibili più medicinali equivalenti  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che wbr  classf gen   Sono in vendita dal  costano meno e hanno lo stesso effetto dei loro fratelliwbr più famosi Eppure i farmaci equivalenti quelli che una volta wbr  classf giu   Dai medici di base unindicazione più che mai chiara anche per le vacanze  classf feb   Farmaci generici di che cosa si tratta Quali differenze hanno rispetto ai farmaci tradizionali Quando un farmaco può diventare generico I farmaci equivalenti sono unalternativa terapeutica equivalente ai farmaci  gli operatori sanitari e i pazienti possono essere sicuri che qualsiasi farmaco  Sono uguali ai farmaci di marca  Farmaci generici sono davvero efficaci  Vi state chiedendo come funzionano esattamente e se sono affidabili e sicuri  classf mar   Il farmaco generico è un farmaco non più coperto da brevetto che ha lo stesso principio attivo lo stesso dosaggio e lo stesso livello di qualità  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo inferiore di almeno il  rispetto ai medicinali di riferimento come diretta   classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci equivalenti sono farmaci a tutti gli effetti e possono essere messi in  equivalenti è ritardata rispetto agli altri Paesi in cui la copertura brevettuale ha   classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli  per il cui trattamento sono disponibili più medicinali equivalenti  La preoccupazione dei pazienti comunque è una sola i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  Guida agli esami   classf giu   Sono uguali agli originali No I medicinali equivalenti non sono identici agli originali possono avere per espio una differente   classf dic   Che domande certo che sono diversi cambia il nome cambia lazienda  Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo  Ovviamente agli stessi dosaggi e con le precauzioni previste per la   classf nov   I farmaci equivalenti eo generici  sono quei medicinali capaci cioè di  attivo del tutto simile a quello del prodotto originale il cui brevetto è scaduto  Si tratta infatti di farmaci che devono rispondere agli stessi criteri di   classf giu   Il farmaco generico è uguale alloriginale Ni Posto che come già detto il principio attivo è il medesimo i medicinali equivalenti non sono identici agli  Se i valori di biodisponibilità del farmaco equivalente sono uguali a   classf giu   Leggi anche Miglior farmaco per il mal di testa la verità dei farmacistiQuali sono le differenze tra un farmaco generico e un equivalente  classf mar   Il farmaco generico o equivalente è un medicinale che ha al  Detto ciò però cwbrè da precisare che il farmaco generico non è uguale identico alloriginale  attivi sono gli stessi così come sono uguali le controindicazioni e gli wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Risponde Silvio Garattini farmacologo e direttore dellIstituto di ricerche  Lwbreventuale prescrizione di uno specifico medicinale tra quelli equivalenti  generici hanno lo stesso effetto di quelli originali da cui provengonowbr  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf mar   Ci sono differenze tra farmaci generici e di marca  chimicamente equivalente alloriginale potrebbe non funzionare allo stesso modo  classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr  classf dic   Allora non vi sorge il dubbio che praticamente lunica differenza tra i farmaci originali e quelli generici è solo ed esclusivamente il nome Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf nov   Uno dei punti critici è che la concentrazione e terapeuticamente utile del generico nel sangue può avere fluttuazioni anche importanti  classf giu   Il farmaco generico è uguale alloriginale Ni Posto che  Lunica vera differenza tra farmaco di marca e farmaco equivalente Dal punto di </t>
+  </si>
+  <si>
+    <t>I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   La preoccupazione dei pazienti comunque è una sola i medicinali generici hanno lo stesso effetto di quelli originali da cui provengono  classf dic   Altrimenti non sarebbe attivo non è vero Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la preparazione farmaceutica sono   classf mar   In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o laulin e quindi le   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf giu   I farmaci equivalenti sono molto più economici dei prodotti originali fino al  prescritto e quello del generico corrispondente sarà a suo carico  classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco tutto quello che devi assolutamente sapere  classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di  Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui </t>
+  </si>
+  <si>
+    <t>I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf lug   Leventuale prescrizione di uno specifico medicinale tra quelli equivalenti deve  generici hanno lo stesso effetto di quelli originali da cui provengono  Il farmaco generico infatti è sottoposto a studi di farmacocinetica che   classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf mar   Ci sono differenze tra farmaci generici e di marca  chimicamente equivalente alloriginale potrebbe non funzionare allo stesso modo  classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf mar   Detto ciò però cè da precisare che il farmaco generico non è uguale identico allwbroriginale Le differenze possono riguardare sia la wbr Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf giu   I medicinali equivalenti non sono identici agli originali possono avere per espio  Per appurare la stretta somiglianza tra farmaco equivalente e originator vengono  dal farmacista in tal caso la differenza fra il prezzo del medicinale prescritto e quello del generico corrispondente sarà a suo carico La differenza del   per definire la bioequivalenza tra farmaco di marca e generico è stata scelta sulla base di dati oggettivi Vero Lintervallo del     classf dic   Allora non vi sorge il dubbio che praticamente lunica differenza tra i farmaci originali e quelli generici è solo ed esclusivamente il nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qual è allora la differenza tra farmaco di marca e farmaco equivalente  generici o equivalenti quando rispetto alla specialità medicinale o farmaco di marca   classf lug   Risponde Silvio Garattini farmacologo e direttore dellIstituto di ricerche  Lwbreventuale prescrizione di uno specifico medicinale tra quelli  i medicinali generici hanno lo stesso effetto di quelli originali da cui provengonowbr  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano   classf mar   Ci sono differenze tra farmaci generici e di marca  chimicamente equivalente alloriginale potrebbe non funzionare allo stesso modo  classf mar   Il farmaco generico o equivalente è un medicinale che ha al proprio  Detto ciò però cè da precisare che il farmaco generico non è uguale identico alloriginale Le differenze possono riguardare sia la composizione che la   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  per dimostrare che le differenze di biodisponibilità osservabili tra due   classf dic   Farmaco generico oppure loriginale cè qualche differenza ecco  Quale sarebbe la differenza tra un farmaco generico e uno originale Il farmaco originale è quello che per primo ha ottenuto il brevetto farmaceutico Il farmaco generico presenta gli stessi principi attivi del farmaco originale il cui   classf giu   Il farmaco generico è uguale alloriginale Ni Posto che  Lunica vera differenza tra farmaco di marca e farmaco equivalente Dal punto di   classf nov   Uno dei punti critici è che la concentrazione e terapeuticamente utile del generico nel sangue può avere fluttuazioni anche importanti</t>
+  </si>
+  <si>
+    <t>Farmaci Equivalenti I farmaci equivalenti di Betametasone DOC Generici a base di Betametasone Sodio Fosfato sono Bentelan Betametasone Eurogenerici  BENTELAN  Betametasone  Scheda informativa indicazioni efficacia modo dwbruso avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf ott   BENTELAN  MG ML SOLUZIONE INIETTABILE  FIALE  ML SIGMATAU INDUSTRIE FARMACEUTICHE RIUNITE S  AIC Prezzo e informazioni farmaceutiche sul farmaco generico BENTELAN prodotto da DEFIANTE FARMACEUTICA SA ed eventuali sue alternative  classf feb   Bentelan Compresse  Betametasone Fosfato Disodico  La terapia  ed informazioni particolari Farmaci equivalenti stesso principio attivo   classf feb   Bentelan Fiale  Betametasone Fosfato Disodico  Shock shock  ed informazioni particolari Farmaci equivalenti stesso principio attivo   classf dic   chiunque abbia ricevuto più di mg di prednisone al giorno o dose equivalentewbr per più di  settimane tutti i pazienti con segni clinici di wbr Il BENTELAN  mg ml soluzione iniettabile ed il BENTELAN  mg ml soluzione iniettabile non sostituiscono le altre forme di terapia dello shock e dellowbr wbr Bentelan è un farmaco a base di betametasone un principio attivo che appartiene alla classe dei corticosteroidi farmaci antinfiammatori steroidei Bentelan è </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Farganesse è un farmaco a base del principio attivo Prometazina Cloridrato  Farganesse Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf nov   Benzodiazepine e altri sonniferi Roipnol Halcion Dalmadorm Felison Minias Stilnox nott sonata farganesse nenia normison flunox  Trattamento sintomatico degli stati allergici a carico dellapparato respiratorio delle mucose e della cute Reazioni allergiche da farmaci e da trasfusioni di  NomeFarganesse  Iniet f mgml Codice Ministeriale Principio attivoPrometazina Cloridrato Codice ATCRAD FasciaA Prezzo  classf feb   Prometazina iniettabile Farganesse Avvertenze Antistaminico usato per lwbrorticaria grave espone a trombosi necrosi cancrena se iniettato in wbr Per aiutarti nellacquisto del farmaco meno costoso e sapere se esistono equivalenti abbiamo creato lApp ioequivalgo uno strumento spre a portata di mano  Scopri a cosa serve il farmaco Farganesse principi attivi effetti dosi e  Farmaci Equivalenti Prometazina mg  Unita Uso Orale Prometazina mg    i farmaciZ con dosi equivalenti delle benzodiazepine a durata dazione breve o  gli antistaminici con attività sedativa come la prometazina Farganesse </t>
+  </si>
+  <si>
+    <t>Farmaci Equivalenti I farmaci equivalenti di Betametasone DOC Generici a base di Betametasone Sodio Fosfato sono Bentelan Betametasone Eurogenerici  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf ott   BENTELAN  MG ML SOLUZIONE INIETTABILE  FIALE  ML SIGMATAU INDUSTRIE FARMACEUTICHE RIUNITE S  AIC BENTELAN  Betametasone  Scheda informativa indicazioni efficacia modo dwbruso avvertenze gravidanza allattamento effetti collaterali controindicazioni wbr Prezzo e informazioni farmaceutiche sul farmaco generico BENTELAN prodotto da DEFIANTE FARMACEUTICA SA ed eventuali sue alternative  classf feb   Bentelan Compresse  Betametasone Fosfato Disodico  La terapia  ed informazioni particolari Farmaci equivalenti stesso principio attivo   classf feb   Bentelan Fiale  Betametasone Fosfato Disodico  Shock shock  ed informazioni particolari Farmaci equivalenti stesso principio attivo  Il BENTELAN  mg ml soluzione iniettabile ed il BENTELAN  mg ml soluzione iniettabile non sostituiscono le altre forme di terapia dello shock e dellowbr wbr  classf dic   chiunque abbia ricevuto più di mg di prednisone al giorno o dose equivalentewbr per più di  settimane tutti i pazienti con segni clinici di wbr Bentelan è un farmaco a base di betametasone un principio attivo che appartiene alla classe dei corticosteroidi farmaci antinfiammatori steroidei Bentelan è </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quando assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Farganesse è un farmaco a base del principio attivo Prometazina Cloridrato  Da  mesi a  anno    mg al giorno per via im profonda  classf feb   Farganesse  Prometazina Cloridrato  Trattamento sintomatico degli stati allergici a carico  Reazioni allergiche da farmaci e da trasfusioni di   del testo Prescrivibilità ed informazioni particolari Farmaci equivalenti stesso principio attivo  Da  mesi a  anno    mg al giorno per via im profonda Trattamento sintomatico degli stati allergici a carico dellapparato respiratorio delle mucose e della cute Reazioni allergiche da farmaci e da trasfusioni di  Tipo prodottoFarmaco etico FormaSoluzione iniettabile ContenitoreFiale Ivawbr Tp ConservazioneAl riparo dalla luce Scadenza mesi wbr Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf feb   Che ogni farmaco comporti il rischio di effetti collaterali è risaputo  Può causare disturbi al sista extrapiramidale relativo a equilibrio postura ecc disturbi cardiaci e aumento di  Prometazina iniettabile Farganesse Anche in questo caso il farmaco dovrebbe essere impiegato al dosaggio minimo  i farmaciZ con dosi equivalenti delle benzodiazepine a durata dazione breve o  gli antistaminici con attività sedativa come la prometazina Farganesse  Scopri a cosa serve il farmaco Farganesse principi attivi effetti dosi e  Farmaci Equivalenti Prometazina mg  Unita Uso Orale Prometazina mg    classf nov   Moltissime persone invece ricorrono ai cosiddetti sonniferi farmaci  Dalmadorm Felison Minias Stilnox Nott Sonata Farganesse   classf gen   EQUIVALENTI MOTIVAZIONI  rivolgersi allo specialista o al MMG AC ZOLEDRONICO  allo specialista o al MMG FARGANESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf giorni fa  Descrizione Prezzo al pubblico Importo a carico del servizio sanitario  AUGMENTINCPR RIVMGMG    Amoxicillina  Acido Clavulanico DOC Generici  mg   mg  bustine  Anival Augmentin Aveggio Clavomed Clavulin Homer Klavux Kruxade   classfPassa a a classfl hrefhttpswwwfarmacoecuraitautomedicazioneaugmentinantibioticodosaggioeffetticollateraliprezzo pingurlsatampsourcewebamprctjampurlhttpswwwfarmacoecuraitautomedicazioneaugmentinantibioticodosaggioeffetticollateraliprezzoampvedahUKEwijwdOCoeLlAhXTOcAKHcUAnoQygQwBXoECAQQBgbPrezzoba  Prezzo Augmentin come tutti gli antibiotici richiede la  Sono presenti in commercio farmaci generici ed equivalenti a prezzo inferiore Prezzo e informazioni farmaceutiche sul farmaco generico AUGMENTIN prodotto da GLAXOSMITHKLINE SPA ed eventuali sue alternative Augmentin Augmentin generico è usato nel trattamento dei respiratorio  farmaco senza ricetta augmentin generico prezzo come ottenere amoxicillin andwbr wbr  classf mag   Prezzo riferimento  aprile  Prezzo Pubblico  maggio   ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO PROLUNGATO  COMPRESSE IN BLISTER PVCPVDCAL  AUGMENTIN  classfPassa a a classfl hrefhttpwwwscientificaitaugmentinoraleAugmentineSoleAugmentinBambiniAcosaserveAugmentinControindicazioniAugmentinPosologiaInterazioniAugmentininGravidanzaodurantelallattamentoAugmentineAlcoolFarmacoGenericoAugmentinPrezzo pingurlsatampsourcewebamprctjampurlhttpwwwscientificaitaugmentinoraleAugmentineSoleAugmentinBambiniAcosaserveAugmentinControindicazioniAugmentinPosologiaInterazioniAugmentininGravidanzaodurantelallattamentoAugmentineAlcoolFarmacoGenericoAugmentinPrezzoampvedahUKEwijwdOCoeLlAhXTOcAKHcUAnoQygQwCXoECAcQCAbAugmentinb e Sole bAugmentinb Bambini A cosa serve a  Controindicazioni Augmentin Posologia  Farmaco Generico Augmentin Prezzowbr wbr Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa   classf feb   Volete provare unalternativa al farmaco Augmentin Ecco quali sono i suoi farmaci equivalenti Info su Farmacia Onlain Risultati Da  Motori di Ricerca  prezzo generico augmentin augmentin dose per bambini what drug category is exelon buy hong kong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf giorni fa  Descrizione Prezzo al pubblico Importo a carico del servizio sanitario  AUGMENTINCPR RIVMGMG    Amoxicillina  Acido Clavulanico DOC Generici  mg   mg  bustine  Anival Augmentin Aveggio Clavomed Clavulin Homer Klavux Kruxade   classfPassa a a classfl hrefhttpswwwfarmacoecuraitautomedicazioneaugmentinantibioticodosaggioeffetticollateraliprezzo pingurlsatampsourcewebamprctjampurlhttpswwwfarmacoecuraitautomedicazioneaugmentinantibioticodosaggioeffetticollateraliprezzoampvedahUKEwisrKiLlAhUUvZKHUsNDgQygQwBXoECAcQBgbPrezzoba  Prezzo Augmentin come tutti gli antibiotici richiede la  Sono presenti in commercio farmaci generici ed equivalenti a prezzo inferiore Prezzo e informazioni farmaceutiche sul farmaco generico AUGMENTIN prodotto da GLAXOSMITHKLINE SPA ed eventuali sue alternative Augmentin Augmentin generico è usato nel trattamento dei respiratorio  farmaco senza ricetta augmentin generico prezzo come ottenere amoxicillin andwbr wbr  classf mag   Prezzo riferimento  aprile  Prezzo Pubblico  maggio   ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO PROLUNGATO  COMPRESSE IN BLISTER PVCPVDCAL  AUGMENTIN  classfPassa a a classfl hrefhttpwwwscientificaitaugmentinoraleAugmentineSoleAugmentinBambiniAcosaserveAugmentinControindicazioniAugmentinPosologiaInterazioniAugmentininGravidanzaodurantelallattamentoAugmentineAlcoolFarmacoGenericoAugmentinPrezzo pingurlsatampsourcewebamprctjampurlhttpwwwscientificaitaugmentinoraleAugmentineSoleAugmentinBambiniAcosaserveAugmentinControindicazioniAugmentinPosologiaInterazioniAugmentininGravidanzaodurantelallattamentoAugmentineAlcoolFarmacoGenericoAugmentinPrezzoampvedahUKEwisrKiLlAhUUvZKHUsNDgQygQwCXoECAoQCAbAugmentinb e Sole bAugmentinb Bambini A cosa serve a  A cosa serve Augmentin  Farmaco Generico Augmentin Prezzo  Farmaci confronta i prezzi e trova il meno caro Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa  Augmentin è indicato nel trattamento delle seguenti infezioni negli adulti e nei bambini vedere  AUGMENTIN OS BUSTMGMG  prezzo indicativowbrwbr Info su Farmacia Onlain Risultati Da  Motori di Ricerca  prezzo generico augmentin augmentin dose per bambini what drug category is exelon buy hong kong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mag   Augmentin antibiotico con amoxicillina ed ac clavulanico è molto usato  come preparato generico per espio Augmentin e Clavulin sono   classf giorni fa  Cerca un farmaco  Dati regionali  Gruppi generici AVVERTENZA  AUGMENTINCPR RIVMGMG    Amoxicillina  Acido Clavulanico DOC Generici  mg   mg  bustine  Anival Augmentin Aveggio Clavomed Clavulin Homer Klavux Kruxade   classf ago   Quasi spre hanno lo stesso principio attivo augmentinhomer  Augmentin è il nome di specialità mentre lequivalente generico prodotto e  Augmentin Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf feb   Volete provare unalternativa al farmaco Augmentin Ecco quali sono i suoi farmaci equivalenti  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr Prezzo e informazioni farmaceutiche sul farmaco generico AUGMENTIN prodotto da GLAXOSMITHKLINE SPA ed eventuali sue alternative  classf mag   DOC GENERICI SRL   ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO PROLUNGATO   AUGMENTIN LAugmentin è il medicinale più noto a base di amoxicillina e acido clavulanico Lwbramoxicillina è un antibiotico appartenente alla classe dei betalattamici wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf ago   Quasi spre hanno lo stesso principio attivo augmentinhomer  eguali ma oggi sono molto diffusi i cosiddetti farmaci generici quindi non   classf feb   Volete provare unalternativa al farmaco Augmentin Ecco quali sono i suoi farmaci equivalenti  classf mag   Augmentin antibiotico con amoxicillina ed ac clavulanico è molto usato in  Sono presenti in commercio farmaci generici ed equivalenti a   classf giorni fa  Gruppi generici Cerca un farmaco  Dati regionali  Gruppi generici  AUGMENTINCPR RIVMGMG    Amoxicillina  Acido Clavulanico DOC Generici è un farmaco a base del principio  Anival Augmentin Aveggio Clavomed Clavulin Homer Klavux Kruxade   classf mag   Farmaco Confezione Differenza Prezzo riferimento  aprile   ALFUZOSINA DOC GENERICI  MG COMPRESSE A RILASCIO PROLUNGATO  COMPRESSE IN BLISTER PVCPVDCAL  AUGMENTIN  classf lug   Perchè il mio medico dice che i farmaci equivalenti non vanno bene come gli altriwbr Lui ritiene che siano più scadenti per qualità Graziewbr AUGMENTIN  Amoxicillina  acido clavulanico  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali  Prezzo e informazioni farmaceutiche sul farmaco generico AUGMENTIN prodotto da GLAXOSMITHKLINE SPA ed eventuali sue alternative Prezzo e informazioni farmaceutiche sul farmaco generico AUGMENTIN prodotto da BB FARMA SRL ed eventuali sue alternative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mar   Volete provare un farmaco equivalente al Monuril Scopriamoli insie quali sono quelli in commercio  classf giu   Monuril è un antibiotico fosfomicina utile a curare la cistite spieghiamo come si usa quanto costa i rischi in gravidanza e nei bambini   classf giorni fa  Descrizione Prezzo al pubblico Importo a carico del servizio sanitario Quota a carico del cittadino MONURILAD OS GRAT BUST G   La fosfomicina trometamolo Monuril è il farmaco più usato per la cistite e per le infezioni urinarie acute  classf mag   Il Monuril e il Ciproxin due antibiotici usati per curare la cistite  si può risparmiare scegliendo un medicinale equivalente il cui prezzo può   classf feb   Gentile Signora gli antibiotici dovrebbero spre essere assunti sotto controllo medico e con indicazioni ben precise Buona parte delle cistiti  Monuril  granulato Fosfomicina TrometamoloAntibatterici a cosa serve come e  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf giu   Detti in passato generici con un aggettivo poco adeguato dal  sono chiamati in modo più appropriato farmaci equivalenti secondo la  Monuril Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali</t>
+  </si>
+  <si>
+    <t>Farmaci con diversi tipi di ricetta o prescrizione medica senza o con ricetta senza  Il primo con il nome del farmaco della specialità o del generico se è  Per espio in caso di una polmonite lantibiotico destinato a combatterne la causa   classf lug   In Italia il  delle persone che ricorrono agli antibiotici senza disporre di ricetta del medico lo fa per darli al proprio figlio Nessuno riesce a   classf mar   Dunque è possibile avere un farmaco senza ricetta  la vendita senza prescrizione solo se si tratti di insulina o di antibiotici monodose Non sai dove acquistare gli antibiotici senza prescrizione medica in Italia  LwbrAugmentin Generico è una combinazione di due componenti antibatterici noti wbr Comprare amoxicillina online senza prescrizione medica Guida ai farmaci di  dove puoi effettuare un ordine e acquistare Amoxil generico online senza prescrizione  Ricordatevi che prima di prendere un antibiotico bisogna assolutamente   classf nov   Ultima versione del decreto della Salute con cui si indicano i farmaci vendibili senza ricetta non in farmacia Versione necessaria spiega il  ho un dolore hai denti pazzesco sti maledetti denti del giudizio  classf dic   Esistono molti antibiotici naturali che si possono ottenere senza la ricetta In questo modo non avrete bisogno di andare in farmacia o dal   classf lug   Perchè a rifletterci bene quello della ricetta medica potrebbe essere un probla molto  quindi lantibiotico è inutile se non addirittura controindicato  Vendere un Oki senza prescrizione è doppiamente stupido perché si viola la  una pomata con lo stesso principio attivo  è il generico e costa meno   alla vendita dei farmaci da banco SOP e OTC ovvero i medicinali senza obbligo di ricetta medica  Loperamide Doc Generici  mg Diarrea  Compresse</t>
+  </si>
+  <si>
+    <t>FARMACI ETICI E FARMACI GENERICI DEFINIZIONE E DIFFERENZA MARTEDI  GIUGNO   ore  Chi entrando in farmacia ed avvicinandosi al  Il primo con il nome del farmaco della specialità o del generico se è  ha deciso i dividere i farmaci etici in due categorie la Classe A e la Classe C gratuiti i  Non è spre vero che sono la stessa cosa Le differenze sono un po difficili da spiegare ma cerchero di dirtelo nel modo piu splice possibile In pratica   classf mag   sono i farmaci che richiedono la prescrizione medica e che  Esiste quindi una differenza tra farmaci etici e generici essa consiste nel modo   classf gen   Farmaco etico Cosa cè dietro ad ogni pillola cosa sappiamo dei  con lwbrappellativo di generici necessitano di prescrizione medica Identici wbr  classf giu   AIFA Agenzia Italiana del Farmaco logo  fra il prezzo del medicinale prescritto e quello del generico corrispondente sarà a suo carico Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Prontuario Farmaceutico indice dei farmaci che iniziano da Nep a Nie  Netildex Coll fl  ml   Desametasone Fosfato Disodico e netilmicina Solfato  Etico Senza Obbligo di Prescrizione Tipo Farmaco Generico Codice ATC   classf mar   Zolpid Tartrato tutti i farmaci in commercio che contengono questo principio  Spa Tipo Ricetta Ricetta Ripetibile valida  giorni Tipo Farmaco Etico Classe di  Ricetta Ripetibile valida  giorni Tipo Farmaco Generico Classe di prescrivibilità C  Istruttore BLS e ACLS American Heart Association  classfPassa a a classfl hrefhttpswwwmypersonaltraineritsalutefarmacisophtml pingurlsatampsourcewebamprctjampurlhttpswwwmypersonaltraineritsalutefarmacisophtmlampvedahUKEwjbzZjoOLlAhVJfMAKHQMmDBQygQwEXoECAYQBwbFarmacib SOP beb OTC quali differenzea  Farmaci di Fascia H Vedi altri articoli tag Farmaci generici e fasce farmacologiche  Farmaci </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf giu   Monuril è un antibiotico fosfomicina utile a curare la cistite  delle infezioni urinarie per essere acquistato richiede ricetta medica ed è   classf mar   Volete provare un farmaco equivalente al Monuril Scopriamoli insie quali sono quelli in commercio  classf mar   E un disturbo comune a molte donne la cistite è quellinfiammazione della vescica dovuta a uninfezione batterica Si tratta di un probla   classf set   Il caso Monuril continua a far discutere e per il farmacista  Infine la legge prevede che il farmacista possa dispensare farmaci senza ricetta   classf feb    in età fertile quindi senza febbre e con sintomi di lievemedia entità  Io comunque in vita mia avrò preso il monuril un paio di volte però il   classf giu   Monuril è un farmaco a base di fosfomicina indicato nel trattamento di  del principio attivo senza tuttavia influire sullefficacia del farmaco   classf mag   Il Monuril e il Ciproxin due antibiotici usati per curare la cistite potrebbero  SpA può essere acquistato in farmacia solo se si dispone della ricetta medica  senza tenere conto delle raccomandazioni e della farmacocinetica  è però lwbrunico e ne esistono molti altri equivalenti a base di Ciprofloxacinawbr  classf giorni fa   soggettive dellassistito e dagli altri prodotti compresi nella medesima ricetta  MONURILAD OS GRAT BUST G    Ciao belle pancine mi è venuta la cistite ne ho spre sofferto ma ormai per fare lurinocultura dovrei aspettare domani e non riesco ad   classf ago   Per curare la cistite i medici solitamente prescrivono il Monuril  ed immesso nel circolo sanguigno senza trasformarsi in glicogeno non  Questo farmaco si può trovare il farmacia e in parafarmacia e non necessita di ricetta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mar   Volete provare un farmaco equivalente al Monuril Scopriamoli insie quali sono quelli in commercio  classf giu   Monuril è un antibiotico fosfomicina utile a curare la cistite spieghiamo come si usa quanto costa i rischi in gravidanza e nei bambini   classf giorni fa  Descrizione Prezzo al pubblico Importo a carico del servizio sanitario Quota a carico del cittadino MONURILAD OS GRAT BUST G    interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Monuril è un farmaco a base del principio attivo Fosfomicina Trometamolo  La fosfomicina trometamolo Monuril è il farmaco più usato per la cistite e per le infezioni urinarie acute  classf mag   Il Monuril e il Ciproxin due antibiotici usati per curare la cistite potrebbero  dei casi di cistite si fa un uso inappropriato di questa classe di farmaci  si può risparmiare scegliendo un medicinale equivalente il cui prezzo può   classf feb   Salve dottori avrei da porvi un quesito Vorrei sapere se cè un farmaco alternativo al monuril ho da poco scoperto di avere  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf giu   Detti in passato generici con un aggettivo poco adeguato dal  sono chiamati in modo più appropriato farmaci equivalenti secondo la  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più  Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per fornirvi tutte le risposte che volete conoscere   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse indicazioni del farmaco di riferimento Sono dunque dal punto di  Farmaci Equivalenti sono identici agli altri farmaci per qualità sicurezza ed efficacia Unica differenza costano meno La salute è un diritto di tutti  classf feb   Il farmaco equivalente è un medicinale che ha la stessa composizione di sostanze attive e la stessa forma farmaceutica del medicinale di  Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se   classf mar   a Il farmaco equivalente può contenere più o meno principio attivo rispetto al griffato purché la differenza non superi il   FALSO  Risposte a cura del dottor Fiorenzo Corti medico di famiglia Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> farmaci con MOMETASONE FUROATO  ALTOSONE è indicato nel trattamento delle dermatosi steroidosensibili nelladulto e nel bambino  Psoriasi   classf feb   Altosone  Mometasone  ALTOSONE è indicato nel trattamento delle  ed informazioni particolari Farmaci equivalenti stesso principio attivo  Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più  Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se   interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  I farmaci equivalenti di Elocon a base di Mometasone Furoato sono Altosone  Farmaco ALTOSONE SOL CUT FL G  minsan  presente su  sensibilita alla tossicita sisticaa dosi equivalenti in quanto il rapporto tra   classf mag   Una lettrice chiede in quali altri farmaci può trovare come principio  Vorrei chiedere una pomata equivalente  Si tratta di un cortisonico cosi detto ad alta potenza al pari di elocon o dellaltosone mometasone furoato   Altosone contiene mometasone furoato che appartiene a una classe di medicinali  Utilizzando nei bambini una dose equivalente a quella degli adultiwbr wbr Bugiardino e Scheda Tecnica del Farmaco Altosone Scopri a cosa serve il  Farmaci Equivalenti Nessun Farmaco equivalente trovato Ditta Produttrice Essex  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per fornirvi tutte le risposte che volete conoscere   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse indicazioni del farmaco di riferimento Sono dunque dal punto di  Farmaci Equivalenti sono identici agli altri farmaci per qualità sicurezza ed efficacia Unica differenza costano meno La salute è un diritto di tutti  classf feb   Il farmaco equivalente è un medicinale che ha la stessa composizione di sostanze attive e la stessa forma farmaceutica del medicinale di  Per aiutarti nellacquisto del farmaco meno costoso e sapere se esistono equivalenti abbiamo creato lApp ioequivalgo uno strumento spre a portata di mano  Per farmaco generico si intende un medicinale che contiene la stessa quantità di  Definizione Generico o equivalente Cosa dice la legge Il concetto di </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf mag   La definizione lascia poco spazio alle interpretazioni un farmaco equivalente è un medicinale che ha la stessa composizione qualitativa e  I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui br  classf set   Equivalenti o generici quello che i pazienti devono sapere  disponibile un documento di approfondimento riguardante i farmaci equivalenti  classf giu   Molte persone si domandano che differenza ci sia tra un farmaco generico o equivalente ed un farmaco originale E se i farmaci generici siano  In questo modo gli operatori sanitari e i pazienti possono essere sicuri che qualsiasi farmaco venduto prescritto o somministrato come generico ha dimostrato  Generico o equivalente la definizione Registrazione del Tribunale di Milano n  del  LE GUIDE DI DICA  I FARMACI GENERICI Testi a cura  Per farmaco generico si intende un medicinale che contiene la stessa quantità di  Definizione Generico o equivalente Cosa dice la legge Il concetto di   classf mar   Il Servizio sanitario regionale dellEmiliaRomagna promuove luso dei farmaci con brevetto scaduto conosciuti come equivalenti o generici  classf mar   Pressa i farmaci griffati costano di più rispetto ai farmaci generici o equivalenti ma è solo una questione di mercato e di prezzi Si paga il </t>
+  </si>
+  <si>
+    <t>Propriam che concerne tutto un genere quindi non specifico non particolare definizione generico significato generico di un vocabolo il suo significato più  Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con  Generico Che riguarda il genere e non lindividuo Definizione e significato del termine generico generico m a plm ci che  non specifico non particolare vago indeterminato discorsi generici unesposizione generica accuse generiche  che  Sinonimi e Contrari di Generico Scopri gli altri modi di dire e i contrari di Generico  classf mar   Sono i farmaci generici copie di farmaci griffati che possono entrare sul mercato solo una volta terminata la loro copertura brevettuale Farmaci generici  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Il farmacista è tenuto a dare al paziente proprio il generico indicato in ricetta dal medico ma solo se è il meno caro Già le regole sulla ricetta medica prevedono </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf feb   Il farmaco equivalente è un medicinale che ha la stessa composizione di sostanze attive e la stessa forma farmaceutica del medicinale di  Cosa sono i farmaci equivalenti Secondo lArticolo  Comma  Lettera b del Decreto Legislativo  del  un farmaco viene definito equivalente quandowbr wbr  classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse  Quali sono i vantaggi derivanti dalluso degli equivalenti Cosa sono i generici equivalenti  Si parla di medicinale originatore o di riferimento nel caso di un farmaco la cui tutela brevettuale è scaduta e che può quindi   classf giu   Bioequivalenza cosa significa come si prova chi la stabilisce Per i farmaci equivalenti non è richiesto di produrre studi preclinici e clinici che  I farmaci equivalenti o generici sono copie di medicinali dal brevetto ormai scaduto contenenti le stesse quantità di principio attivo delloriginale Definizione Generico o equivalente Cosa dice la legge Il concetto di  brevettuale un farmaco può essere prodotto da altre aziende farmaceutiche e offerto sul   classf gen   Quando si parla di farmaci generici o equivalenti significa che il principio attivo in essi contenuto non è più coperto dal brevetto Che significa In breve Sono farmaci sostanzialmente uguali al farmaco di marca corrispondente contengono lo stesso principio attivo nella stessa dose e hanno pari </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con  Secondo la definizione dellOrganizzazione Mondiale della Sanità si intende per generico un medicinale che sia intercambiabile con il prodotto originale e che  È proseguita anche nel  la crescita lenta ma costante del mercato degli equivalenti  lo scorso anno i generici unbranded hanno assorbito il  del  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf mar   Il Servizio sanitario regionale dellEmiliaRomagna promuove luso dei farmaci con brevetto scaduto conosciuti come equivalenti o generici La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di   classf giu   La verità sui farmaci generici  risposte alle più comuni domande sullargomentowbrwbr  classf giu   Il mercato dei farmaci generici è spre più ampio e spre più persone scelgono di utilizzarli Molte sono le domande e i dubbi dei pazienti   classf lug   Diffidenti e poco informati gli italiani sono gli ultimi in Europa per utilizzo di farmaci equivalenti e preferiscono quelli di marca farmaci generici</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per  Qual è la differenza fra farmaci equivalenti e farmaci generici Farmaci generici  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni  classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma  Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di  Il generico è un medicinale a base di uno o più principi attivi prodotto  Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test  Il farmaco generico o meglio equivalente Legge  è un farmaco a base di uno o più principi attivi cioè le sostanze che curano la malattia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se   classf ott   In generale va puntualizzato che gli eccipienti usati nella produzione di farmaci brand sono per la stragrande maggioranza gli stessi usati Cerca un farmaco  wwwfederfarmait   Per effettuare la ricerca è necessario compilare anche parzialmente almeno uno dei seguenti    classf ott   Indirizzo per la corrispondenza Umberto M Musazzi Università degli Studi di Milano Dipartimento di Scienze Farmaceutiche  DISFARM  classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma  Per espio farmaci contenenti saccarosio devono essere somministrati con attenzione  Infatti un farmaco equivalente o generico non può essere messo in   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o   classf ott   Purtroppo i farmaci equivalenti più noti come generici vengono spesso percepiti da medici farmacisti e pazienti come un prodotto disponibile </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  I farmaci equivalenti contengono lo stesso principio attivo e anche nella stessa quantità che si  Qual è la differenza fra farmaci equivalenti e farmaci generici Per farmaco generico si intende un medicinale che contiene la stessa quantità di  Definizione Generico o equivalente Cosa dice la legge Il concetto di   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse  prescritto e quello del generico corrispondente sarà a suo carico  classf mar   Il Servizio sanitario regionale dellEmiliaRomagna promuove luso dei farmaci con brevetto scaduto conosciuti come equivalenti o generici Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se   classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma  Il farmaco generico o meglio equivalente Legge  è un farmaco a base di uno o più principi attivi cioè le sostanze che curano la malattia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  Qual è allora la differenza tra farmaco di marca e farmaco equivalente  classf mag   La definizione lascia poco spazio alle interpretazioni un farmaco equivalente è un medicinale che ha la stessa composizione qualitativa e  I farmaci equivalenti contengono lo stesso principio attivo e anche nella stessa quantità che si  Qual è la differenza fra farmaci equivalenti e farmaci generici Per farmaco generico si intende un medicinale che contiene la stessa quantità di  Definizione Generico o equivalente Cosa dice la legge Il concetto di  Invece devono eseguire studi di bioequivalenza al fine di dimostrare che un farmaco generico è equivalente e quindi sostituibile con il medicinale di  Il farmaco generico o meglio equivalente Legge  è un farmaco a base di uno o più principi attivi cioè le sostanze che curano la malattia  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che  E vero che il cervello ha bisogno di essere ripulito e questo lavaggio  classf set   I medicinali equivalenti sono guardati con diffidenza da molti pazienti  equivalente ha la stessa composizione qualitativa e quantitativa del   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse  prescritto e quello del generico corrispondente sarà a suo carico I farmaci generici o equivalenti sono quei medicinali terapeuticamente equivalenti ai farmaci originatori che contengono un principio attivo il cui brevetto è </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per  Qual è la differenza fra farmaci equivalenti e farmaci generici Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Farmaci generici  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni  classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma  La biodisponibilità di un generico può variare anche del  rispetto al farmaco di marca Vero La biodisponibilità è un parametro che descrive la quantità di  Il generico è un medicinale a base di uno o più principi attivi prodotto  Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test   classf mar   Sono i farmaci generici copie di farmaci griffati che possono entrare sul mercato solo una volta terminata la loro copertura brevettuale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con   classf giu   Un farmaco generico detto anche equivalente o bioequivalente è un medicinale che presenta lo stesso principio attivo la stessa forma  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  Il farmaco è controindicato in caso di miastenia grave insufficienza  Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per  Qual è la differenza fra farmaci equivalenti e farmaci generici Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Farmaci generici  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni Il generico è un medicinale a base di uno o più principi attivi prodotto  Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test   classf mar   di Oscar Puntel In Italia i farmaci generici esistono da ventanni ovvero da quando sono scaduti i brevetti sui farmaci originali laspirina o </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Di conseguenza lo stesso farmaco generico può essere venduto con il nome generico ad espio ibuprofene o con uno dei numerosi nomi commerciali  Fino allingresso sul panorama italiano dei Farmaci Generici o Equivalenti il  Espio Aspirina nome commerciale contiene Acido Acetilsalicilico nome delwbr wbr Per espio farmaci contenenti saccarosio devono essere somministrati con  Un medicinale equivalente o generico è in parole molto splici una copia  Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con   classf mar   Si definisce farmaco generico la copia di uno specifico farmaco già  nella stessa forma farmaceutica per espio essere in compresse  Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d I farmaci equivalenti o generici sono copie di medicinali dal brevetto ormai scaduto contenenti le stesse quantità  Ad espio sciroppo compresse fiale ecc  Infatti un farmaco equivalente o generico non può essere messo in commercio se il  Per espio farmaci contenenti saccarosio devono essere somministrati  classf mar   Sono quei farmaci il cui brevetto è scaduto e possono dunque essere  importanti ti quali ad espio la qualità dei farmaci equivalenti e il  Lespressione farmaci generici è comunente utilizzata per fare riferimento a  la denominazione del principio attivo per espio nel caso della nimesulide </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Che cosa sono i farmaci equivalenti I farmaci si definiscono  Qual è allora la differenza tra farmaco di marca e farmaco equivalente Per quale motivo se la   classf feb   Qual è la differenza tra i farmaci generici e quelli di marca Quali caratteristiche deve avere per essere immesso sul mercato Scopriamolo   classf mar   Sono quei farmaci il cui brevetto è scaduto e possono dunque essere  importanti ti quali ad espio la qualità dei farmaci equivalenti e il  I farmaci generici hanno le stesse indicazioni terapeutiche posologia e forse la  brevettale dei farmaci  anni in Italia è lintervallo di tpo entro il quale la  Se principio attivo e dosaggio sono uguali ai farmaci di marca quello che contraddistingue i farmaci generici è il prezzo che deve essere inferiore almeno del  Per farmaco generico si intende un medicinale che contiene la stessa quantità di principio attivo e presenta la stessa biodisponibilità di un altro di marca con  In questo manuale sono stati usati dove possibile i nomi generici non  nella quale sono elencati i nomi commerciali dei farmaci in ordine alfabetico insie  I farmaci equivalenti sono unalternativa terapeutica equivalente ai farmaci originatori e sono  Qual è la differenza fra farmaci equivalenti e farmaci genericiwbrwbr Cosa sono i generici equivalenti  una specialità già autorizzata con la stessa composizione qualiquantitativa in principi  Per questa ragione ai produttori di farmaci generici non è richiesto di ripetere test preclinici e studi clinici su pazienti  classf giu   Quali sono i vantaggi derivanti dalluso degli equivalenti I farmaci equivalenti sono molto più economici dei prodotti originali fino al </t>
+  </si>
+  <si>
+    <t>Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d Farmaci equivalenti Per medicinale generico o equivalente si intende un medicinale avente la stessa composizione qualitativa e quantitativa in sostanze  Abbiamo raccolto le domande più frequenti che ci vengono poste sui farmaci equivalenti per fornirvi tutte le risposte che volete conoscere   classf giu   I farmaci equivalenti hanno inoltre la stessa forma farmaceutica e le stesse indicazioni del farmaco di riferimento Sono dunque dal punto di  Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando attenti ai ti dellawbr wbr Il farmaco equivalente è un medicinale che ha le stesse caratteristiche farmacologiche e terapeutiche del farmaco di marca già presente sul mercato e non più   classf feb   Il farmaco equivalente è un medicinale che ha la stessa composizione di sostanze attive e la stessa forma farmaceutica del medicinale di  Farmaci Equivalenti sono identici agli altri farmaci per qualità sicurezza ed efficacia Unica differenza costano meno La salute è un diritto di tutti Prima di utilizzare questo strumento consigliati spre con il tuo medico eo farmacista Per aiutarti nellacquisto del farmaco meno costoso e sapere se   classf mar   Sono quei farmaci il cui brevetto è scaduto e possono dunque essere commercializzati a minor costo una diminuzione di almeno il  del </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Che cosa sono i farmaci equivalenti I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco d  classf mar   Ma cosa sono esattamente i farmaci generici Sono davvero sicuri E perché costano meno degli altri medicinali Ecco una guida rapida per  Per farmaco generico si intende un medicinale che contiene la stessa quantità di  Definizione Generico o equivalente Cosa dice la legge Il concetto di   classf feb   Il farmaco equivalente è un medicinale che ha la stessa composizione di sostanze attive e la stessa forma farmaceutica del medicinale di   classf feb   Qual è la differenza tra i farmaci generici e quelli di marca Quali caratteristiche deve avere per essere immesso sul mercato Scopriamolo  Cosa sono i farmaci equivalenti Secondo lArticolo  Comma  Lettera b del Decreto Legislativo  del  un farmaco viene definito equivalente quandowbr wbr Cosa sono i generici equivalenti  Si parla di medicinale originatore o di riferimento nel caso di un farmaco la cui tutela brevettuale è scaduta e che può quindi   classf lug   Ecco tutto ciò che cè da sapere sui farmaci generici anche detti farmaci equivalenti la loro efficacia i vantaggi derivanti dal loro utilizzo e  I farmaci equivalenti o generici sono copie di medicinali dal brevetto ormai scaduto contenenti le stesse quantità di principio attivo delloriginale  classf giu   Quali sono i vantaggi derivanti dalluso degli equivalenti I farmaci equivalenti sono molto più economici dei prodotti originali fino al </t>
+  </si>
+  <si>
+    <t>Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto  Siamo consapevoli che intorno ai farmaci equivalenti detti anche generici nonostante se ne parli da anni ed esistano studi che dimostrano che non ci siano  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità la stessa forma con efficacia e sicurezza  sia da parte dei medici sia dei pazienti nei confronti dei farmaci equivalenti o generici Non utilizzare i farmaci equivalenti è un comportamento fortente a   classf gen   LAifa ha disposto il ritiro cautelativo di alcuni farmaci generici Metformina mylan generics compresse Metformina eg Paracetamolo eg  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità la stessa forma con efficacia e sicurezza   classf giu   Il farmaco generico in Italia stenta a decollare Nonostante il suo sia un ruolo cruciale nel futuro della spesa sanitaria nazionale in termini di  Controlla comunque spre se il farmaco generico che ti ha prescritto il medico è  ha spre lobbligo di suggerire il farmaco equivalente più economico Livio Garattini  CESAV Centro di Economia Sanitaria A Valenti Istituto Mario Negri  Ranica BG Simone Ghislandi  Econpubblica Dipartimento di Analisi  Ecco le risposte ai dubbi più frequenti sui farmaci  Sia i farmaci di marca sia i genericiequivalenti hanno unAIC Unazienda titolare dellAIC</t>
+  </si>
+  <si>
+    <t>Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto  Siamo consapevoli che intorno ai farmaci equivalenti detti anche generici nonostante se ne parli da anni ed esistano studi che dimostrano che non ci siano  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità la stessa forma con efficacia e sicurezza   classf gen   LAifa ha disposto il ritiro cautelativo di alcuni farmaci generici Metformina mylan generics compresse Metformina eg Paracetamolo eg  sia da parte dei medici sia dei pazienti nei confronti dei farmaci equivalenti o generici Non utilizzare i farmaci equivalenti è un comportamento fortente a  Controlla comunque spre se il farmaco generico che ti ha prescritto il medico è  ha spre lobbligo di suggerire il farmaco equivalente più economico Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità la stessa forma con efficacia e sicurezza  Livio Garattini  CESAV Centro di Economia Sanitaria A Valenti Istituto Mario Negri  Ranica BG Simone Ghislandi  Econpubblica Dipartimento di Analisi   classf giu   Il farmaco generico in Italia stenta a decollare Nonostante il suo sia un ruolo cruciale nel futuro della spesa sanitaria nazionale in termini di  Sono ottimi tutti i provvedimenti che incoraggiano a usare farmaci equivalenti o generici al posto dei farmaci di marca ricordiamo che un farmaco equivalente </t>
+  </si>
+  <si>
+    <t>Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità e forma con efficacia e sicurezza del tutto  Siamo consapevoli che intorno ai farmaci equivalenti detti anche generici nonostante se ne parli da anni ed esistano studi che dimostrano che non ci siano  Molti farmaci di marca hanno un equivalente è un medicinale che ha lo stesso principio attivo nella stessa quantità la stessa forma con efficacia e sicurezza   classf gen   LAifa ha disposto il ritiro cautelativo di alcuni farmaci generici Metformina mylan generics compresse Metformina eg Paracetamolo eg  Controlla comunque spre se il farmaco generico che ti ha prescritto il medico è quello meno caro e nel caso chiedi al farmacista quello con prezzo inferiore sia da parte dei medici sia dei pazienti nei confronti dei farmaci equivalenti o generici Non utilizzare i farmaci equivalenti è un comportamento fortente a  Ecco le risposte ai dubbi più frequenti sui farmaci  Sia i farmaci di marca sia i genericiequivalenti hanno unAIC Unazienda titolare dellAIC Si risparmia comprando i farmaci online Abbiamo verificato sul campo aquistando una ventina di noti farmaci da banco da un sito allaltro si rischia di  Sono ottimi tutti i provvedimenti che incoraggiano a usare farmaci equivalenti o generici al posto dei farmaci di marca ricordiamo che un farmaco equivalente   classf giu   Il farmaco generico in Italia stenta a decollare Nonostante il suo sia un ruolo cruciale nel futuro della spesa sanitaria nazionale in termini di </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   Acquista qui il nuovo numero di Salvagente i  medicinali da evitare e le alternative possibile Nellultimo report datato febbraio  è stata   classf feb   La black list stilata dagli specialisti indipendenti di Prescire i medicinali da evitare e le alternative possibili per limitare gli effetti indesiderati   classf feb   Ecco la nuova lista nera dei farmaci per i quali il rapporto tra rischio e  evitare dal momento che gli svantaggi superano gli effetti positivi  classf giu   Lista nera dei farmaci farmaci con effetti collaterali gravi Farmaci pericolosi da evitare  lo studio Lallarme che ha portato allidentificazione di  Quando il paracetamolo non è sufficiente farmaci antinfiammatori a base di ibuprofene  Da evitare anche dopo il fallimento di altri farmaci antidolorifici per via   classf set   Un elenco dei farmaci da evitare o da usare con estra cautela nei  nei pazienti anziani che da soli assorbono il  di tutte le risorse   classf giu   I Nas hanno lanciato l allarme in Italia è boom di farmaci contraffatti una montagna di pillole false acquistate online da venditori non autorizzati c  anche se comunque risultano in crescita in tutto il mondo e nel  dei casi riguardano  che si acquistano online per risparmiare o per evitare imbarazzi  classf mar   Diffuso lultimo rapporto con la lista dei farmaci da evitare perché oltre ad essere inutili possono aggravare lo stato di salute  classf giu   Ci sono ben duecento farmaci che sono molto pericolosi per la salute in quanto hanno  Vediamo insie quali sono le tipologie da evitare  classf apr   Un farmaco in generale è una sostanza esogena in grado di  ELENCO DEI FARMACI DA EVITARE SECONDO IL RAPPORTO  DI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf giu   Attenti ai farmaci pericolosi in commercio sono  e possono causare effetti collaterali gravi come la depressione o listinto al suicidio  classf feb   Ecco la nuova lista nera dei farmaci per i quali il rapporto tra rischio e benefici è sfavorevole in tutte le situazioni cliniche  classf feb   Ma lazione di Prescrire non si ferma alla bocciatura dei farmaci laddove esiste i medici indicano una terapia alternativa spre   classf set   La ranitidina antagonista dei recettori H dellistamina è un inibitore della  Elenco lotti farmaci oggetto dei provvedimenti restrittivi  classf mar   E ancora Luso di questi farmaci nel corso di una ricerca clinica può essere accettabile ma a condizione che si informino i pazienti delle  LELENCO DEI FARMACI DA EVITARE SECONDO IL RAPPORTO  DI  Quando il paracetamolo non è sufficiente farmaci antinfiammatori a base di   classf mar   Diffuso lultimo rapporto con la lista dei farmaci da evitare perché oltre ad essere inutili possono aggravare lo stato di salute  classf apr   La classe di farmaci attenzionata dall autorità nazionale che opera sotto la vigilanza e la direzione del ministero della Salute è quella degli   classf feb   I farmaci più dannosi che utili secondo Prescrire associazione francese che analizza il rapporto rischibenefici dei farmaci  classf feb   Una recensione sui medicinali più pericolosi viene fatta da sette anni a  Lwbrassociazione francese valuta rischi e benefici dei farmaci in base a wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   Quando acquistiamo un farmaco per alleviare i nostri fastidi lo facciamo convinti di agire per il nostro bene e in tutta sicurezza ma non spre   classf feb   Ecco la nuova lista nera dei farmaci per i quali il rapporto tra rischio e  Una vera recensione che identifica i medicinali più pericolosi che utili Leggere attentamente le avvertenze non basta talvolta i pericoli legati allwbrassunzione di un medicinale dal principio attivo particolarmente forte e con una serie wbr  classf feb   Roma  febbraio  Prescrire ong nata in Francia per assicurare a operatori e opinione pubblica uninformazione assolutamente   classf feb   I farmaci più dannosi che utili secondo Prescrire associazione francese che analizza il rapporto rischibenefici dei farmaci  classf giu   Milioni di persone consumano farmaci pericolosi e droghe in tutto il mondo ogni giorno nelle sue diverse tipologie sia per ragioni mediche che   classf giu   Attenti ai farmaci pericolosi in commercio sono  e possono causare effetti collaterali gravi come la depressione o listinto al suicidio  classf mar   Molto spesso i farmaci che assumiamo hanno più rischi per la nostra salute che benefici Ogni anno la rivista francese Prescrire pubblica un  classf lug   Ascoltate bene amici perché QUESTI sono gli  FARMACI PIÙ PERICOLOSI sul pianeta Terra Si chiama Guerra contro i deboli  classf feb   Una recensione sui medicinali più pericolosi viene fatta da sette anni a questa parte dallOng francese Prescrire Recentente è stato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   Quando acquistiamo un farmaco per alleviare i nostri fastidi lo facciamo convinti di agire per il nostro bene e in tutta sicurezza ma non spre   classf feb   LOng francese Prescrire pubblica per il settimo anno consecutivo un rapporto sui farmaci da eliminare per curarsi meglio Una vera  Lelenco sottostante è stato pubblicato dal Sista Sanitario Americano ed include dei farmaci più o meno dannosi per la malattia di CharcotMarieTooth  classf feb   I farmaci più dannosi che utili secondo Prescrire associazione francese che analizza il rapporto rischibenefici dei farmaci  classf set   Provvedimenti AIFA su farmaci contenenti ranitidina  i rischi per il paziente limitando lesposizione alla sostanza potenzialmente dannosa  classf feb   Roma  febbraio  Prescrire ong nata in Francia per assicurare a operatori e opinione pubblica uninformazione assolutamente   classf feb   Una recensione sui medicinali più pericolosi viene fatta da sette anni a questa parte dallOng francese Prescrire Recentente è stato   classf gen   Spesso inutili talvolta dannosi Per molti farmaci il rapporto tra rischio e beneficio potrebbe essere sbilanciato a favore del primo soprattutto   classf mar   Molto spesso i farmaci che assumiamo hanno più rischi per la nostra salute che benefici Ogni anno la rivista francese Prescrire pubblica un  classf giu   Attenti ai farmaci pericolosi in commercio sono  e possono causare effetti collaterali gravi come la depressione o listinto al suicidio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf set   LAgenzia Italiana del Farmaco AIFA ha disposto il ritiro dalle farmacie e dalla catena distributiva di tutti i lotti di medicinali contenenti il   classf feb   LOng francese Prescrire pubblica per il settimo anno consecutivo un rapporto sui farmaci da eliminare per curarsi meglio Una vera   classf feb   Quando acquistiamo un farmaco per alleviare i nostri fastidi lo facciamo convinti di agire per il nostro bene e in tutta sicurezza ma non spre  Farmaci pericolosi ritirati dal commercio alt di CINZIA RIPA Ognuno di noi anche per un splice mal di testa subito assume una medicina per sentirsi meglio   classf feb   I farmaci più dannosi che utili secondo Prescrire associazione francese che analizza il rapporto rischibenefici dei farmaci  classf feb   Una recensione sui medicinali più pericolosi viene fatta da sette anni a questa parte dallOng francese Prescrire Recentente è stato   classf set   Medicinali pericolosi in commercio che ora si sta facendo il  LAgenzia Italiana del Farmaco AIFA ha disposto il ritiro dalle farmacie e dalla   classf lug   Non spre mettersi al volante sotto effetto di farmaci può essere una buona idea Ne esistono alcuni poi che come indica un recente rapporto   classf giu   Attenti ai farmaci pericolosi in commercio sono  e possono causare effetti collaterali gravi come la depressione o listinto al suicidio  marzo  Distribuzione di farmaci pericolosi NAS di Salerno sequestra due farmacie e un deposito di medicinali e denuncia  persone per truffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf set   Ritirati  lotti di farmaci forse cancerogeni  Si accusano i medici di famiglia o gli stessi pazienti di non scegliere i farmaci generici lamenta  Farmaci Ritirati e vietati dal Commercio Nota AIFA nr  del  Ottobre  Ritiro ZANTAC  mg  compresse rivestite con film  codice AIC n  classf set   LAifa Agenzia Italiana del Farmaco negli scorsi giorni aveva ritirato lotti contenenti  Caso Ranitidina Ema testare tutti i farmaci per impurità  ora essere rivalutati compresi i farmaci generici e di automedicazione OTC Elenco dei lotti ritirati in Italia A luglio  la Commissione  Ritiro di un lotto di Irbesartan della Doc Generici Srl  Comunicazione EMA sul   classf lug   LAifa ritira lotti di farmaci generici contenenti un potenziale  sia stato possibile individuare questa potenziale sostanza tossica nei lotti ritirati  classf lug   Ritirati diversi lotti di farmaci a base del principio attivo valsartan  Valsartan Doc e Cantensio Doc Generici Valsartan Almus Almus   classf set   LAgenzia Italiana del Farmaco ha bloccato a scopo precauzionale i medicinali  Ranitidina nel mirino dellAifa la lista di tutti i farmaci ritirati  sono due case farmaceutiche di farmaci generici mentre Zantac e Ranidil sono i   classf mar   Farmaci generici ritirati dal commercio oltre  basati su studi inaffidabili Dati sfasati o totalmente inventati questo è quanto erge dai   classf set   Ranitidina e farmaci ritirati lallerta dellAifa Attenzione alle liste fake  dunquewbr essere esaminati compresi i farmaci generici e da banco wbr  classf set   Gli altri farmaci ritirati dal mercato o bloccati per precauzione sono  fiale Ranitidina Doc Generici Ranitidina Eg Ranibloc Ranitidina Pensa </t>
+  </si>
+  <si>
+    <t>Farmaci Ritirati e vietati dal Commercio Nota AIFA nr  del  Ottobre  Ritiro ZANTAC  mg  compresse rivestite con film  codice AIC n  classf set   Si tratta di farmaci con all interno la ranitidina un principio attivo molto  a trattare l ulcera e il reflusso gastroesofageo e le orragie del primo  Si accusano i medici di famiglia o gli stessi pazienti di non scegliere i farmaci generici  mettono in commercio questi farmaci e prevedere anche sanzioni  LAgenzia Italiana del Farmaco ha disposto il ritiro di diversi lotti di farmaci a  Se il farmaco che assumi non è tra quelli indicati nellelenco puoi continuare   classf lug   LAifa ritira lotti di farmaci generici contenenti un potenziale cancerogeno diciamo  in competizione con i farmaci di marca in commercio già da decenni  Elenco farmaci equivalenti per principio attivo  Valsartan pagg Un instant book gratuito del Salvagente con tutti i lotti di ranitidina ritirati o wbrsconsigliati  LAgenzia italiana del farmaco ha pubblicato un nuovo elenco di lotti di wbr  classf set   LAgenzia Italiana del Farmaco ha bloccato a scopo precauzionale i medicinali a  Lelenco completo dei farmaci sia quelli ritirati che quelli al  quando sono entrati in commercio i farmaci generici ogni tanto cè il ritiro di   classf lug   I farmaci ritirati dal mercato sono in commercio con diversi nomi  Crinos Valsartan Doc e Cantensio Doc Generici Valsartan Almus Almus Valsartan  LAifa pubblica sul proprio sito lelenco completo dei farmaci ritirati Liste di trasparenza farmaci equivalenti Elenco dei medicinali per principio attivo aggiornamento del  Elenco dei medicinali per nome   lAgenzia Italiana del Farmaco rende disponibili per tutti gli Operatori sanitari le tabelle contenenti lelenco dei farmaci di fascia A e H dispensati dal   classf set   Lelenco completo dei farmaci ritirati dal mercato pdf  gt Lelenco completo dei farmaci per cui è disposto il divieto duso pdf Il motivo del </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   Ecco la nuova lista nera dei farmaci per i quali il rapporto tra rischio e benefici è sfavorevole in tutte le situazioni cliniche  classf giu   Attenti ai farmaci pericolosi in commercio sono  e possono causare effetti collaterali gravi come la depressione o listinto al suicidio  classf feb   Quando acquistiamo un farmaco per alleviare i nostri fastidi lo facciamo convinti di agire per il nostro bene e in tutta sicurezza ma non spre   classf feb   Inutili e dannosi Il rapporto tra rischi e benefici nelluso di molti medicinali è decisamente sbilanciato a favore dei primi non curano e anzi  Consultazione pubblica su lista farmaci pericolosi per la guida ai sensi dellex art  della legge  Avviso alle Aziende  LAgenzia Italiana  LELENCO DEI FARMACI DA EVITARE SECONDO IL RAPPORTO  DI  Quando il paracetamolo non è sufficiente farmaci antinfiammatori a base di   classf mar   Molto spesso i farmaci che assumiamo hanno più rischi per la nostra salute che benefici Ogni anno la rivista francese Prescrire pubblica un  classf set   LAgenzia Italiana del Farmaco ha bloccato a scopo precauzionale i medicinali a base di rainitidina  Lelenco completo dei farmaci sia quelli ritirati che quelli al momento vietati è  Il Cletus risulta tra i farmaci pericolosi  classf set   E a questo che sta pensando con tutte le proprie forze lAgenzia Italiana per il Farmaco Medicinali pericolosi in quanto infetti che ora devono   classf feb   Una recensione sui medicinali più pericolosi viene fatta da sette anni a questa parte dallOng francese Prescrire Recentente è stato </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  I farmaci equivalenti sono farmaci a tutti gli effetti e possono essere messi in  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza  farmaco di marca deve costare allatto della registrazione almeno il  in menowbrwbr  classf mar   Ma parlando di efficacia quanto ne sappiamo realmente  a Il farmaco equivalente può contenere più o meno principio attivo rispetto al   classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca Il generico può contenere sino al  in meno di principio attivo rispetto alla  Bioequivalenza ed efficacia sono due cose differenti non esistono prove che   classf mar   Le bufale sulla salute svelate su Metro dallIstituto Superiore di Sanità wwwwbrissaluteit I farmaci generici o equivalenti hanno dimostrato una wbr Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  I farmaci equivalenti sono molto più economici dei prodotti originali hanno un prezzo  avere fino al  di principio attivo in meno rispetto ai farmaci originaliwbrwbr  classf nov   Dice ancora Uda Gli eccipienti usati per i generici sono comunque gli  nei generici possono cambiare ma non ne influenzano lefficacia  classf lug   Farmaci generici cosa sono la loro efficacia Tutto sui farmaci  Ma allora perché i farmaci generici costano meno rispetto a quelli originali Il farmaco generico o meglio equivalente Legge  è un farmaco a base di uno o più principi  La qualità di un farmaco di marca e la qualità di un farmaco generico sono sovrapponibili  Questo non lo rende meno efficace  classf apr   Certo soldi dei cittadini visto che non sono mutuabili ma con ovvia ricaduta  In genere credo che il farmaco generico sia meno efficace del </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf mar   a Il farmaco equivalente può contenere più o meno principio attivo rispetto al griffato purché la differenza non superi il   FALSO La differenza del   per definire la bioequivalenza tra farmaco di marca e  Il generico può contenere sino al  in meno di principio attivo rispetto alla  Il farmaco equivalente può avere il nome del principio attivo seguito da quello del  di marca deve costare allatto della registrazione almeno il  in meno Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  possono avere fino al  di principio attivo in meno rispetto ai farmaci originali  classf gen   Home Letteratura Area Farmaco Equivalente I farmaci generici possono contenere il  in più o in meno di principio attivo rispetto al farmaco   classf feb   Cosè un farmaco equivalente È un farmaco con lo stesso principio attivo wbrsostanza avente effetto curativo efficacia sicurezza qualità wbr  classf ott   Per facilitare lutilizzo di medicinali equivalenti rispetto ai corrispettivi  il nome del principio attivo accompagnandolo eventualmente dalla  di pazienti o patologie in cui è meno indicato il ricorso al farmaco equivalente  classf feb   È vero che i generici possono avere fino al  di principio attivo in meno rispetto ai farmaci originali I generici devono avere la stessa  Infatti un farmaco equivalente o generico non può essere messo in  avere lo stesso principio attivo ossia la sostanza responsabile del suo effetto   COME MAI I FARMACI EQUIVALENTI COSTANO MENO DI QUELLI DI MARCA  classf apr   Se il farmaco generico contiene il  in più o il  in meno di principio attivo come si fa a sostenere che sia equivalente a quello di marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Per quale motivo se la sostanza è la stessa il farmaco equivalente può  Il farmaco equivalente può avere il nome del principio attivo seguito da  nuovo principio attivo lo brevetta dando vita a una specialità medicinale con nome di fantasia  classf mag   Se decido di cambiare farmaco otterrò gli stessi effetti  di due medicinali contenenti lo stesso principio attivo è un modo cruciale di valutare   classf dic   Tra farmaci originali e farmaci equivalenti sia il principio attivo sia la  la terapia con lo stesso medicinale sia esso originatore o equivalente  classf mar   Nella maggior parte dei casi i farmaci generici funzionano e non cè  ma con lo stesso principio attivo come potrebbe risultare quella di un  Il medico prescrittore il farmacista e lo stesso paziente hanno a disposizione le  quando i due preparati contengono lo stesso principio attivo nella stessa quantità e nella stessa  Un farmaco di marca può essere sostituito con lequivalente I farmaci equivalenti contengono lo stesso principio attivo e anche nella   viene di fatto sostituita la denominazione di medicinale generico con quella di   classf giu   Nei casi in cui sono presenti in commercio più farmaci equivalenti contenenti lo stesso principio attivo  il SSN rimborsa al cittadino limporto   classf mar   a Il farmaco equivalente può contenere più o meno principio attivo  attivo e presenta la stessa biodisponibilità di un altro di marca con  Si definiscono bioequivalenti due medicinali che contengono lo stesso principio attivo edopo la somministrazione della stessa dose in identiche condizioni  I farmaci equivalenti o generici sono copie di medicinali dal brevetto ormai scaduto contenenti le stesse quantità di principio attivo delloriginale  Icona LO STESSO PRINCIPIO ATTIVO  LA STESSA VIA DI SOMMINISTRAZIONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mag   Uno dei dubbi che maggiormente viene associato agli equivalenti riguarda lwbrefficacia Sarà come loriginale Se decido di cambiare farmaco wbr I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza  classf mar   Farmaco generico si o no Si sa cè chi preferisce le griffe anche nel farmaco Ma parlando di efficacia quanto ne sappiamo realmente  classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca Qual è la differenza fra farmaci equivalenti e farmaci generici  di Farmacovigilanza di reazioni avverse o di mancata efficacia associate ai medicinali  Risposte a cura del dottor Fiorenzo Corti medico di famiglia Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia La diversa salificazione può modificare lefficacia di un principio attivo  E possibile sostituire il farmaco di marca col generico anche se non hanno le stesse   classf dic   Una cosa deve interessarci che lefficacia non cambia perché leffetto di un farmaco equivalente  preferiamo questo aggettivo  sui disturbi o   classf nov   Il farmaco generico  dice Silvio Garattini direttore dellIstituto  eccipienti nei generici possono cambiare ma non ne influenzano lefficacia  classf lug   Ecco tutto ciò che cè da sapere sui farmaci generici anche detti farmaci equivalenti la loro efficacia i vantaggi derivanti dal loro utilizzo e </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> divNessuna informazione disponibile per questa paginadiv
+div classfa hrefhttpssupportgooglecomwebmastersanswerhlit pingurlsatampsourcewebamprctjampurlhttpssupportgooglecomwebmastersanswerFhlDitampvedahUKEwiqOnNkeLlAhXEvZKHbfBLIQvxowAnoECAIQBAScopri perchéadiv  classf mar   a Il farmaco equivalente può contenere più o meno principio attivo rispetto al griffato purché la differenza non superi il   FALSO I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco di marca presentano stesso principio attivo stessa formawbr wbr I medicinali equivalenti devono rispettare gli stessi standard e controlli di qualità  della scadenza del brevetto del principio attivo del medicinale originatore Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  È vero che gli equivalenti possono avere fino al  di principio attivo in meno  I farmaci equivalenti contengono lo stesso principio attivo e anche nella stessa quantità che si trova nel farmaco di marca e soddisfano gli stessi requisiti  Infatti un farmaco equivalente o generico non può essere messo in commercio  avere lo stesso principio attivo ossia la sostanza responsabile del suo effetto Si definiscono bioequivalenti due medicinali che contengono lo stesso principio attivo edopo la somministrazione della stessa dose in identiche condizioni   classf gen   Home Letteratura Area Farmaco Equivalente I farmaci generici possono contenere il  in più o in meno di principio attivo rispetto al farmaco   non esistono equivalenti in verde i farmaci per i quali il brevetto è scaduto Tra questi troverai i farmaci equivalenti con il nome del principio attivo e i farmaci </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca  classf mar   Ma parlando di efficacia quanto ne sappiamo realmente  a Il farmaco equivalente può contenere più o meno principio attivo rispetto al  I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza  di marca deve costare allatto della registrazione almeno il  in meno Spesso  La differenza del   per definire la bioequivalenza tra farmaco di marca e generico è  Il generico può contenere sino al  in meno di principio attivo rispetto alla  La diversa salificazione può modificare lefficacia di un principio attivo  classf nov   Il farmaco generico  dice Silvio Garattini direttore dellIstituto  ad alcuni elenti per far sì che il loro uso sia corretto efficace e sicuro  più o in meno rispetto alloriginatore una forbice del  per cento che per alcune  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  possono avere fino al  di principio attivo in meno rispetto ai farmaci originali  classf mar   Le bufale sulla salute svelate su Metro dallIstituto Superiore di Sanità wwwwbrissaluteit I farmaci generici o equivalenti hanno dimostrato una wbr  classf apr   Da tpo esprimo dubbi sulla bioequivalenza dei generici  In genere credo che il farmaco generico sia meno efficace del farmaco di marca   classf lug   Efficacia farmaci generici perché funzionano Dunque con la  Ma allora perché i farmaci generici costano meno rispetto a quelli originali Il farmaco generico o meglio equivalente Legge  è un farmaco a base di uno o più principi attivi cioè le  Questo non lo rende meno efficace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mar   a Il farmaco equivalente può contenere più o meno principio attivo rispetto al griffato purché la differenza non superi il   FALSO Si definiscono bioequivalenti due medicinali che contengono lo stesso principio attivo edopo la somministrazione della stessa dose in identiche condizioni  I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco di marca presentano stesso principio attivo stessa formawbr wbr  classf feb   È vero che i generici possono avere fino al  di principio attivo in meno rispetto ai farmaci originali I generici devono avere la stessa   classf gen   Il farmaco generico definito anche equivalente a partire dal   del principio attivo presente nel farmaco generatore il farmaco di cui è   classf ott   In Italia la possibilità di sostituire dei medicinali generici con i loro originatori è  il nome del principio attivo accompagnandolo eventualmente dalla  Le percentuali si riferiscono alla frequenza con cui gli intervistati hanno  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  È vero che gli equivalenti possono avere fino al  di principio attivo in meno   classf set   Le leggende metropolitane sui farmaci generici sono molteplici e  di principio attivo in capo al farmaco generico rispetto al farmaco di marca  classf giu   Il principio attivo è lo stesso e viene assimilato dallorganismo nella  i farmaci equivalenti mentre tale percentuale in Italia è decisamente  Stesso principio attivo  Per i farmaci generici poiché il medicinale di riferimento è autorizzato da anni e sono già disponi  bassa percentuale di insuccesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mar   a Il farmaco equivalente può contenere più o meno principio attivo rispetto al griffato purché la differenza non superi il   FALSO I farmaci si definiscono generici o equivalenti quando rispetto alla specialità medicinale o farmaco di marca presentano stesso principio attivo stessa formawbr wbr Si definiscono bioequivalenti due medicinali che contengono lo stesso principio attivo edopo la somministrazione della stessa dose in identiche condizioni  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  È vero che gli equivalenti possono avere fino al  di principio attivo in meno   classf gen   Home Letteratura Area Farmaco Equivalente I farmaci generici possono contenere il  in più o in meno di principio attivo rispetto al farmaco  I farmaci equivalenti contengono lo stesso principio attivo e anche nella stessa quantità che si trova nel farmaco di marca e soddisfano gli stessi requisiti  Per medicinale generico o equivalente si intende un medicinale avente la stessa  della scadenza del brevetto del principio attivo del medicinale originatore  classf ott   supsupSocietà Italiana Farmacia Clinica SIFAC  Italy  eteri isomeri di una sostanza sono considerati lo stesso principio attivo se non presentano   classf feb   I farmaci generici o equivalenti hanno dimostrato una pari efficacia e  È un farmaco con lo stesso principio attivo sostanza avente effetto  Riassumendo un stesso principio attivo può essere commercializzato da  che un farmaco generico è equivalente e quindi sostituibile con il medicinale di </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf mag   Uno dei dubbi che maggiormente viene associato agli equivalenti riguarda lwbrefficacia Sarà come loriginale Se decido di cambiare farmaco wbr I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza  classf mar   Farmaco generico si o no Si sa cè chi preferisce le griffe anche nel farmaco Ma parlando di efficacia quanto ne sappiamo realmente  classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca I farmaci equivalenti sono unalternativa terapeutica equivalente ai farmaci  qualità lefficacia e la sicurezza del medicinale di prossima commercializzazionewbr wbr  classf lug   Qualità sicurezza ed efficacia lAifa fornisce alcuni chiarimenti su  Per una completa e dettagliata informazione sui farmaci equivalenti   Risposte a cura del dottor Fiorenzo Corti medico di famiglia Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia divNessuna informazione disponibile per questa paginadiv
+div classfa hrefhttpssupportgooglecomwebmastersanswerhlit pingurlsatampsourcewebamprctjampurlhttpssupportgooglecomwebmastersanswerFhlDitampvedahUKEwjZuMfLkeLlAhWJsJKHZYBzQvxowCXoECAcQBwScopri perchéadiv Medicinali Equivalenti Qualità sicurezza ed efficacia Un viaggio allo scoperta delle regole per autorizzare un medicinale equivalente generico  Efficacia Farmaci Equivalenti  il farmaco equivalente ha la stessa efficacia del farmaco di marca ed ha la stessa qualità poichè i farmaci sono uguali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf feb   No I farmaci generici o equivalenti hanno dimostrato una pari efficacia e sicurezza rispetto ai farmaci di marca  classf mar   Ma parlando di efficacia quanto ne sappiamo realmente  a Il farmaco equivalente può contenere più o meno principio attivo rispetto al  I farmaci si definiscono generici o equivalenti quando rispetto alla specialità  la pari efficacia del farmaco equivalente con quello di marca bioequivalenza  di marca deve costare allatto della registrazione almeno il  in meno Spesso   classf mag   Per stabilire lefficacia di un medicinale equivalente si deve  possa variare entro una finestra tra meno  per cento e più  per cento Per la  Il farmaco di marca e la sua versione equivalente hanno la stessa efficacia  possono avere fino al  di principio attivo in meno rispetto ai farmaci originali Il generico può contenere sino al  in meno di principio attivo rispetto alla relativa  La diversa salificazione può modificare lefficacia di un principio attivo  prove che generici e specialità siano equivalenti dal punto di vista clinico Il farmaco equivalente ha la stessa efficacia del farmaco di marca Per poter entrare in  Perché i farmaci equivalenti costano meno degli altri Lazienda chewbr wbr  classf apr   Bisognerebbe regolamentare meglio i farmaci equivalenti ma se il ministro  In genere credo che il farmaco generico sia meno efficace del   classf mar   Le bufale sulla salute svelate su Metro dallIstituto Superiore di Sanità wwwwbrissaluteit I farmaci generici o equivalenti hanno dimostrato una wbr  classf lug   Ciò si stabilisce se un farmaco rispetta o meno il criterio della  I farmaci equivalenti si distinguono dal punto di vista giuridico perché la loro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Acetilsalicilico DOC Generici  compressa gastroresistente Acido AcetilsalicilicoAntiaggreganti piastrinici Antipiretici Analgesici FANS a cosa serve  Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr  COMPOSIZIONE QUALITATIVA E QUANTITATIVA Ogni compressa gastroresistente contiene  mg di acido acetilsalicilico Per lelenco completo degli  Perciò è controindicato luso concomitante di metotressato a dosi gt mgwbrsettimana con ACIDO ACETILSALICILICO DOC Generici vedere paragrafo wbr  classf feb   ACIDO ACETILSALICILICO DOC Generici non è raccomandato in situazioni di ergenza Luso è limitato alla prevenzione secondaria con   classf lug   ACIDO ACETILSALICILICO DOC Generici  mg compresse gastroresistenti Medicinale equivalente Legga attentamente questo foglio  ACIDO ACETILSALICILICO DOC Generici non è raccomandato in situazioni di ergenza Luso è limitato alla prevenzione secondaria con trattamento cronico  classf ago   Estratto determinazione n  del  agosto  Medicinale ACIDO ACETILSALICILICO DOC Generici Titolare AIC DOC Generici  Acido Acetilsalicilico DOC Generici  cpr gastrores  mg Ritorna ai risultati della ricerca Tipo prodotto Farmaci Gruppo terapeutico ACIDO  Sangue ed organi opoietici Antitrombotici Antiaggreganti piastrinici esclusa lwbreparina Acido acetilsalicilico Produttore DOC GENERICI Srl Tperatura di wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Acido Acetilsalicilico DOC Generici  compressa gastroresistente Acido AcetilsalicilicoAntiaggreganti piastrinici Antipiretici Analgesici FANS a cosa serve   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  La combinazione di Acido acetilsalicilico ASA e Vitamina C è un  Acido acetilsalicilico Angenerico compresse è controindicato in caso di  ipersensibilità al  Reazioni di ipersensibilità Lacido acetilsalicilico e gli altri FANS possono causare reazioni di  Ottima aspirina generica ad un ottimo prezzo  Perciò è controindicato luso concomitante di metotressato a dosi gt mgwbrsettimana con ACIDO ACETILSALICILICO DOC Generici vedere paragrafo wbr Prodotti farmaceutici a base di ACIDO ACETILSALICILICO con foglietti illustrativi e schede tecniche di tutti i medicinali Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Le migliori offerte per Acido Acetilsalicilico in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia  classf ago   Acido Acetilsalicilico tutti i farmaci che contengono questo principio  Tipo Farmaco Generico Classe di prescrivibilità C  A totale carico del  Acido acetilsalicilico Angelini è un analgesicoantipiretico che si usa per il trattamento sintomatico di stati febbrili e dolorosi Compresse effervescenti</t>
+  </si>
+  <si>
+    <t>Il farmaco originario laspirina ad espio e la sua versione equivalente  di tolleranza del  nella biodisponibilità di un generico rispetto alloriginale  Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Ottima aspirina generica ad un ottimo prezzo Ottimo sostituto dell aspirina efficente e economico  aspirinachi non la conosce e usa  Carica più recensioni  classf mar   Volete conoscere tutti i farmaci equivalenti dellAspirina  se esiste un farmaco generico equivalente di costo inferiore utile per risparmiare  Fino allingresso sul panorama italiano dei Farmaci Generici o Equivalenti il  Espio Aspirina nome commerciale contiene Acido Acetilsalicilico nome delwbr wbr  classf mag   ltBgtRisposta Coop allaspirinaltbrgtcosta la metà dell  Quando le molecole sono uguali a quelle dei generici dovrebbe esserci un percorso  Le migliori offerte per Acido Acetilsalicilico in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia BAYER SpA Aspirina Dolore Infiammazione  compresse mg  Aspirina ASPIRINA DOLORE INFCPR MG  Farmaci da Banco PRINCIPI ATTIVI   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando </t>
+  </si>
+  <si>
+    <t>Acido acetilsalicilico Angenerico compresse è controindicato in caso di  Reazioni di ipersensibilità Lacido acetilsalicilico e gli altri FANS possono  Ottimo sostituto del più famoso farmaco a base di acido acetilsalicilico d un prezzo buono  Le migliori offerte per Acido Acetilsalicilico in Prodotti Salute sul primo comparatore italiano  Acido Acetilsalicilico il miglior prezzo in Prodotti Salute è di   Le migliori offerte per Acido Acetilsalicilico in Farmaci da Banco sul primo  Angelini Acido acetilsalicilico  compresse mg Da    Prezzo crescente Principio attivo ACIDO ACETILSALICILICO   prezzo indicativo  la presenza di orragie intracerebrali ACIDO ACETILSALICILICO DOC Generici non è  Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Acido acetilsalicilico Angelini è un analgesicoantipiretico che si usa per il trattamento sintomatico di stati febbrili e dolorosi Compresse effervescenti  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  La combinazione di Acido acetilsalicilico ASA e Vitamina C è un  Frobeflu è un farmaco generico in compresse effervescenti che si usa nel trattamento sintomatico di stati febbrili e dolorosi come antipiretico  Prezzo listino    Compresse effervescenti a base di acido acetilsalicilico e acido ascorbico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  Il Paracetamolo è un analgesico e antipiretico molto efficace e ben   classf set   Ma non è finita qui perché se si sceglie il farmaco generico a base di Paracetamolo si può risparmiare ancora di più Abbiamo acquistato una  Paracetamolo Doc Generici  compressa ParacetamoloAntipiretici Analgesici FANS a cosa serve come e quando assumerlo interazioni effetti collaterali e  PARACETAMOLO ZENTIVA  mg compresse Ogni compressa contiene  mg  Molto piú conveniente rispetto al generico della farmacia assolutamente  Avete la febbre ma non avete in casa la Tachipirina Allora scopriamo insie quali sono i suoi possibili equivalenti  classf gen   E di poche ore fa la notizia del ritiro cautelativo volontario di un altro farmaco generico Paracetamolo ovvero la versione equivalente della  PARACETAMOLO DOC Generici  mg compresse è indicato per il trattamento sintomatico del dolore da lieve a moderato e della febbre Come antipiretico trattamento sintomatico di affezioni febbrili quali linfluenza le malattie esantatiche le affezioni acute del tratto respiratorio ecc Come   classf giu   Il farmaco generico altro non è che una copia di quello di marca più  Il suo principio attivo è il Paracetamolo e siccome il farmaco di marca è  Le migliori offerte per Paracetamolo in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Chi cerca </t>
+  </si>
+  <si>
+    <t>La pubblicità ci dice che cè un farmaco antinfiammatorio adatto ad ogni situazione  Preferisci i farmaci generici o equivalenti cioè chiamati con il nome del  Farmaè  vendita online di parafarmaci prodotti per linfanzia generi di largo consumo e cosmesi La tua farmacia online  classf mag   I farmaci antinfiammatori non steroidei FANS sono ampiamente utilizzati  Possono essere venduti come generici o come prodotti di marca e  Ibuprofene  Farmaco Generico Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali  classf mag   I farmaci antinfiammatori si dividono in due grandi classi quelli stereoidei e quelli non stereoidei chiamati FANS Vengono impiegati per il  Tutti i farmaci antinfiammatori delle migliori case farmaceutiche Antipiretici e farmaci per il dolore e linfiammazione in offerta Pagamenti sicuri e SPEDIZIONEwbr wbr Gli antinfiammatori sono una categoria di farmaci importantissima  ma non potranno diventare un punto di riferimento per la terapia antinfiammatoria generica  classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che  Nimesulide è un farmaco antinfiammatorioanalgesico molto  Farmaci antinfiammatori per dolori mestruali mal di testa e denti dolori articolari e muscolari Acquista online senza ricetta Spedizioni rapide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  La combinazione di Acido acetilsalicilico ASA e Vitamina C è un  Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Ricordo che due farmaci sono equivalenti se comprendono la stessa  Il medico può prescrivere il nome del principio attivo ad espio acido acetilsalicilico   assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  Acido Acetilsalicilico Sandoz  mg  compresse gastroresistenti  Prodotti farmaceutici a base di ACIDO ACETILSALICILICO con foglietti illustrativi e schede tecniche di tutti i medicinali Acido acetilsalicilico Angelini è un analgesicoantipiretico che si usa per il trattamento sintomatico di stati febbrili e dolorosi  Cerca Farmaci Equivalenti per  classf mar   Volete conoscere tutti i farmaci equivalenti dellAspirina Scopriamoli insie Fino allingresso sul panorama italiano dei Farmaci Generici o Equivalenti il  Espio Aspirina nome commerciale contiene Acido Acetilsalicilico nome delwbr wbr Le migliori offerte per Acido Acetilsalicilico in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Ottima aspirina generica ad un ottimo prezzo Ottimo sostituto dell aspirina efficente e economico  aspirinachi non la conosce e usa  Carica più recensioni Il farmaco originario laspirina ad espio e la sua versione equivalente  di tolleranza del  nella biodisponibilità di un generico rispetto alloriginale   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai cittadini che vogliono essere informati per fare scelte consapevoli stando  Le migliori offerte per Acido Acetilsalicilico in Farmaci da Banco sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Le migliori offerte per Acido Acetilsalicilico in Prodotti Salute sul primo comparatore italiano  Tutte le informazioni che cerchi in un unico sito di fiducia Fino allingresso sul panorama italiano dei Farmaci Generici o Equivalenti il  Espio Aspirina nome commerciale contiene Acido Acetilsalicilico nome delwbr wbr  classf mar   Volete conoscere tutti i farmaci equivalenti dellAspirina  se esiste un farmaco generico equivalente di costo inferiore utile per risparmiare </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acido Acetilsalicilico  Farmaco Generico Per quali malattie si usa A cosa Servewbr Come si utilizza e quando non devessere usato Avvertenze ed Effetti wbr Acido Acetilsalicilico DOC Generici  compressa gastroresistente Acido AcetilsalicilicoAntiaggreganti piastrinici Antipiretici Analgesici FANS a cosa serve  Acido acetilsalicilico Angenerico compresse è controindicato in caso di  ipersensibilità al  Reazioni di ipersensibilità Lacido acetilsalicilico e gli altri FANS possono causare reazioni di  Ottima aspirina generica ad un ottimo prezzo   classf gen   Il portale dei farmaci generici equivalenti dedicato alle famiglie e ai  La combinazione di Acido acetilsalicilico ASA e Vitamina C è un  Perciò è controindicato luso concomitante di metotressato a dosi gt mgwbrsettimana con ACIDO ACETILSALICILICO DOC Generici vedere paragrafo wbr Acido Acetilsalicico ad azione antinfiammatoria ed analgesica per sintomi influenzali e per dolori di varia natura mal di testa mal di denti nevralgie ecc Acido acetilsalicilico Angelini è un analgesicoantipiretico che si usa per il trattamento sintomatico di stati febbrili e dolorosi Compresse effervescenti  classf feb   ACIDO ACETILSALICILICO DOC Generici non è raccomandato in situazioni di ergenza Luso è limitato alla prevenzione secondaria con   classf ago   Acido Acetilsalicilico tutti i farmaci che contengono questo principio  Tipo Farmaco Generico Classe di prescrivibilità C  A totale carico del </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un farmaco è biotecnologico quando contiene un principio attivo costituitowbrderivato da un organismo vivente o da sue parti Ne esistono di varie tipologie tra cui wbr richia coli si cominciò a produrre il primo farmaco biotecnologico linsulina ricombinante che ha rivoluzionato la cura di milioni di dia betici consentendo loro  Scopri come sono fatti i medicinali o farmaci biologici che assumiamo per prevenire  Lo sviluppo dei farmaci biotecnologici ha consentito di trattare in diverse  In questo scenario si inseriscono i cosiddetti farmaci biologicibiotecnologici Prodotti per la prima volta nel  i farmaci biotecnologici hanno rivoluzionato la  I FARMACI BIOTECNOLOGICI E BIOSIMILARI Olga Addimanda Riccardo Meliconi SSD Medicina e Reumatologia  Istituto Ortopedico Rizzoli Università di  industriale per produrre la proteina Cosèunfarmaco biotecnologico Farmaco progettato mediante la tecnologia del DNA ricombinante Farmaco di sintesi  classf gen   I medicinali biologici sono farmaci il cui principio attivo è  Secondo il Primo Rapporto di ricerca  i farmaci biotecnologici e le politiche  La rivoluzione dei farmaci biologici in medicina inizia nel  quando  il primo farmaco biotecnologico l insulina ricombinante una metodica capace di dar  I farmaci tradizionali non biotecnologici sono ottenuti da molecole chimiche wbrstandard e cioè da materiale non vivente tramite reazioni chimiche stwbr Vai al contenuto principale English corner  AIFA Agenzia Italiana del Farmaco logo  Approfondimento su farmaci biotecnologici e biosimilari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  i farmaci biotecnologici  le principali differenze tra biotech e farmaci tradizionali  i farmaci biosimilari  il quadro regolatorio europeo  le Draft guidance  Un farmaco è biotecnologico quando contiene un principio attivo costituitowbrderivato da un organismo vivente o da sue parti Ne esistono di varie tipologie tra cui wbr Scopri come sono fatti i medicinali o farmaci biologici che assumiamo per prevenire  Lo sviluppo dei farmaci biotecnologici ha consentito di trattare in diverse  In questo scenario si inseriscono i cosiddetti farmaci biologicibiotecnologici Prodotti per la prima volta nel  i farmaci biotecnologici hanno rivoluzionato la  I FARMACI BIOTECNOLOGICI E BIOSIMILARI Olga Addimanda Riccardo Meliconi SSD Medicina e Reumatologia  Istituto Ortopedico Rizzoli Università di  Farmaci Biotecnologici Mariapia Vairetti Dipartimento di Medicina Interna e Terapia Sezione di Farmacologia e Tossicologia Cellulare e Molecolare  Vengono generate da una fonte non nativa non esistente come tale in naturawbr Lingegnerizzazione del sista biologico può consistere nellawbr Vai al contenuto principale English corner  AIFA Agenzia Italiana del Farmaco logo  Approfondimento su farmaci biotecnologici e biosimilari   classf giu   Si terrà il prossimo  giugno a Roma  dalle ore  alle ore  presso la Feltrinelli Libri e Musica allinterno della Galleria Alberto Sordi  Farmaci biotecnologici Farmaci biologici ottenuti mediante processi biotecnologici  Farmaci proteine o glicoproteine ottenuti mediante processi diwbr wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i farmaci biotecnologici  le principali differenze tra biotech e farmaci tradizionali  i farmaci biosimilari  il quadro regolatorio europeo  le Draft guidance  Farmaci Biotecnologici Mariapia Vairetti Dipartimento di Medicina Interna e Terapia Sezione di Farmacologia e Tossicologia Cellulare e Molecolare I FARMACI BIOTECNOLOGICI E BIOSIMILARI Olga Addimanda Riccardo Meliconi SSD Medicina e Reumatologia  Istituto Ortopedico Rizzoli Università di   classf nov    a cura del SGL VALORE DEL FARMACO BIOTECH Executive Summary Lwbrinnovazione farmaceutica biotecnologica deve rappresentare un wbr  Vengono generate da una fonte non nativa non esistente come tale in naturawbr Lingegnerizzazione del sista biologico può consistere nellawbr Prodotti per la prima volta nel  i farmaci biotecnologici hanno rivoluzionato la vita di molti pazienti favorendo un maggiore accesso alle cure e offrendo  Roma  maggio  IFO Regina Elena Atti del convegno nazionale Farmaci biotecnologici e biosimilari Associazione Italiana di Oncologia medica  Farmaci biotecnologici Farmaci biologici ottenuti mediante processi biotecnologici  Farmaci proteine o glicoproteine ottenuti mediante processi diwbr wbr POSITION PAPER  Farmaci Biotencologici e Biosimilari   I medicinali biologici e quelli biotecnologici sono farmaci prevalentente costituiti da proteine  Denominazione e identificazione dei farmaci biologici compresi i farmaci  mero di farmaci biotecnologici è in fase di sviluppo clinico dallaltro la prima gene razione di questi  VariationhumanWCpdf  ICH topic S </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tadalafil Lilly  Cialis  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf set   Il brevetto che copre il Tadalafil principio attivo di Cialis scadrà nel  Cheap  mg cialis farmaco equivalente prodotto equivalente al   classf set   Levitra equivalente Viagra o levitra Cialis online pagamento alla consegna Il giorno di San Valentino appunto Cuanto más tipo persista   classf ott   La tutela della pillola dellamore è in scadenza A novbre dovrebbe arrivare in farmacia lequivalente del tadalafil Il farmaco è stato il più  Equivalenti di a base di Tadalafil In cosa si assomigliano e si differenziano dal farmaco originale Un breve ritratto dei generici equivalenti a   classf mar   Volete provare unalternativa al farmaco Cialis Ecco tutti i suoi farmaci equivalenti in commercio Prodotti farmaceutici a base di TADALAFIL con foglietti illustrativi e schede tecniche di tutti i medicinali  classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  scaduto viene venduto sotto forma di equivalente il resto ha il brand Tadalafil Sandoz  compressa rivestita TadalafilDisfunzione erettile a cosa serve  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  classf mag   tadalafil generico realizzato da industrie farmaceutiche di genericiequivalenti tadalafil galenico realizzato dal Farmacista Galenista</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tadalafil Lilly  Cialis  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf set   Il brevetto che copre il Tadalafil principio attivo di Cialis scadrà nel  Cheap  mg cialis farmaco equivalente prodotto equivalente al   classf set   Prodotto equivalente al cialis bretagna Its That Simple Dove acquistare Viagra online sicuro in Italia con consegna veloce Fra questi cè   classf ott   La tutela della pillola dellamore è in scadenza A novbre dovrebbe arrivare in farmacia lequivalente del tadalafil Il farmaco è stato il più  Equivalenti di a base di Tadalafil In cosa si assomigliano e si differenziano dal farmaco originale Un breve ritratto dei generici equivalenti a   classf mar   Volete provare unalternativa al farmaco Cialis Ecco tutti i suoi farmaci equivalenti in commercio  classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  scaduto viene venduto sotto forma di equivalente il resto ha il brand Prodotti farmaceutici a base di TADALAFIL con foglietti illustrativi e schede tecniche di tutti i medicinali Tadalafil Sandoz  compressa rivestita TadalafilDisfunzione erettile a cosa serve  interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti Le pillole di Cialis sono compresse gialle e a forma di mandorla Esistono molte versioni generiche di Cialis che non sono autorizzate al commercio e che </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  classf ott   La tutela della pillola dellamore è in scadenza A novbre dovrebbe arrivare in farmacia lequivalente del tadalafil Il farmaco è stato il più  Tadalafil Lilly  Cialis  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf set   Cheap  mg cialis farmaco equivalente prodotto equivalente al cialis italia senza ricetta viagra generico pastiglie morbide Cialis è un  Equivalenti di a base di Tadalafil In cosa si assomigliano e si differenziano dal farmaco originale Un breve ritratto dei generici equivalenti a   classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  scaduto viene venduto sotto forma di equivalente il resto ha il brand TADALAFIL DOC Generici Confezioni disponibili  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv Prodotti farmaceutici a base di TADALAFIL con foglietti illustrativi e schede tecniche di tutti i medicinali  classf mar   Volete provare unalternativa al farmaco Cialis Ecco tutti i suoi farmaci equivalenti in commercio Le pillole di Cialis sono compresse gialle e a forma di mandorla Esistono molte versioni generiche di Cialis che non sono autorizzate al commercio e che   classf ott   Cialis arriva il generico sesso la pillola in vendita a sei euro  Il Cialis tra i farmaci per la disfunzione erettile è quello più conosciuto e più </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tadalafil Lilly  Cialis  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni   classf set   Il brevetto che copre il Tadalafil principio attivo di Cialis scadrà nel  Cheap  mg cialis farmaco equivalente prodotto equivalente al   classf ott   La tutela della pillola dellamore è in scadenza A novbre dovrebbe arrivare in farmacia lequivalente del tadalafil Il farmaco è stato il più  Equivalenti di a base di Tadalafil In cosa si assomigliano e si differenziano dal farmaco originale Un breve ritratto dei generici equivalenti a   classf mar   Volete provare unalternativa al farmaco Cialis Ecco tutti i suoi farmaci equivalenti in commercio Prodotti farmaceutici a base di TADALAFIL con foglietti illustrativi e schede tecniche di tutti i medicinali  rivestita TadalafilDisfunzione erettile a cosa serve come e quando assumerlo interazioni effetti collaterali e indesiderati confezioni farmaci equivalenti  classf ott   Anche il Cialis concorrente del Viagra avrà presto il suo generico  Il noto farmaco contro la disfunzione erettile è solo uno dei  che in questi mesi  scaduto viene venduto sotto forma di equivalente il resto ha il brand TADALAFIL DOC Generici Confezioni disponibili  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv con film  mg  cpr riv  classf mag   Farmacie che vendono e preparano farmaci a base di tadalafil  farmaceutiche di genericiequivalenti tadalafil galenico realizzato dal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf ott   Il brevetto del Cialis scade Nelle farmacie arriva a novbre il generico della wbrpillola dellamore Ecco la storia del farmaco di San Valentinowbr  classf set   Cialis dove comprare online acquistare cialis generico farmacia dove posso comprare cialis senza ricetta Chiaramente autosensing erezioni   classf set   Libido with far fewer side effects compared to con prezzo cialis generico  mg in farmacia miglior new study viagra pagamento Its That  Cialis Generico è un farmaco per migliorare lerezione viene prodotto da unwbrazienda indiana Ajanta Pharma Generico è considerato un efficace sostituto diwbr wbrwbr Cialis Per quali malattie si usa A cosa Serve Come si utilizza e quando non devessere usato Avvertenze ed Effetti Collaterali Le pillole di Cialis sono compresse gialle e a forma di mandorla Esistono molte versioni generiche di Cialis che non sono autorizzate al commercio e che  Acquistare cialis generico online Сiagra a consegna rapida in qualsiasi regione dItalia Anonimo e sicuro Acquistare cialis in farmacia senza ricetta Cialis Generico Prezzo Più Basso  Accettiamo VisaMasterCard  Spedizione Veloce   DI SCONTO sul tuo prossimo acquisto  Farmaci Generici e  Vendita Online Cialis Generico  Accettiamo le carte Visa MasterCard  Farmaci Senza Ricetta Medica  Prezzi Speciali  Consegna Rapida Cialis Generico Senza Ricetta In Farmacia Prima di iniziare alla ricerca di una soluzione dobbiamo prima definire il probla Che cosa è la disfunzione </t>
+  </si>
+  <si>
+    <t>Ho preso le Calis generico è arrivato dopo  settimane ho pagato  euro circa  professionale come comprato in una farmacia tradizionale non so cosa dire Acquistato viagra generico soft mg mi sono pervenute da mg E fin qui   mar   sbrano originali ma confrontate con quelle comprate in farmacia si vede la differenza sono dei ciarlatani da denuncia  evitate assolutamente  Sulla base dei titoli Ricerca farmacia generica  recensioni Formazione del scelti i candidati da Al termine del periodo farmacista collaboratore viagra  mg  In relazione una necessaria propedeutici allo vo farmacia generica  recensioni kamagra  aprile per lesecuzione Oltre alla borsa di OFFRESI farmacia  Ed il consumatore per autotutelarsi deve prestare attenzione anche ai prezzi che  Abbiamo analizzato il prezzo di  farmaci tra i più venduti in un campione di   Le farmacie e le parafarmacie autorizzate a vendere i farmaci anche online  occhio ai nuovi effetti collaterali  Ricetta è il medico a decidere sul generico   classf ago   Ecco un breve elenco delle farmacie sicure e affidabili presenti sul web  Spediscono in tutta Italia e in Europa in  ore Il Dottor Luigi   classf mag   Sono già mila le farmacie illegali chiuse sul web nei primi mesi del  circa il  del totale prodotto e riguardano sia i generici che quelli di  Tag cialis o viagra dove acquistare Viagra Italia farmacia Italia Viagra farmacia online Viagra in Italia  oppure per il generico qui  generico httppillorg Tablets india basso costo levitra generico italia farmacia svizzera pillole online vendita Sildenafil acquisto costo in farmacia generico naturale cialis prezzi    Chev Chelios Teva è unottima marca di generici    provato e non ci sono recensioni sul forum   TadàBear Farmacie miopi</t>
+  </si>
+  <si>
+    <t>La legislazione di farmacovigilanza  Il medicinale equivalente generico va visto spiega nella prefazione il Direttore Generale dellAIFA Luca  Il termine wbrmedicinale generico è la traduzione italiana della definizione  generic medicinal wbr Il primo intervento normativo atto a favorire lintroduzione del farmaco generico è rappresentato dalla Legge Finanziaria del  L n del  che  Il farmaco generico o equivalente è stato introdotto nella legislazione italiana dallart  comma  della L  n  Lart  del DLgs    classf feb   Legislazione sui farmaci equivalenti provvedimenti regionali risparmi realizzati e possibili con luso dei farmaci genericati Dottssa Maria   classf mag   Ecco quando un farmaco può essere considerato equivalente  classf mar   Farmaco generico si o no Si sa cè chi preferisce le griffe anche  Secondo la legislazione di tutto il mondo due prodotti medicinali si dicono   classf mag    La legislazione nazionale sui farmaci generici   attuale del sista dei farmaci generici guardando al ruolo che questa categoria di reazioni allergiche ed è noto che i farmaci contenenti  Infatti un farmaco equivalente o generico non può  legislazione europea in materia di medicinali  Facoltà di Scienze del Farmaco Università degli Studi di Milano email  ne di medicinale generico  ovvero un medicinale che presenta uguale composizio  classf apr   Chiarimenti su quanto disposto dal Decreto Legge  art  comma wbrbis convertito nella Legge  e successive modifiche e wbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come suggerito dalla parola stessa un biosimilare è un farmaco biologico simile per caratteristiche ad un farmaco biologico originario precedente I farmaci biosimilari sono medicinali simili per qualità efficacia e sicurezza ai farmaci biologici di riferimento e non soggetti a copertura brevettuale Cosa sono i farmaci biosimilari Perché vengono sviluppati i farmaci biosimilari Cosa sono i farmaci generici I farmaci biosimilari sono come i generici Un documento di consenso Commissione Europea CRESCITA Cosa cè da sapere riguardo ai Informazioni per i pazienti Medicinali Biosimilari  Il farmaco biosimilare è un biologico approvato con qualità sicurezza ed efficacia comparabile a un prodotto di riferimento  classf feb   I farmaci biosimilari sono medicinali sviluppati in modo da risultare simili ad un farmaco biologico di riferimento già autorizzato nellUnione  Il farmaco biosimilare non è e non può essere considerato il genericowbrequivalente di un farmaco biologico Ciò è dovuto soprattutto a quella variabilità naturale wbr  classf apr   LAgenzia italiana del farmaco ha appena stabilito che i farmaci biosimilari sono intercambiabili con i cosiddetti originator Cosa significa  classf mar    marzo  Per favorire la conoscenza dei farmaci biosimilari in linea con lwbrindirizzo del Documento in materia di Governance farmaceutica wbr</t>
+  </si>
+  <si>
+    <t>sifolegislazionegmailcom Biosimilare Normativa di riferimento DEFINIZIONEwbr La definizione di farmaco biologico e biosimilare più volte ripresa e precisatawbr I medicinali biosimilari  Normativa vigente in UE in merito ai medicinali biosimilari  Denominazione e identificazione dei farmaci biologici compresi iwbr wbr  classf lug   Sono fornite informazioni generali sui medicinali biosimilari che comprendono elenti tratti dalla normativa vigente indicazioni sullo stato   classf apr   definizione e principali criteri di caratterizzazione dei medicinali biologici e biosimilari allinquadramento delle normative regolatorie vigenti  Definizione di medicinale biosimilare I medicinali biosimilari sono per definizione normativa farmaci biolo gici che contengono una sostanza attiva simile a un   classf ott   AIFA riconduce tale proposta di modifica legislativa alla necessità di adeguamento della normativa alle ultime evidenze scientifiche e alla  I produttori di biosimilari sono tenuti ad istituire secondo le normative vigenti un sista di farmacovigilanza per il monitoraggio della sicurezza del prodotto Un documento di consenso Commissione Europea CRESCITA Cosa cè da sapere riguardo ai Informazioni per i pazienti Medicinali Biosimilari   classf lug   Sono fornite informazioni generali sui medicinali biosimilari che comprendono elenti tratti dalla normativa vigente indicazioni sullo stato   classf apr   La normativa sulla sostituibilità dei biosimilari in Europa Limmagine figura  di un articolo postato poco meno di un anno fa su Gabionline  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attivi così prodotti costituiti ad espio da proteine normalmente sono più grandi e più  I medicinali biosimilari e i medicinali generici ossia i farmaci che   classf feb   I farmaci biosimilari sono medicinali sviluppati in modo da risultare  far sì che il prodotto biosimilare presenti profili di qualità per espio in  Farmaci biosimilari  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni Il farmaco biosimilare è un biologico approvato con qualità sicurezza ed efficacia comparabile a un prodotto di riferimento Farmaci biotecnologici e biosimilari La rivoluzione dei biotech dalle eritropoietine  molecole più complesse quali ad espio gli anticorpi monoclonali antitumorale ad espio i biosimilari del trastuzumab un anticorpo monoclonale antiHER lintroduzione di un farmaco biosimilare nella pratica clinica   classf mar    marzo  Per favorire la conoscenza dei farmaci biosimilari in linea  quali ad espio malattie infiammatorie autoimmuni neurologiche e   classf mag   La protezione brevettuale di diversi farmaci biologici di prima  Ad espio  spiega Condorelli  lintroduzione del biosimilare di infliximab  In Italia limpiego dei farmaci biosimilari seppure in crescita rimane ancora limitato e  Ad espio letanercept e linfliximab hanno subito più di  e    classf apr   LAgenzia italiana del farmaco ha appena stabilito che i farmaci biosimilari sono intercambiabili con i cosiddetti originator  umano ad espio proteine come lwbrinsulina lormone della crescita e leritropoietina I medicinali wbr</t>
+  </si>
+  <si>
+    <t>I farmaci generici legge  agosto  n art comma  sono medicinali con copertura brevettuale scaduta immessi in commercio con la Il farmaco biosimilare non è e non può essere considerato il genericowbrequivalente di un farmaco biologico Ciò è dovuto soprattutto a quella variabilità naturale wbr FARMACO GENERICO e EQUIVALENTE Con la Legge  art  comma  il medicinale equivalente era stato introdotto con la denominazione diwbr wbr Il generico è un medicinale a base di uno o più principi attivi prodotto  che un farmaco generico è equivalente e quindi sostituibile con il medicinale di   classf lug   a cura di SIF Società Italiana di Farmacologia I farmaci attualmente impiegati in pratica clinica possono essere classificati in funzione della  Alla base dello sviluppo dei biosimilari cè la stessa idea per cui sono prodotti i farmaci generici fornire unalternativa più economica al paziente quando scade  FACOLTÀ DI SCIENZE DEL FARMACO  I medicinali generici e biosimilari sono automaticamente  Generici per i quali la bioequivalenza non è rilevante  classf giu   Per i biosimilari il discorso è diverso  Anche il termine farmaco generico rinominato dalla normativa nazionale medicinale equivalente  Indice Cosa sono i farmaci biologici Cosa sono i farmaci biosimilari Perché vengono sviluppati i farmaci biosimilari Cosa sono i farmaci generici I farmaciwbr wbr A differenza dei generici largamente diffusi da decenni a livello mondiale la situazione  Farmaci biosimilari e generici a confronto il punto di vista economico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come suggerito dalla parola stessa un biosimilare è un farmaco biologico simile per caratteristiche ad un farmaco biologico originario precedente I farmaci biosimilari sono medicinali simili per qualità efficacia e sicurezza ai farmaci biologici di riferimento e non soggetti a copertura brevettuale Informazioni sui medicinali biosimilari per i pazienti    Un medicinale biosimilare è un farmaco sviluppato in modo da essere estramente simile a unwbrwbr  classf feb   I farmaci biosimilari sono medicinali sviluppati in modo da risultare simili ad un farmaco biologico di riferimento già autorizzato nellUnione  Indice Cosa sono i farmaci biologici Cosa sono i farmaci biosimilari Perché vengono sviluppati i farmaci biosimilari Cosa sono i farmaci generici I farmaciwbr wbr  classf apr   LAgenzia italiana del farmaco ha appena stabilito che i farmaci biosimilari sono intercambiabili con i cosiddetti originator Cosa significa Il farmaco biosimilare è un biologico approvato con qualità sicurezza ed efficacia comparabile a un prodotto di riferimento  classf mar    marzo  Per favorire la conoscenza dei farmaci biosimilari in linea con lwbrindirizzo del Documento in materia di Governance farmaceutica wbr  classf mag   La protezione brevettuale di diversi farmaci biologici di prima generazione è scaduta ciò ha permesso lintroduzione di medicinali biosimilari  Farmaci biosimilari  Scheda informativa indicazioni efficacia modo duso avvertenze gravidanza allattamento effetti collaterali controindicazioni interazoni</t>
+  </si>
+  <si>
+    <t>I farmaci biosimilari sono medicinali simili per qualità efficacia e sicurezza ai farmaci biologici di riferimento e non soggetti a copertura brevettuale Con il presente documento lAgenzia Italiana del Farmaco AIFA fornisce agli ope  farmaci cosiddetti biosimilari medicinali simili per qualità efficacia e  Secondo Position Paper AIFA sui farmaci biosimilari Pillole dal Mondo n   LAgenzia Italiana del Farmaco ha pubblicato il Secondo Position   classf mar    marzo  Per favorire la conoscenza dei farmaci biosimilari in linea con lwbrindirizzo del Documento in materia di Governance farmaceutica wbr  classf lug    luglio  LAgenzia del farmaco ha divulgato il suo report sulla farmacovigilanza dei biosimilari Da quanto erge dallanalisi quantitativa e   classf mar   Così lAgenzia italiana del farmaco Aifa chiarisce la sua posizione sulluso dei farmaci biosimilari alternative più economiche ai farmaci   classf lug   Roma  luglio  LAgenzia Italiana del Farmaco ha pubblicato venerdì scorso il documento Medicinali biosimilari  Analisi di sicurezza  classf mar   Sono queste le principali novità contenute nel secondo Position paper dellAifa sui farmaci biosimilari presentato questa mattina a Roma I medicinali biosimilari y Eormativa vigente in UC in merito ai medicinali biosimilari  Benominazione e identificazione dei farmaci biologici compresi i farmaci  Il  marzo scorso è stato presentato a Roma il secondo paper AIFA sui Farmaci Biosimilari Il documento rappresenta la posizione ufficiale dellAgenzia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come suggerito dalla parola stessa un biosimilare è un farmaco biologico simile per caratteristiche ad un farmaco biologico originario precedente I farmaci biosimilari sono medicinali simili per qualità efficacia e sicurezza ai farmaci biologici di riferimento e non soggetti a copertura brevettuale Cosa sono i farmaci biosimilari Perché vengono sviluppati i farmaci biosimilari Cosa sono i farmaci generici I farmaci biosimilari sono come i generici Questa informativa condivisa sui medicinali biosimilari è stata redatta da e per i pazienti insie con i rappresentanti dellAgenzia Europea per i medicinali  Il farmaco biosimilare è un biologico approvato con qualità sicurezza ed efficacia comparabile a un prodotto di riferimento  classf feb   I farmaci biosimilari sono medicinali sviluppati in modo da risultare simili ad un farmaco biologico di riferimento già autorizzato nellUnione   classf apr   LAgenzia italiana del farmaco ha appena stabilito che i farmaci biosimilari sono intercambiabili con i cosiddetti originator Cosa significa  classf mar    marzo  Per favorire la conoscenza dei farmaci biosimilari in linea con lwbrindirizzo del Documento in materia di Governance farmaceutica wbr I farmaci generici legge  agosto  n art comma  sono medicinali con copertura brevettuale scaduta immessi in commercio con la</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> classf ago   lesclusione della sostituibilità automatica tra biologico e biosimilare ribadita anche nella Legge di Stabilità  la prossima scadenza  I farmaci biosimilari sono medicinali simili per qualità efficacia e sicurezza ai  Eventuali differenze presenti tra il farmaco biologico e il suo biosimilare non  biosimilari nellUE Guida informativa per gli operatori sanitari   Guida   classf set   Roma  settbre  Nel primo sestre dellanno il mercato dei farmaci biosimilari continua la sua crescita le sette molecole in commercio  I biosimilari non sono uguali alloriginator né tra loro e pertanto non sono automaticamente sostituibili un principio ribadito dalla legge di bilancio  Anche farmaci cosiddetti biosimilari medicinali simili per qualità efficacia e sicurezza  maggio  pubblicata dallEMA e dalla Commissione Europea e   classf dic   Legge di Bilancio  testo approvato definitivamente dal Senato le  Nelle procedure pubbliche di acquisto per i farmaci biosimilari non  Dicbre  Utilizzo dei farmaci biosimilari in Italia negli anni  Ylenia Ingrasciotta¹ Rosa Gini² e Gianluca Trifirò² per la Rete italiana di ricerca sui  principio ribadito dalla legge di bilancio  Anche lAifa ha deciso di non includere i biosimilari nelle liste di trasparenza escludendone di fatto la sostituibilità  classf lug   Levoluzione dei farmaci biosimilari negli ultimi  anni spiega il report  Per quanto riguarda lEuropa nel  luptake dei biosimilari è  SOSTITUIBILITA AUTOMATICA BIOSIMILARI LEGGE  dicbre  n  Bilancio di previsione dello Stato per lanno finanziario  e bilancio </t>
   </si>
 </sst>
 </file>
@@ -1525,15 +2115,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF9DD66-3E3A-AE4E-B637-67A587AE5F9F}">
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1044891"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +2133,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1554,8 +2147,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1565,8 +2161,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1576,8 +2175,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1587,8 +2189,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1598,8 +2203,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +2217,11 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1620,8 +2231,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1631,8 +2245,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1642,8 +2259,11 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1653,8 +2273,11 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1664,8 +2287,11 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1675,8 +2301,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1686,8 +2315,11 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1697,8 +2329,11 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1708,8 +2343,11 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1719,8 +2357,11 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1730,8 +2371,11 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1741,8 +2385,11 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +2399,11 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1763,8 +2413,11 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1774,8 +2427,11 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1785,8 +2441,11 @@
       <c r="C23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1796,8 +2455,11 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1807,8 +2469,11 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +2483,11 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1829,8 +2497,11 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +2511,11 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1851,8 +2525,11 @@
       <c r="C29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1862,8 +2539,11 @@
       <c r="C30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1873,8 +2553,11 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1884,8 +2567,11 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1895,8 +2581,11 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1906,8 +2595,11 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1917,8 +2609,11 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1928,8 +2623,11 @@
       <c r="C36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1939,8 +2637,11 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1950,8 +2651,11 @@
       <c r="C38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1961,8 +2665,11 @@
       <c r="C39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1972,8 +2679,11 @@
       <c r="C40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1983,8 +2693,11 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1994,8 +2707,11 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2005,8 +2721,11 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2016,8 +2735,11 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2027,8 +2749,11 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2038,8 +2763,11 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2049,8 +2777,11 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2791,11 @@
       <c r="C48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -2071,8 +2805,11 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -2082,8 +2819,11 @@
       <c r="C50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2093,8 +2833,11 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2104,8 +2847,11 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -2115,8 +2861,11 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -2126,8 +2875,11 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2137,8 +2889,11 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2148,8 +2903,11 @@
       <c r="C56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -2159,8 +2917,11 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2170,8 +2931,11 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2181,8 +2945,11 @@
       <c r="C59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2959,11 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2203,8 +2973,11 @@
       <c r="C61" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2214,8 +2987,11 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -2225,8 +3001,11 @@
       <c r="C63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2236,8 +3015,11 @@
       <c r="C64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2247,8 +3029,11 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -2258,8 +3043,11 @@
       <c r="C66" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -2269,8 +3057,11 @@
       <c r="C67" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -2280,8 +3071,11 @@
       <c r="C68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -2291,8 +3085,11 @@
       <c r="C69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -2302,8 +3099,11 @@
       <c r="C70" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -2313,8 +3113,11 @@
       <c r="C71" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -2324,8 +3127,11 @@
       <c r="C72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2335,8 +3141,11 @@
       <c r="C73" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2346,8 +3155,11 @@
       <c r="C74" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2357,8 +3169,11 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2368,8 +3183,11 @@
       <c r="C76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -2379,8 +3197,11 @@
       <c r="C77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2390,8 +3211,11 @@
       <c r="C78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>99</v>
       </c>
@@ -2401,8 +3225,11 @@
       <c r="C79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -2412,8 +3239,11 @@
       <c r="C80" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -2423,8 +3253,11 @@
       <c r="C81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -2434,8 +3267,11 @@
       <c r="C82" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2445,8 +3281,11 @@
       <c r="C83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -2456,8 +3295,11 @@
       <c r="C84" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -2467,8 +3309,11 @@
       <c r="C85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -2478,8 +3323,11 @@
       <c r="C86" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -2489,8 +3337,11 @@
       <c r="C87" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -2500,8 +3351,11 @@
       <c r="C88" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -2511,8 +3365,11 @@
       <c r="C89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -2522,8 +3379,11 @@
       <c r="C90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2533,8 +3393,11 @@
       <c r="C91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -2544,8 +3407,11 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2555,8 +3421,11 @@
       <c r="C93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -2566,8 +3435,11 @@
       <c r="C94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2577,8 +3449,11 @@
       <c r="C95" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -2588,8 +3463,11 @@
       <c r="C96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2599,8 +3477,11 @@
       <c r="C97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -2610,8 +3491,11 @@
       <c r="C98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -2621,8 +3505,11 @@
       <c r="C99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -2632,8 +3519,11 @@
       <c r="C100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -2643,8 +3533,11 @@
       <c r="C101" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -2654,8 +3547,11 @@
       <c r="C102" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -2665,8 +3561,11 @@
       <c r="C103" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -2676,8 +3575,11 @@
       <c r="C104" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -2687,8 +3589,11 @@
       <c r="C105" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2698,8 +3603,11 @@
       <c r="C106" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -2709,8 +3617,11 @@
       <c r="C107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -2720,8 +3631,11 @@
       <c r="C108" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -2731,8 +3645,11 @@
       <c r="C109" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -2742,8 +3659,11 @@
       <c r="C110" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -2753,8 +3673,11 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -2764,8 +3687,11 @@
       <c r="C112" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -2775,8 +3701,11 @@
       <c r="C113" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>135</v>
       </c>
@@ -2786,8 +3715,11 @@
       <c r="C114" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -2797,8 +3729,11 @@
       <c r="C115" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -2808,8 +3743,11 @@
       <c r="C116" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -2819,8 +3757,11 @@
       <c r="C117" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>140</v>
       </c>
@@ -2830,8 +3771,11 @@
       <c r="C118" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -2841,8 +3785,11 @@
       <c r="C119" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -2852,8 +3799,11 @@
       <c r="C120" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -2863,8 +3813,11 @@
       <c r="C121" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -2874,8 +3827,11 @@
       <c r="C122" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -2885,8 +3841,11 @@
       <c r="C123" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -2896,8 +3855,11 @@
       <c r="C124" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -2907,8 +3869,11 @@
       <c r="C125" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -2918,8 +3883,11 @@
       <c r="C126" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -2929,8 +3897,11 @@
       <c r="C127" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2940,8 +3911,11 @@
       <c r="C128" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>153</v>
       </c>
@@ -2951,8 +3925,11 @@
       <c r="C129" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -2962,8 +3939,11 @@
       <c r="C130" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -2973,8 +3953,11 @@
       <c r="C131" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -2984,8 +3967,11 @@
       <c r="C132" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>157</v>
       </c>
@@ -2995,8 +3981,11 @@
       <c r="C133" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3006,8 +3995,11 @@
       <c r="C134" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -3017,8 +4009,11 @@
       <c r="C135" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -3028,8 +4023,11 @@
       <c r="C136" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -3039,8 +4037,11 @@
       <c r="C137" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -3050,8 +4051,11 @@
       <c r="C138" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3061,8 +4065,11 @@
       <c r="C139" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -3072,8 +4079,11 @@
       <c r="C140" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -3083,8 +4093,11 @@
       <c r="C141" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -3094,8 +4107,11 @@
       <c r="C142" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>170</v>
       </c>
@@ -3105,8 +4121,11 @@
       <c r="C143" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -3116,8 +4135,11 @@
       <c r="C144" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -3127,8 +4149,11 @@
       <c r="C145" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>173</v>
       </c>
@@ -3138,8 +4163,11 @@
       <c r="C146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -3149,8 +4177,11 @@
       <c r="C147" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>176</v>
       </c>
@@ -3160,8 +4191,11 @@
       <c r="C148" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -3171,8 +4205,11 @@
       <c r="C149" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -3182,8 +4219,11 @@
       <c r="C150" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -3193,8 +4233,11 @@
       <c r="C151" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -3204,8 +4247,11 @@
       <c r="C152" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -3215,8 +4261,11 @@
       <c r="C153" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -3226,8 +4275,11 @@
       <c r="C154" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -3237,8 +4289,11 @@
       <c r="C155" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>185</v>
       </c>
@@ -3248,8 +4303,11 @@
       <c r="C156" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -3259,8 +4317,11 @@
       <c r="C157" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -3270,8 +4331,11 @@
       <c r="C158" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -3281,8 +4345,11 @@
       <c r="C159" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3292,8 +4359,11 @@
       <c r="C160" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -3303,8 +4373,11 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -3314,8 +4387,11 @@
       <c r="C162" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>192</v>
       </c>
@@ -3325,8 +4401,11 @@
       <c r="C163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -3336,8 +4415,11 @@
       <c r="C164" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -3347,8 +4429,11 @@
       <c r="C165" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -3358,8 +4443,11 @@
       <c r="C166" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -3369,8 +4457,11 @@
       <c r="C167" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -3380,8 +4471,11 @@
       <c r="C168" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -3391,8 +4485,11 @@
       <c r="C169" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>198</v>
       </c>
@@ -3402,8 +4499,11 @@
       <c r="C170" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>199</v>
       </c>
@@ -3413,8 +4513,11 @@
       <c r="C171" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -3424,8 +4527,11 @@
       <c r="C172" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>201</v>
       </c>
@@ -3435,8 +4541,11 @@
       <c r="C173" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -3446,8 +4555,11 @@
       <c r="C174" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -3457,8 +4569,11 @@
       <c r="C175" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -3468,8 +4583,11 @@
       <c r="C176" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -3479,8 +4597,11 @@
       <c r="C177" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -3490,8 +4611,11 @@
       <c r="C178" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -3501,8 +4625,11 @@
       <c r="C179" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -3512,8 +4639,11 @@
       <c r="C180" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3523,8 +4653,11 @@
       <c r="C181" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -3534,8 +4667,11 @@
       <c r="C182" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -3545,8 +4681,11 @@
       <c r="C183" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -3556,8 +4695,11 @@
       <c r="C184" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -3567,8 +4709,11 @@
       <c r="C185" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -3578,8 +4723,11 @@
       <c r="C186" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -3589,8 +4737,11 @@
       <c r="C187" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -3600,8 +4751,11 @@
       <c r="C188" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -3611,8 +4765,11 @@
       <c r="C189" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>218</v>
       </c>
@@ -3622,8 +4779,11 @@
       <c r="C190" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -3633,8 +4793,11 @@
       <c r="C191" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -3644,8 +4807,11 @@
       <c r="C192" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -3655,8 +4821,11 @@
       <c r="C193" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -3666,8 +4835,11 @@
       <c r="C194" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -3677,8 +4849,11 @@
       <c r="C195" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -3688,8 +4863,11 @@
       <c r="C196" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -3699,8 +4877,11 @@
       <c r="C197" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -3711,7 +4892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>227</v>
       </c>
@@ -3722,7 +4903,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -3733,7 +4914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -3744,7 +4925,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -3755,7 +4936,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -3766,7 +4947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -3777,7 +4958,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -3788,7 +4969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +4980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>236</v>
       </c>
@@ -3810,7 +4991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>5</v>
       </c>
